--- a/Report/NewReport/煤炭总医院.xlsx
+++ b/Report/NewReport/煤炭总医院.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="737">
   <si>
     <t>注：所有比率数据都采用差值方式</t>
   </si>
@@ -1658,6 +1658,18 @@
     <t>订单状态</t>
   </si>
   <si>
+    <t>2018-09-13</t>
+  </si>
+  <si>
+    <t>22:51:52</t>
+  </si>
+  <si>
+    <t>186****1595</t>
+  </si>
+  <si>
+    <t>新订单</t>
+  </si>
+  <si>
     <t>2018-09-09</t>
   </si>
   <si>
@@ -1671,9 +1683,6 @@
   </si>
   <si>
     <t>我姓盛，电话是13552105103</t>
-  </si>
-  <si>
-    <t>新订单</t>
   </si>
   <si>
     <t>2018-09-07</t>
@@ -2262,11 +2271,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt formatCode="#,##0_ " numFmtId="164"/>
     <numFmt formatCode="0.0%" numFmtId="165"/>
     <numFmt formatCode="0.0" numFmtId="166"/>
     <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="167"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="168"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -3232,7 +3242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="219">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3879,6 +3889,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -11819,7 +11830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0" zoomScale="119" zoomScaleNormal="120">
       <selection activeCell="G12" sqref="G12"/>
@@ -12882,6 +12893,29 @@
       </c>
       <c r="G45" t="n">
         <v>32.52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B46" t="n">
+        <v>9</v>
+      </c>
+      <c r="C46" s="218" t="n">
+        <v>43356</v>
+      </c>
+      <c r="D46" t="n">
+        <v>165</v>
+      </c>
+      <c r="E46" t="n">
+        <v>34</v>
+      </c>
+      <c r="F46" t="n">
+        <v>71.12</v>
+      </c>
+      <c r="G46" t="n">
+        <v>34.28</v>
       </c>
     </row>
   </sheetData>
@@ -15632,19 +15666,17 @@
         <v>535</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="139" t="s"/>
+      <c r="G2" s="139" t="s">
         <v>536</v>
       </c>
-      <c r="G2" s="139" t="s">
+      <c r="H2" s="139" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="139" t="s">
         <v>537</v>
-      </c>
-      <c r="H2" s="139" t="s">
-        <v>538</v>
-      </c>
-      <c r="I2" s="139" t="s">
-        <v>539</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="3" s="188" spans="1:9">
@@ -15655,25 +15687,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="139" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G3" s="139" t="s">
+        <v>541</v>
+      </c>
+      <c r="H3" s="139" t="s">
         <v>542</v>
       </c>
-      <c r="H3" s="139" t="s">
-        <v>543</v>
-      </c>
       <c r="I3" s="139" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="4" s="188" spans="1:9">
@@ -15681,28 +15713,28 @@
         <v>2018</v>
       </c>
       <c r="B4" s="110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>544</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>545</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="139" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G4" s="139" t="s">
+        <v>545</v>
+      </c>
+      <c r="H4" s="139" t="s">
         <v>546</v>
       </c>
-      <c r="H4" s="139" t="s">
-        <v>547</v>
-      </c>
       <c r="I4" s="139" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="5" s="188" spans="1:9">
@@ -15710,28 +15742,28 @@
         <v>2018</v>
       </c>
       <c r="B5" s="110" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G5" s="139" t="s">
+        <v>549</v>
+      </c>
+      <c r="H5" s="139" t="s">
+        <v>550</v>
+      </c>
+      <c r="I5" s="139" t="s">
         <v>551</v>
-      </c>
-      <c r="H5" s="139" t="s">
-        <v>552</v>
-      </c>
-      <c r="I5" s="139" t="s">
-        <v>539</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="6" s="188" spans="1:9">
@@ -15739,28 +15771,28 @@
         <v>2018</v>
       </c>
       <c r="B6" s="110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>553</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>554</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="139" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G6" s="139" t="s">
+        <v>554</v>
+      </c>
+      <c r="H6" s="139" t="s">
         <v>555</v>
       </c>
-      <c r="H6" s="139" t="s">
-        <v>556</v>
-      </c>
       <c r="I6" s="139" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="7" s="188" spans="1:9">
@@ -15771,25 +15803,25 @@
         <v>8</v>
       </c>
       <c r="C7" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>557</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>558</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="139" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G7" s="139" t="s">
+        <v>558</v>
+      </c>
+      <c r="H7" s="139" t="s">
         <v>559</v>
       </c>
-      <c r="H7" s="139" t="s">
-        <v>560</v>
-      </c>
       <c r="I7" s="139" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="8" s="188" spans="1:9">
@@ -15800,25 +15832,25 @@
         <v>8</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G8" s="139" t="s">
+        <v>562</v>
+      </c>
+      <c r="H8" s="139" t="s">
+        <v>563</v>
+      </c>
+      <c r="I8" s="139" t="s">
         <v>564</v>
-      </c>
-      <c r="H8" s="139" t="s">
-        <v>565</v>
-      </c>
-      <c r="I8" s="139" t="s">
-        <v>561</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="9" s="188" spans="1:9">
@@ -15829,25 +15861,25 @@
         <v>8</v>
       </c>
       <c r="C9" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>566</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>567</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="139" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G9" s="139" t="s">
+        <v>567</v>
+      </c>
+      <c r="H9" s="139" t="s">
         <v>568</v>
       </c>
-      <c r="H9" s="139" t="s">
-        <v>569</v>
-      </c>
       <c r="I9" s="139" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="10" s="188" spans="1:9">
@@ -15858,25 +15890,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>570</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>571</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="139" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G10" s="139" t="s">
+        <v>571</v>
+      </c>
+      <c r="H10" s="139" t="s">
         <v>572</v>
       </c>
-      <c r="H10" s="139" t="s">
-        <v>573</v>
-      </c>
       <c r="I10" s="139" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="11" s="188" spans="1:9">
@@ -15887,23 +15919,25 @@
         <v>8</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>574</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="139" t="s"/>
+        <v>9</v>
+      </c>
+      <c r="F11" s="139" t="s">
+        <v>540</v>
+      </c>
       <c r="G11" s="139" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="H11" s="139" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I11" s="139" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="12" s="188" spans="1:9">
@@ -15914,7 +15948,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>577</v>
@@ -15924,13 +15958,13 @@
       </c>
       <c r="F12" s="139" t="s"/>
       <c r="G12" s="139" t="s">
+        <v>575</v>
+      </c>
+      <c r="H12" s="139" t="s">
         <v>578</v>
       </c>
-      <c r="H12" s="139" t="s">
-        <v>187</v>
-      </c>
       <c r="I12" s="139" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="13" s="188" spans="1:9">
@@ -15947,19 +15981,17 @@
         <v>580</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="139" t="s">
-        <v>536</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F13" s="139" t="s"/>
       <c r="G13" s="139" t="s">
         <v>581</v>
       </c>
       <c r="H13" s="139" t="s">
-        <v>582</v>
+        <v>187</v>
       </c>
       <c r="I13" s="139" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="14" s="188" spans="1:9">
@@ -15970,25 +16002,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="29" t="s">
+        <v>582</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>583</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>584</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="139" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G14" s="139" t="s">
+        <v>584</v>
+      </c>
+      <c r="H14" s="139" t="s">
         <v>585</v>
       </c>
-      <c r="H14" s="139" t="s">
-        <v>586</v>
-      </c>
       <c r="I14" s="139" t="s">
-        <v>587</v>
+        <v>551</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="15" s="188" spans="1:9">
@@ -15999,25 +16031,25 @@
         <v>8</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="139" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G15" s="139" t="s">
+        <v>588</v>
+      </c>
+      <c r="H15" s="139" t="s">
+        <v>589</v>
+      </c>
+      <c r="I15" s="139" t="s">
         <v>590</v>
-      </c>
-      <c r="H15" s="139" t="s">
-        <v>591</v>
-      </c>
-      <c r="I15" s="139" t="s">
-        <v>587</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="16" s="188" spans="1:9">
@@ -16028,25 +16060,25 @@
         <v>8</v>
       </c>
       <c r="C16" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>592</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>593</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="139" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G16" s="139" t="s">
+        <v>593</v>
+      </c>
+      <c r="H16" s="139" t="s">
         <v>594</v>
       </c>
-      <c r="H16" s="139" t="s">
-        <v>595</v>
-      </c>
       <c r="I16" s="139" t="s">
-        <v>548</v>
+        <v>590</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="17" s="188" spans="1:9">
@@ -16057,25 +16089,25 @@
         <v>8</v>
       </c>
       <c r="C17" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>596</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>597</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="139" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G17" s="139" t="s">
+        <v>597</v>
+      </c>
+      <c r="H17" s="139" t="s">
         <v>598</v>
       </c>
-      <c r="H17" s="139" t="s">
-        <v>599</v>
-      </c>
       <c r="I17" s="139" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="18" s="188" spans="1:9">
@@ -16086,35 +16118,53 @@
         <v>8</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>600</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="139" t="s"/>
+        <v>9</v>
+      </c>
+      <c r="F18" s="139" t="s">
+        <v>540</v>
+      </c>
       <c r="G18" s="139" t="s">
         <v>601</v>
       </c>
       <c r="H18" s="139" t="s">
+        <v>602</v>
+      </c>
+      <c r="I18" s="139" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.5" r="19" s="188" spans="1:9">
+      <c r="A19" s="110" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="110" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="139" t="s"/>
+      <c r="G19" s="139" t="s">
+        <v>604</v>
+      </c>
+      <c r="H19" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="I18" s="139" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="16.5" r="19" s="188" spans="1:9">
-      <c r="A19" s="110" t="n"/>
-      <c r="B19" s="110" t="n"/>
-      <c r="C19" s="29" t="n"/>
-      <c r="D19" s="30" t="n"/>
-      <c r="E19" s="30" t="n"/>
-      <c r="F19" s="139" t="n"/>
-      <c r="G19" s="139" t="n"/>
-      <c r="H19" s="139" t="n"/>
-      <c r="I19" s="139" t="n"/>
+      <c r="I19" s="139" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row customHeight="1" ht="16.5" r="20" s="188" spans="1:9">
       <c r="A20" s="110" t="n"/>
@@ -16348,37 +16398,37 @@
         <v>111</v>
       </c>
       <c r="C1" s="117" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F1" s="77" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="G1" s="77" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="H1" s="77" t="s">
         <v>116</v>
       </c>
       <c r="I1" s="77" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="J1" s="77" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="K1" s="77" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="L1" s="77" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="M1" s="77" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -16395,16 +16445,16 @@
         <v>77932709186</v>
       </c>
       <c r="E2" s="126" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="G2" s="127" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="H2" s="126" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I2" s="126" t="n">
         <v>18</v>
@@ -16419,7 +16469,7 @@
         <v>188</v>
       </c>
       <c r="M2" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -16436,16 +16486,16 @@
         <v>38397034716</v>
       </c>
       <c r="E3" s="126" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="F3" s="80" t="s">
+        <v>621</v>
+      </c>
+      <c r="G3" s="127" t="s">
+        <v>622</v>
+      </c>
+      <c r="H3" s="126" t="s">
         <v>618</v>
-      </c>
-      <c r="G3" s="127" t="s">
-        <v>619</v>
-      </c>
-      <c r="H3" s="126" t="s">
-        <v>615</v>
       </c>
       <c r="I3" s="126" t="n">
         <v>18</v>
@@ -16460,7 +16510,7 @@
         <v>188</v>
       </c>
       <c r="M3" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -16477,16 +16527,16 @@
         <v>51984675638</v>
       </c>
       <c r="E4" s="126" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="F4" s="80" t="s">
+        <v>621</v>
+      </c>
+      <c r="G4" s="127" t="s">
+        <v>624</v>
+      </c>
+      <c r="H4" s="126" t="s">
         <v>618</v>
-      </c>
-      <c r="G4" s="127" t="s">
-        <v>621</v>
-      </c>
-      <c r="H4" s="126" t="s">
-        <v>615</v>
       </c>
       <c r="I4" s="126" t="n">
         <v>18</v>
@@ -16501,7 +16551,7 @@
         <v>188</v>
       </c>
       <c r="M4" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -16518,16 +16568,16 @@
         <v>36825480773</v>
       </c>
       <c r="E5" s="126" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="F5" s="80" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="G5" s="127" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="H5" s="126" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I5" s="126" t="n">
         <v>18</v>
@@ -16542,7 +16592,7 @@
         <v>188</v>
       </c>
       <c r="M5" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -16559,16 +16609,16 @@
         <v>33122016090</v>
       </c>
       <c r="E6" s="126" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="F6" s="80" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="G6" s="127" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="H6" s="126" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="I6" s="126" t="n">
         <v>199</v>
@@ -16583,7 +16633,7 @@
         <v>188</v>
       </c>
       <c r="M6" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -16600,16 +16650,16 @@
         <v>41563867428</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="F7" s="80" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G7" s="127" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H7" s="126" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I7" s="126" t="n">
         <v>18</v>
@@ -16624,7 +16674,7 @@
         <v>188</v>
       </c>
       <c r="M7" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -16641,16 +16691,16 @@
         <v>86854746681</v>
       </c>
       <c r="E8" s="126" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="F8" s="80" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="G8" s="127" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="H8" s="126" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I8" s="126" t="n">
         <v>18</v>
@@ -16665,7 +16715,7 @@
         <v>188</v>
       </c>
       <c r="M8" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -16682,16 +16732,16 @@
         <v>4113284451</v>
       </c>
       <c r="E9" s="126" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="G9" s="127" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="H9" s="126" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I9" s="126" t="n">
         <v>18</v>
@@ -16706,7 +16756,7 @@
         <v>188</v>
       </c>
       <c r="M9" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -16723,13 +16773,13 @@
         <v>3188419512</v>
       </c>
       <c r="E10" s="126" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F10" s="80" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="G10" s="127" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="H10" s="126" t="s">
         <v>137</v>
@@ -16747,7 +16797,7 @@
         <v>188</v>
       </c>
       <c r="M10" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -16764,16 +16814,16 @@
         <v>77926699348</v>
       </c>
       <c r="E11" s="126" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G11" s="127" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="H11" s="126" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I11" s="126" t="n">
         <v>18</v>
@@ -16788,7 +16838,7 @@
         <v>188</v>
       </c>
       <c r="M11" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -16805,16 +16855,16 @@
         <v>42732013704</v>
       </c>
       <c r="E12" s="126" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G12" s="127" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="H12" s="126" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="I12" s="126" t="n">
         <v>19.9</v>
@@ -16829,7 +16879,7 @@
         <v>188</v>
       </c>
       <c r="M12" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -16846,16 +16896,16 @@
         <v>22045833668</v>
       </c>
       <c r="E13" s="126" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G13" s="127" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="H13" s="126" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I13" s="126" t="n">
         <v>18</v>
@@ -16870,7 +16920,7 @@
         <v>188</v>
       </c>
       <c r="M13" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -16887,16 +16937,16 @@
         <v>26722847649</v>
       </c>
       <c r="E14" s="126" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="F14" s="80" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="G14" s="127" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="H14" s="126" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="I14" s="126" t="n">
         <v>168</v>
@@ -16911,7 +16961,7 @@
         <v>188</v>
       </c>
       <c r="M14" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -16928,16 +16978,16 @@
         <v>35650508561</v>
       </c>
       <c r="E15" s="126" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F15" s="80" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="G15" s="127" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="H15" s="126" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I15" s="126" t="n">
         <v>18</v>
@@ -16952,7 +17002,7 @@
         <v>188</v>
       </c>
       <c r="M15" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -16969,16 +17019,16 @@
         <v>4036421668</v>
       </c>
       <c r="E16" s="126" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="F16" s="80" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="G16" s="127" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="H16" s="126" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="I16" s="126" t="n">
         <v>1280</v>
@@ -16993,7 +17043,7 @@
         <v>188</v>
       </c>
       <c r="M16" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -17010,16 +17060,16 @@
         <v>3477711341</v>
       </c>
       <c r="E17" s="126" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="G17" s="127" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="H17" s="126" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="I17" s="126" t="n">
         <v>98</v>
@@ -17034,7 +17084,7 @@
         <v>188</v>
       </c>
       <c r="M17" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -17051,16 +17101,16 @@
         <v>92849998676</v>
       </c>
       <c r="E18" s="126" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="G18" s="127" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="H18" s="126" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I18" s="126" t="n">
         <v>18</v>
@@ -17075,7 +17125,7 @@
         <v>188</v>
       </c>
       <c r="M18" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -17092,16 +17142,16 @@
         <v>43559024237</v>
       </c>
       <c r="E19" s="126" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="G19" s="127" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="H19" s="126" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="I19" s="126" t="n">
         <v>19.9</v>
@@ -17116,7 +17166,7 @@
         <v>188</v>
       </c>
       <c r="M19" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -17133,13 +17183,13 @@
         <v>3437263956</v>
       </c>
       <c r="E20" s="126" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="F20" s="80" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="G20" s="127" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="H20" s="126" t="s">
         <v>137</v>
@@ -17157,7 +17207,7 @@
         <v>188</v>
       </c>
       <c r="M20" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -17174,13 +17224,13 @@
         <v>3454772622</v>
       </c>
       <c r="E21" s="126" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F21" s="80" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="G21" s="127" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="H21" s="126" t="s">
         <v>137</v>
@@ -17198,7 +17248,7 @@
         <v>188</v>
       </c>
       <c r="M21" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -17215,16 +17265,16 @@
         <v>25433898888</v>
       </c>
       <c r="E22" s="126" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="F22" s="80" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="G22" s="127" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="H22" s="126" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I22" s="126" t="n">
         <v>18</v>
@@ -17239,7 +17289,7 @@
         <v>188</v>
       </c>
       <c r="M22" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -17256,16 +17306,16 @@
         <v>49359097018</v>
       </c>
       <c r="E23" s="126" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="F23" s="80" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="G23" s="127" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="H23" s="126" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="I23" s="126" t="n">
         <v>98</v>
@@ -17280,7 +17330,7 @@
         <v>188</v>
       </c>
       <c r="M23" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -17297,16 +17347,16 @@
         <v>45480368100</v>
       </c>
       <c r="E24" s="126" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F24" s="80" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="G24" s="127" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="H24" s="126" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="I24" s="126" t="n">
         <v>98</v>
@@ -17321,7 +17371,7 @@
         <v>188</v>
       </c>
       <c r="M24" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -17338,16 +17388,16 @@
         <v>53485210725</v>
       </c>
       <c r="E25" s="126" t="s">
+        <v>684</v>
+      </c>
+      <c r="F25" s="80" t="s">
         <v>681</v>
       </c>
-      <c r="F25" s="80" t="s">
-        <v>678</v>
-      </c>
       <c r="G25" s="127" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="H25" s="126" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I25" s="126" t="n">
         <v>18</v>
@@ -17362,7 +17412,7 @@
         <v>188</v>
       </c>
       <c r="M25" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -17379,16 +17429,16 @@
         <v>31324631075</v>
       </c>
       <c r="E26" s="126" t="s">
+        <v>684</v>
+      </c>
+      <c r="F26" s="80" t="s">
         <v>681</v>
       </c>
-      <c r="F26" s="80" t="s">
-        <v>678</v>
-      </c>
       <c r="G26" s="127" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="H26" s="126" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="I26" s="126" t="n">
         <v>168</v>
@@ -17403,7 +17453,7 @@
         <v>188</v>
       </c>
       <c r="M26" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -17420,16 +17470,16 @@
         <v>94753403440</v>
       </c>
       <c r="E27" s="126" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="F27" s="80" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="G27" s="127" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H27" s="126" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="I27" s="126" t="n">
         <v>10</v>
@@ -17444,7 +17494,7 @@
         <v>188</v>
       </c>
       <c r="M27" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -17461,16 +17511,16 @@
         <v>78134610740</v>
       </c>
       <c r="E28" s="126" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="F28" s="80" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="G28" s="127" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="H28" s="126" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I28" s="126" t="n">
         <v>18</v>
@@ -17485,7 +17535,7 @@
         <v>188</v>
       </c>
       <c r="M28" s="126" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -17888,13 +17938,13 @@
         <v>115</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="E1" s="79" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="F1" s="79" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -17979,22 +18029,22 @@
         <v>115</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E1" s="79" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="F1" s="79" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="G1" s="139" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="H1" s="79" t="s">
         <v>174</v>
       </c>
       <c r="I1" s="79" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="J1" s="120" t="s">
         <v>82</v>
@@ -18006,13 +18056,13 @@
         <v>84</v>
       </c>
       <c r="M1" s="139" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="N1" s="79" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="O1" s="79" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -18023,25 +18073,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="D2" s="72" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F2" s="79" t="s">
         <v>188</v>
       </c>
       <c r="G2" s="139" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="H2" s="79" t="n">
         <v>3</v>
       </c>
       <c r="I2" s="79" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="J2" s="120" t="n">
         <v>3</v>
@@ -18053,13 +18103,13 @@
         <v>3</v>
       </c>
       <c r="M2" s="139" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="N2" s="79" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="O2" s="69" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -18070,25 +18120,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="E3" s="79" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F3" s="79" t="s">
         <v>188</v>
       </c>
       <c r="G3" s="139" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="H3" s="79" t="n">
         <v>5</v>
       </c>
       <c r="I3" s="79" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="J3" s="120" t="n">
         <v>5</v>
@@ -18100,13 +18150,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="139" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="N3" s="79" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="O3" s="69" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -18117,25 +18167,25 @@
         <v>8</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="E4" s="79" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F4" s="79" t="s">
         <v>188</v>
       </c>
       <c r="G4" s="139" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="H4" s="79" t="n">
         <v>4</v>
       </c>
       <c r="I4" s="79" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="J4" s="120" t="n">
         <v>4</v>
@@ -18147,13 +18197,13 @@
         <v>5</v>
       </c>
       <c r="M4" s="139" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="N4" s="79" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="O4" s="69" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -18164,25 +18214,25 @@
         <v>8</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="E5" s="79" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F5" s="79" t="s">
         <v>188</v>
       </c>
       <c r="G5" s="139" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="H5" s="79" t="n">
         <v>5</v>
       </c>
       <c r="I5" s="79" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="J5" s="120" t="n">
         <v>5</v>
@@ -18194,10 +18244,10 @@
         <v>5</v>
       </c>
       <c r="M5" s="139" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="N5" s="79" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="O5" s="69" t="s">
         <v>187</v>
@@ -18211,25 +18261,25 @@
         <v>8</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F6" s="79" t="s">
         <v>188</v>
       </c>
       <c r="G6" s="139" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="H6" s="79" t="n">
         <v>5</v>
       </c>
       <c r="I6" s="79" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="J6" s="120" t="n">
         <v>5</v>
@@ -18241,10 +18291,10 @@
         <v>5</v>
       </c>
       <c r="M6" s="139" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="N6" s="79" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="O6" s="69" t="s">
         <v>187</v>
@@ -18486,22 +18536,22 @@
         <v>115</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E1" s="79" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="F1" s="79" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="G1" s="139" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="H1" s="79" t="s">
         <v>174</v>
       </c>
       <c r="I1" s="79" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="J1" s="120" t="s">
         <v>82</v>
@@ -18513,13 +18563,13 @@
         <v>84</v>
       </c>
       <c r="M1" s="139" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="N1" s="79" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="O1" s="79" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -18530,25 +18580,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F2" s="79" t="s">
         <v>188</v>
       </c>
       <c r="G2" s="139" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="H2" s="79" t="n">
         <v>3</v>
       </c>
       <c r="I2" s="79" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="J2" s="120" t="n">
         <v>3</v>
@@ -18560,13 +18610,13 @@
         <v>3</v>
       </c>
       <c r="M2" s="139" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="N2" s="79" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="O2" s="79" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -18577,25 +18627,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="E3" s="79" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F3" s="79" t="s">
         <v>188</v>
       </c>
       <c r="G3" s="139" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="H3" s="79" t="n">
         <v>5</v>
       </c>
       <c r="I3" s="79" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="J3" s="120" t="n">
         <v>5</v>
@@ -18607,13 +18657,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="139" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="N3" s="79" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="O3" s="79" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -18624,25 +18674,25 @@
         <v>8</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="E4" s="79" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F4" s="79" t="s">
         <v>188</v>
       </c>
       <c r="G4" s="139" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="H4" s="79" t="n">
         <v>4</v>
       </c>
       <c r="I4" s="79" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="J4" s="120" t="n">
         <v>4</v>
@@ -18654,13 +18704,13 @@
         <v>5</v>
       </c>
       <c r="M4" s="139" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="N4" s="79" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="O4" s="79" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -18824,10 +18874,10 @@
         <v>115</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>91</v>
@@ -18845,19 +18895,19 @@
         <v>95</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/Report/NewReport/煤炭总医院.xlsx
+++ b/Report/NewReport/煤炭总医院.xlsx
@@ -32,20 +32,20 @@
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <pivotCaches>
-    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="0" r:id="rId18"/>
+    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="4" r:id="rId18"/>
     <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="1" r:id="rId19"/>
-    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="5" r:id="rId20"/>
-    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="7" r:id="rId21"/>
-    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="4" r:id="rId22"/>
+    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="2" r:id="rId20"/>
+    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="5" r:id="rId21"/>
+    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="0" r:id="rId22"/>
     <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="3" r:id="rId23"/>
     <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="6" r:id="rId24"/>
-    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="2" r:id="rId25"/>
+    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="7" r:id="rId25"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="606">
   <si>
     <t>注：所有比率数据都采用差值方式</t>
   </si>
@@ -608,6 +608,75 @@
     <t>所属门店</t>
   </si>
   <si>
+    <t>儿子天天</t>
+  </si>
+  <si>
+    <t>2018-09-17 14:08:18</t>
+  </si>
+  <si>
+    <t>2018-09-17 14:28:26</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>煤炭总医院整形美容中心</t>
+  </si>
+  <si>
+    <t>.妮小妮妮妮</t>
+  </si>
+  <si>
+    <t>2018-09-09 09:15:34</t>
+  </si>
+  <si>
+    <t>2018-09-16 09:46:19</t>
+  </si>
+  <si>
+    <t>lYw491259243</t>
+  </si>
+  <si>
+    <t>2018-09-14 21:04:40</t>
+  </si>
+  <si>
+    <t>2018-09-14 21:20:54</t>
+  </si>
+  <si>
+    <t>a15201285076</t>
+  </si>
+  <si>
+    <t>2018-09-14 20:27:07</t>
+  </si>
+  <si>
+    <t>2018-09-14 20:57:00</t>
+  </si>
+  <si>
+    <t>小甜甜Lily09</t>
+  </si>
+  <si>
+    <t>2018-09-07 23:40:07</t>
+  </si>
+  <si>
+    <t>2018-09-14 11:58:32</t>
+  </si>
+  <si>
+    <t>万人中央闺蜜是光_</t>
+  </si>
+  <si>
+    <t>2018-09-09 19:52:24</t>
+  </si>
+  <si>
+    <t>2018-09-14 11:56:12</t>
+  </si>
+  <si>
+    <t>啥玩意啦啦啦</t>
+  </si>
+  <si>
+    <t>2018-09-14 10:18:37</t>
+  </si>
+  <si>
+    <t>2018-09-14 10:19:41</t>
+  </si>
+  <si>
     <t>达瓦</t>
   </si>
   <si>
@@ -617,12 +686,6 @@
     <t>2018-09-13 10:34:25</t>
   </si>
   <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>煤炭总医院整形美容中心</t>
-  </si>
-  <si>
     <t>dpuser_3106461945</t>
   </si>
   <si>
@@ -641,24 +704,6 @@
     <t>2018-09-11 16:42:40</t>
   </si>
   <si>
-    <t>万人中央闺蜜是光_</t>
-  </si>
-  <si>
-    <t>2018-09-09 19:52:24</t>
-  </si>
-  <si>
-    <t>2018-09-10 10:33:37</t>
-  </si>
-  <si>
-    <t>.妮小妮妮妮</t>
-  </si>
-  <si>
-    <t>2018-09-09 09:15:34</t>
-  </si>
-  <si>
-    <t>2018-09-09 10:13:55</t>
-  </si>
-  <si>
     <t>CGZ285216901</t>
   </si>
   <si>
@@ -677,12 +722,6 @@
     <t>2018-09-08 22:37:20</t>
   </si>
   <si>
-    <t>小甜甜Lily09</t>
-  </si>
-  <si>
-    <t>2018-09-07 23:40:07</t>
-  </si>
-  <si>
     <t>萌孩子</t>
   </si>
   <si>
@@ -1145,498 +1184,6 @@
     <t>2018-08-01 15:38:42</t>
   </si>
   <si>
-    <t>体检</t>
-  </si>
-  <si>
-    <t>2018-07-31 18:39:16</t>
-  </si>
-  <si>
-    <t>2018-07-31 22:23:29</t>
-  </si>
-  <si>
-    <t>rWG135506946</t>
-  </si>
-  <si>
-    <t>2018-07-31 09:40:17</t>
-  </si>
-  <si>
-    <t>2018-07-31 10:44:47</t>
-  </si>
-  <si>
-    <t>lovebetty808</t>
-  </si>
-  <si>
-    <t>2018-07-30 12:57:53</t>
-  </si>
-  <si>
-    <t>2018-07-30 13:07:03</t>
-  </si>
-  <si>
-    <t>A*wei*_9876</t>
-  </si>
-  <si>
-    <t>2018-07-30 11:06:58</t>
-  </si>
-  <si>
-    <t>2018-07-30 11:10:40</t>
-  </si>
-  <si>
-    <t>jef495395080</t>
-  </si>
-  <si>
-    <t>2018-07-29 10:58:52</t>
-  </si>
-  <si>
-    <t>2018-07-29 11:00:55</t>
-  </si>
-  <si>
-    <t>初七happy</t>
-  </si>
-  <si>
-    <t>2018-07-28 21:21:44</t>
-  </si>
-  <si>
-    <t>2018-07-28 22:45:15</t>
-  </si>
-  <si>
-    <t>loveshf</t>
-  </si>
-  <si>
-    <t>2018-07-26 21:32:24</t>
-  </si>
-  <si>
-    <t>2018-07-26 21:32:58</t>
-  </si>
-  <si>
-    <t>WAO810543926</t>
-  </si>
-  <si>
-    <t>2018-07-26 19:00:27</t>
-  </si>
-  <si>
-    <t>2018-07-26 20:32:37</t>
-  </si>
-  <si>
-    <t>BdF240942407</t>
-  </si>
-  <si>
-    <t>2018-07-26 03:21:01</t>
-  </si>
-  <si>
-    <t>2018-07-26 09:06:07</t>
-  </si>
-  <si>
-    <t>HannabelleShan</t>
-  </si>
-  <si>
-    <t>2018-07-25 07:52:55</t>
-  </si>
-  <si>
-    <t>2018-07-25 13:37:07</t>
-  </si>
-  <si>
-    <t>丹丹丹丹丹0917</t>
-  </si>
-  <si>
-    <t>2018-07-24 19:48:22</t>
-  </si>
-  <si>
-    <t>2018-07-24 21:51:38</t>
-  </si>
-  <si>
-    <t>mgD393161671</t>
-  </si>
-  <si>
-    <t>2018-07-22 19:57:43</t>
-  </si>
-  <si>
-    <t>2018-07-23 09:16:35</t>
-  </si>
-  <si>
-    <t>賈美娜</t>
-  </si>
-  <si>
-    <t>2018-07-22 20:59:49</t>
-  </si>
-  <si>
-    <t>2018-07-23 09:16:04</t>
-  </si>
-  <si>
-    <t>任性妮雅</t>
-  </si>
-  <si>
-    <t>2018-07-17 16:37:43</t>
-  </si>
-  <si>
-    <t>2018-07-22 12:34:39</t>
-  </si>
-  <si>
-    <t>jodie_1993</t>
-  </si>
-  <si>
-    <t>2018-07-20 13:08:38</t>
-  </si>
-  <si>
-    <t>2018-07-20 15:14:51</t>
-  </si>
-  <si>
-    <t>英华9039</t>
-  </si>
-  <si>
-    <t>2018-07-19 10:39:18</t>
-  </si>
-  <si>
-    <t>2018-07-19 10:50:04</t>
-  </si>
-  <si>
-    <t>美体塑形</t>
-  </si>
-  <si>
-    <t>WeiXin_8045229182</t>
-  </si>
-  <si>
-    <t>2018-07-19 08:38:37</t>
-  </si>
-  <si>
-    <t>2018-07-19 10:48:29</t>
-  </si>
-  <si>
-    <t>zitongqi</t>
-  </si>
-  <si>
-    <t>2018-07-18 13:45:47</t>
-  </si>
-  <si>
-    <t>2018-07-18 15:21:38</t>
-  </si>
-  <si>
-    <t>rgL710107120</t>
-  </si>
-  <si>
-    <t>2018-07-17 19:43:01</t>
-  </si>
-  <si>
-    <t>2018-07-18 08:43:51</t>
-  </si>
-  <si>
-    <t>HUC422841778</t>
-  </si>
-  <si>
-    <t>2018-07-15 08:57:48</t>
-  </si>
-  <si>
-    <t>2018-07-15 09:02:36</t>
-  </si>
-  <si>
-    <t>浮生</t>
-  </si>
-  <si>
-    <t>2018-07-14 11:09:32</t>
-  </si>
-  <si>
-    <t>2018-07-14 11:37:00</t>
-  </si>
-  <si>
-    <t>Wang91890825</t>
-  </si>
-  <si>
-    <t>2018-07-11 12:45:27</t>
-  </si>
-  <si>
-    <t>2018-07-11 14:44:53</t>
-  </si>
-  <si>
-    <t>吸脂</t>
-  </si>
-  <si>
-    <t>Awwwwwwww</t>
-  </si>
-  <si>
-    <t>2018-07-09 06:19:20</t>
-  </si>
-  <si>
-    <t>2018-07-09 08:57:44</t>
-  </si>
-  <si>
-    <t>衣衣柜</t>
-  </si>
-  <si>
-    <t>2018-07-07 22:31:35</t>
-  </si>
-  <si>
-    <t>2018-07-07 22:38:44</t>
-  </si>
-  <si>
-    <t>美芽真真美</t>
-  </si>
-  <si>
-    <t>2018-07-06 21:29:38</t>
-  </si>
-  <si>
-    <t>2018-07-07 09:52:29</t>
-  </si>
-  <si>
-    <t>单纯QA</t>
-  </si>
-  <si>
-    <t>2018-07-04 23:12:54</t>
-  </si>
-  <si>
-    <t>2018-07-05 09:29:01</t>
-  </si>
-  <si>
-    <t>机智的公主</t>
-  </si>
-  <si>
-    <t>2018-07-03 11:23:30</t>
-  </si>
-  <si>
-    <t>dpuser_4707168233</t>
-  </si>
-  <si>
-    <t>2018-06-21 15:11:45</t>
-  </si>
-  <si>
-    <t>2018-06-23 14:17:13</t>
-  </si>
-  <si>
-    <t>diately</t>
-  </si>
-  <si>
-    <t>2018-06-17 21:49:18</t>
-  </si>
-  <si>
-    <t>2018-06-18 09:09:20</t>
-  </si>
-  <si>
-    <t>明明明谢小明</t>
-  </si>
-  <si>
-    <t>2018-06-13 08:18:41</t>
-  </si>
-  <si>
-    <t>2018-06-13 10:16:41</t>
-  </si>
-  <si>
-    <t>大宝贝啊_2761</t>
-  </si>
-  <si>
-    <t>2018-06-07 15:43:34</t>
-  </si>
-  <si>
-    <t>2018-06-08 10:24:05</t>
-  </si>
-  <si>
-    <t>mlyq1108</t>
-  </si>
-  <si>
-    <t>2018-06-06 10:40:01</t>
-  </si>
-  <si>
-    <t>2018-06-06 14:26:35</t>
-  </si>
-  <si>
-    <t>_qqzm81396174735</t>
-  </si>
-  <si>
-    <t>2018-05-31 00:18:39</t>
-  </si>
-  <si>
-    <t>2018-05-31 08:39:46</t>
-  </si>
-  <si>
-    <t>兔子最大POPO</t>
-  </si>
-  <si>
-    <t>2018-05-28 11:19:53</t>
-  </si>
-  <si>
-    <t>2018-05-28 15:59:14</t>
-  </si>
-  <si>
-    <t>dpuser_6423296417</t>
-  </si>
-  <si>
-    <t>2018-05-25 15:26:20</t>
-  </si>
-  <si>
-    <t>Dyi614624176</t>
-  </si>
-  <si>
-    <t>2018-05-24 11:07:33</t>
-  </si>
-  <si>
-    <t>2018-05-25 09:23:46</t>
-  </si>
-  <si>
-    <t>百合也扎手</t>
-  </si>
-  <si>
-    <t>2018-05-23 09:59:38</t>
-  </si>
-  <si>
-    <t>2018-05-23 13:29:53</t>
-  </si>
-  <si>
-    <t>dpuser_1906325293</t>
-  </si>
-  <si>
-    <t>2018-05-21 22:01:30</t>
-  </si>
-  <si>
-    <t>2018-05-22 14:19:09</t>
-  </si>
-  <si>
-    <t>lXc588284750</t>
-  </si>
-  <si>
-    <t>2018-05-20 13:32:07</t>
-  </si>
-  <si>
-    <t>2018-05-20 13:58:01</t>
-  </si>
-  <si>
-    <t>頹廢zx</t>
-  </si>
-  <si>
-    <t>2018-05-19 11:57:04</t>
-  </si>
-  <si>
-    <t>2018-05-19 15:07:25</t>
-  </si>
-  <si>
-    <t>bAK383905915</t>
-  </si>
-  <si>
-    <t>2018-05-17 15:22:14</t>
-  </si>
-  <si>
-    <t>2018-05-17 17:44:53</t>
-  </si>
-  <si>
-    <t>dpuser_7456899439</t>
-  </si>
-  <si>
-    <t>2018-05-11 19:34:51</t>
-  </si>
-  <si>
-    <t>2018-05-12 11:04:49</t>
-  </si>
-  <si>
-    <t>超哥_4083</t>
-  </si>
-  <si>
-    <t>2018-05-03 10:46:14</t>
-  </si>
-  <si>
-    <t>2018-05-08 17:35:10</t>
-  </si>
-  <si>
-    <t>Mex。</t>
-  </si>
-  <si>
-    <t>2018-05-08 12:24:20</t>
-  </si>
-  <si>
-    <t>Trl962777959</t>
-  </si>
-  <si>
-    <t>2018-05-06 00:11:23</t>
-  </si>
-  <si>
-    <t>2018-05-06 16:14:52</t>
-  </si>
-  <si>
-    <t>exE573630773</t>
-  </si>
-  <si>
-    <t>2018-04-30 11:53:50</t>
-  </si>
-  <si>
-    <t>2018-05-03 11:49:50</t>
-  </si>
-  <si>
-    <t>kim_54</t>
-  </si>
-  <si>
-    <t>2018-05-01 13:59:18</t>
-  </si>
-  <si>
-    <t>2018-05-02 18:01:29</t>
-  </si>
-  <si>
-    <t>dpuser_8067392725</t>
-  </si>
-  <si>
-    <t>2018-05-01 17:00:53</t>
-  </si>
-  <si>
-    <t>2018-05-01 20:23:24</t>
-  </si>
-  <si>
-    <t>武晓萌</t>
-  </si>
-  <si>
-    <t>2018-04-30 09:23:18</t>
-  </si>
-  <si>
-    <t>2018-05-01 09:53:09</t>
-  </si>
-  <si>
-    <t>海妖0117</t>
-  </si>
-  <si>
-    <t>2018-04-29 17:53:43</t>
-  </si>
-  <si>
-    <t>2018-05-01 09:52:18</t>
-  </si>
-  <si>
-    <t>韩允真</t>
-  </si>
-  <si>
-    <t>2018-04-25 15:44:46</t>
-  </si>
-  <si>
-    <t>2018-05-01 09:51:29</t>
-  </si>
-  <si>
-    <t>xWD210289100</t>
-  </si>
-  <si>
-    <t>2018-04-29 20:48:42</t>
-  </si>
-  <si>
-    <t>2018-04-30 22:51:56</t>
-  </si>
-  <si>
-    <t>dpuser_2817909178</t>
-  </si>
-  <si>
-    <t>2018-04-19 14:30:52</t>
-  </si>
-  <si>
-    <t>2018-04-23 09:35:43</t>
-  </si>
-  <si>
-    <t>爱丽斯小姐</t>
-  </si>
-  <si>
-    <t>2018-04-19 14:34:44</t>
-  </si>
-  <si>
-    <t>2018-04-23 09:35:34</t>
-  </si>
-  <si>
-    <t>宁摩纳哥</t>
-  </si>
-  <si>
-    <t>2018-04-22 22:35:40</t>
-  </si>
-  <si>
-    <t>2018-04-23 09:35:14</t>
-  </si>
-  <si>
     <t>时间</t>
   </si>
   <si>
@@ -1658,6 +1205,69 @@
     <t>订单状态</t>
   </si>
   <si>
+    <t>2018-09-17</t>
+  </si>
+  <si>
+    <t>10:04:29</t>
+  </si>
+  <si>
+    <t>400用户</t>
+  </si>
+  <si>
+    <t>151****1237</t>
+  </si>
+  <si>
+    <t>已预约</t>
+  </si>
+  <si>
+    <t>2018-09-16</t>
+  </si>
+  <si>
+    <t>09:27:19</t>
+  </si>
+  <si>
+    <t>158****8649</t>
+  </si>
+  <si>
+    <t>2018-09-15</t>
+  </si>
+  <si>
+    <t>12:20:22</t>
+  </si>
+  <si>
+    <t>156****6534</t>
+  </si>
+  <si>
+    <t>新订单</t>
+  </si>
+  <si>
+    <t>12:05:16</t>
+  </si>
+  <si>
+    <t>2018-09-14</t>
+  </si>
+  <si>
+    <t>14:55:45</t>
+  </si>
+  <si>
+    <t>177****3983</t>
+  </si>
+  <si>
+    <t>10:22:36</t>
+  </si>
+  <si>
+    <t>185****7856</t>
+  </si>
+  <si>
+    <t>10:21:29</t>
+  </si>
+  <si>
+    <t>132****3027</t>
+  </si>
+  <si>
+    <t>10:19:59</t>
+  </si>
+  <si>
     <t>2018-09-13</t>
   </si>
   <si>
@@ -1665,9 +1275,6 @@
   </si>
   <si>
     <t>186****1595</t>
-  </si>
-  <si>
-    <t>新订单</t>
   </si>
   <si>
     <t>2018-09-09</t>
@@ -3920,24 +3527,6 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt formatCode="0.0" numFmtId="178"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <name val="微软雅黑"/>
       </font>
@@ -4085,6 +3674,54 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt formatCode="0.0" numFmtId="178"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -4138,36 +3775,6 @@
     </dxf>
     <dxf>
       <numFmt formatCode="0.0" numFmtId="178"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5627,344 +5234,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" createdVersion="6" minRefreshableVersion="3" recordCount="95" refreshedBy="Microsoft Office 用户" refreshedDate="43348.50291481482" refreshedVersion="6" r:id="rId1">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G1048576" sheet="咨询明细"/>
-  </cacheSource>
-  <cacheFields count="9">
-    <cacheField databaseField="1" hierarchy="0" level="0" name="年" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="2" maxValue="2018" minValue="2018">
-        <n v="2018"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="月" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="7" maxValue="9" minValue="4">
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
-        <n v="7"/>
-        <n v="8"/>
-        <n v="9"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="姓名" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="电话" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="首次沟通时间" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsDate="1" containsNonDate="0" containsString="0" count="0" maxDate="2018-09-04T18:40:32" minDate="2018-04-22T22:35:40"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="最后沟通时间" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsDate="1" containsNonDate="0" containsString="0" count="0" maxDate="2018-09-04T19:34:20" minDate="2018-04-23T09:35:14"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="顾客标签" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="18">
-        <s v="美体塑形"/>
-        <s v="吸脂"/>
-        <s v="其他"/>
-        <s v="肉毒素"/>
-        <s v="祛痣"/>
-        <s v="脱毛"/>
-        <s v="眼部整形"/>
-        <s v="祛痘"/>
-        <s v="玻尿酸"/>
-        <s v="皮肤清洁"/>
-        <s v="祛斑"/>
-        <s v="半永久"/>
-        <s v="鼻部整形"/>
-        <s v="口腔"/>
-        <s v="水光针"/>
-        <m/>
-        <s u="1" v="皮肤修复"/>
-        <s u="1" v="广告"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="所属门店" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="所属城市" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" createdVersion="6" minRefreshableVersion="3" recordCount="17" refreshedBy="Microsoft Office 用户" refreshedDate="43348.50289305556" refreshedVersion="6" r:id="rId1">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:O1048576" sheet="口碑数据"/>
-  </cacheSource>
-  <cacheFields count="15">
-    <cacheField databaseField="1" hierarchy="0" level="0" name="年" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="4" maxValue="2018" minValue="1900">
-        <n v="2018"/>
-        <m/>
-        <n u="1" v="1900"/>
-        <n u="1" v="2017"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="月" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="12" maxValue="12" minValue="1">
-        <n v="7"/>
-        <n v="8"/>
-        <n v="9"/>
-        <m/>
-        <n u="1" v="5"/>
-        <n u="1" v="2"/>
-        <n u="1" v="6"/>
-        <n u="1" v="1"/>
-        <n u="1" v="3"/>
-        <n u="1" v="11"/>
-        <n u="1" v="4"/>
-        <n u="1" v="12"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="日" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsDate="1" containsNonDate="0" containsString="0" count="41" maxDate="2018-09-03T00:00:00" minDate="2017-11-09T00:00:00">
-        <d v="2018-07-04T00:00:00"/>
-        <d v="2018-07-15T00:00:00"/>
-        <d v="2018-07-16T00:00:00"/>
-        <d v="2018-07-21T00:00:00"/>
-        <d v="2018-07-22T00:00:00"/>
-        <d v="2018-07-26T00:00:00"/>
-        <d v="2018-07-29T00:00:00"/>
-        <d v="2018-07-30T00:00:00"/>
-        <d v="2018-08-02T00:00:00"/>
-        <d v="2018-08-18T00:00:00"/>
-        <d v="2018-08-20T00:00:00"/>
-        <d v="2018-09-02T00:00:00"/>
-        <m/>
-        <d u="1" v="2018-01-30T00:00:00"/>
-        <d u="1" v="2018-01-04T00:00:00"/>
-        <d u="1" v="2018-06-17T00:00:00"/>
-        <d u="1" v="2018-01-23T00:00:00"/>
-        <d u="1" v="2018-06-10T00:00:00"/>
-        <d u="1" v="2017-11-09T00:00:00"/>
-        <d u="1" v="2018-06-22T00:00:00"/>
-        <d u="1" v="2018-08-13T00:00:00"/>
-        <d u="1" v="2018-08-06T00:00:00"/>
-        <d u="1" v="2018-08-25T00:00:00"/>
-        <d u="1" v="2017-12-26T00:00:00"/>
-        <d u="1" v="2018-06-20T00:00:00"/>
-        <d u="1" v="2017-12-12T00:00:00"/>
-        <d u="1" v="2018-06-13T00:00:00"/>
-        <d u="1" v="2017-11-19T00:00:00"/>
-        <d u="1" v="2018-02-24T00:00:00"/>
-        <d u="1" v="2018-01-12T00:00:00"/>
-        <d u="1" v="2017-11-17T00:00:00"/>
-        <d u="1" v="2017-11-10T00:00:00"/>
-        <d u="1" v="2018-06-16T00:00:00"/>
-        <d u="1" v="2018-08-07T00:00:00"/>
-        <d u="1" v="2017-11-22T00:00:00"/>
-        <d u="1" v="2017-12-27T00:00:00"/>
-        <d u="1" v="2017-12-20T00:00:00"/>
-        <d u="1" v="2018-02-13T00:00:00"/>
-        <d u="1" v="2017-11-27T00:00:00"/>
-        <d u="1" v="2018-08-24T00:00:00"/>
-        <d u="1" v="2017-11-18T00:00:00"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="TIME" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsDate="1" containsNonDate="0" containsString="0" count="0" maxDate="1899-12-30T18:36:00" minDate="1899-12-30T09:59:00"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="城市" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="评价门店" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="用户昵称" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="星级" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="4">
-        <s v="5星"/>
-        <s v="1星"/>
-        <s v="4星"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="评分" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="效果" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="环境" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="服务" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="评价内容" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0" longText="1"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="是否消费评价" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="消费时间" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" createdVersion="6" minRefreshableVersion="3" recordCount="25" refreshedBy="Microsoft Office 用户" refreshedDate="43348.50291157408" refreshedVersion="6" r:id="rId1">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I1048576" sheet="预约数据"/>
-  </cacheSource>
-  <cacheFields count="11">
-    <cacheField databaseField="1" hierarchy="0" level="0" name="年" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="3" maxValue="2018" minValue="1900">
-        <n v="2018"/>
-        <m/>
-        <n u="1" v="1900"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="月" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="7" maxValue="9" minValue="1">
-        <n v="7"/>
-        <n v="8"/>
-        <n v="9"/>
-        <m/>
-        <n u="1" v="5"/>
-        <n u="1" v="6"/>
-        <n u="1" v="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="时间" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsDate="1" containsNonDate="0" containsString="0" count="0" maxDate="2018-09-05T00:00:00" minDate="2018-07-06T00:00:00"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="time" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsDate="1" containsNonDate="0" containsString="0" count="0" maxDate="1899-12-30T22:42:00" minDate="1899-12-30T01:09:00"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="订单来源" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="5">
-        <s v="门店预约"/>
-        <s v="咨询"/>
-        <m/>
-        <s u="1" v="400已接"/>
-        <s u="1" v="400未接"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="客户姓名" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="联系方式" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="0" maxValue="18911688274" minValue="13051533291"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="顾客留言" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsInteger="1" containsMixedTypes="1" containsNumber="1" count="0" maxValue="18601295334" minValue="13681290691"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="预约医师" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="订单状态" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="备注" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" createdVersion="6" minRefreshableVersion="3" recordCount="52" refreshedBy="Microsoft Office 用户" refreshedDate="43348.5028849537" refreshedVersion="6" r:id="rId1">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:M1048576" sheet="消费数据明细（线上）"/>
-  </cacheSource>
-  <cacheFields count="16">
-    <cacheField databaseField="1" hierarchy="0" level="0" name="年" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="0" maxValue="2018" minValue="2018"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="月" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="5" maxValue="9" minValue="6">
-        <n v="7"/>
-        <n v="8"/>
-        <n v="9"/>
-        <m/>
-        <n u="1" v="6"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="成交价格" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsNumber="1" containsString="0" count="0" maxValue="1280" minValue="8"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="序列号" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="0" maxValue="98678645917" minValue="226836609"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="用户手机号" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="消费时间" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsDate="1" containsNonDate="0" containsString="0" count="0" maxDate="2018-09-04T00:00:00" minDate="2018-07-01T00:00:00"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="TIME" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsDate="1" containsNonDate="0" containsString="0" count="0" maxDate="1899-12-30T17:27:43" minDate="1899-12-30T08:41:34"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="套餐信息" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="25">
-        <s v="[2018.04.19]超微小气泡[18.00元][14190698]"/>
-        <s v="[2018.05.04]点痣小于1[19.90元][14207307]"/>
-        <s v="[2018.06.07]果酸祛鼻部黑头[199.00元][14196036]"/>
-        <s v="[2018.05.04]点痣小于1[19.90元][31080665]"/>
-        <s v="[2018.04.19]超微小气泡[18.00元][30789516]"/>
-        <s v="[2018.05.04]VISIA皮肤检测[10.00元][14196641]"/>
-        <s v="[2018.05.04]脱毛  唇腋毛  二选一[98.00元][14198778]"/>
-        <s v="[2018.07.10]单人洁牙洗牙套餐[168.00元][15124746]"/>
-        <s v="[2018.07.04]单人祛黑头套餐[98.00元][14631800]"/>
-        <s v="[2018.05.04]脱毛  唇腋毛  二选一[98.00元][31080384]"/>
-        <s v="[2018.08.10]衡力瘦脸针 v脸打造美[1280.00元][20278087]"/>
-        <m/>
-        <s u="1" v="[2018.06.14]伊肤泉微针美塑[1999.00元][14062010]"/>
-        <s u="1" v="[2018.06.04]肉毒素瘦脸针V脸时刻[739.00元][31728753]"/>
-        <s u="1" v="[2018.06.01]烟雨水雾眉[1299.00元][31729998]"/>
-        <s u="1" v="[2018.06.01]明眸美瞳线[888.00元][31730064]"/>
-        <s u="1" v="[2018.06.01]激光点痣干净面庞[69.90元][14207056]"/>
-        <s u="1" v="[2018.06.01]海珠水光针水润透亮[499.00元][14199376]"/>
-        <s u="1" v="[2018.06.01]冰点脱唇毛腋毛单次体验[32.00元][14195709]"/>
-        <s u="1" v="[2018.06.01]激光点痣干净面庞[69.90元][31726233]"/>
-        <s u="1" v="[2018.06.01]韩国小气泡洁净做自己[98.00元][14188592]"/>
-        <s u="1" v="[2018.06.04]无针水光针持久补水[128.00元][14196741]"/>
-        <s u="1" v="[2018.06.14]芯丝翠果酸焕肤[699.00元][14061744]"/>
-        <s u="1" v="[2018.06.14]多点定位微创双眼皮[3980.00元][14062248]"/>
-        <s u="1" v="[2018.06.01]冰点脱唇毛腋毛单次体验[32.00元][31727380]"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="售价（元）" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsNumber="1" containsString="0" count="0" maxValue="1280" minValue="10"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="商家优惠金额（元）" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="0" maxValue="88" minValue="8"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="结算价（元）" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" count="0" maxValue="88.2" minValue="16.2"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="备注" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="分店名" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="验券帐号" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="商户ID" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="0" maxValue="98380431" minValue="98380431"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="分店城市" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" count="0"/>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" createdVersion="6" minRefreshableVersion="3" recordCount="97" refreshedBy="Microsoft Office 用户" refreshedDate="43348.50290289352" refreshedVersion="6" r:id="rId1">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O1048576" sheet="CPC数据"/>
@@ -6171,6 +5440,323 @@
     </cacheField>
     <cacheField databaseField="1" hierarchy="0" level="0" name="扫码支付订单" numFmtId="0" sqlType="0" uniqueList="1">
       <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" createdVersion="6" minRefreshableVersion="3" recordCount="17" refreshedBy="Microsoft Office 用户" refreshedDate="43348.50289305556" refreshedVersion="6" r:id="rId1">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:O1048576" sheet="口碑数据"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField databaseField="1" hierarchy="0" level="0" name="年" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="4" maxValue="2018" minValue="1900">
+        <n v="2018"/>
+        <m/>
+        <n u="1" v="1900"/>
+        <n u="1" v="2017"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="月" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="12" maxValue="12" minValue="1">
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <m/>
+        <n u="1" v="5"/>
+        <n u="1" v="2"/>
+        <n u="1" v="6"/>
+        <n u="1" v="1"/>
+        <n u="1" v="3"/>
+        <n u="1" v="11"/>
+        <n u="1" v="4"/>
+        <n u="1" v="12"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="日" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsDate="1" containsNonDate="0" containsString="0" count="41" maxDate="2018-09-03T00:00:00" minDate="2017-11-09T00:00:00">
+        <d v="2018-07-04T00:00:00"/>
+        <d v="2018-07-15T00:00:00"/>
+        <d v="2018-07-16T00:00:00"/>
+        <d v="2018-07-21T00:00:00"/>
+        <d v="2018-07-22T00:00:00"/>
+        <d v="2018-07-26T00:00:00"/>
+        <d v="2018-07-29T00:00:00"/>
+        <d v="2018-07-30T00:00:00"/>
+        <d v="2018-08-02T00:00:00"/>
+        <d v="2018-08-18T00:00:00"/>
+        <d v="2018-08-20T00:00:00"/>
+        <d v="2018-09-02T00:00:00"/>
+        <m/>
+        <d u="1" v="2018-01-30T00:00:00"/>
+        <d u="1" v="2018-01-04T00:00:00"/>
+        <d u="1" v="2018-06-17T00:00:00"/>
+        <d u="1" v="2018-01-23T00:00:00"/>
+        <d u="1" v="2018-06-10T00:00:00"/>
+        <d u="1" v="2017-11-09T00:00:00"/>
+        <d u="1" v="2018-06-22T00:00:00"/>
+        <d u="1" v="2018-08-13T00:00:00"/>
+        <d u="1" v="2018-08-06T00:00:00"/>
+        <d u="1" v="2018-08-25T00:00:00"/>
+        <d u="1" v="2017-12-26T00:00:00"/>
+        <d u="1" v="2018-06-20T00:00:00"/>
+        <d u="1" v="2017-12-12T00:00:00"/>
+        <d u="1" v="2018-06-13T00:00:00"/>
+        <d u="1" v="2017-11-19T00:00:00"/>
+        <d u="1" v="2018-02-24T00:00:00"/>
+        <d u="1" v="2018-01-12T00:00:00"/>
+        <d u="1" v="2017-11-17T00:00:00"/>
+        <d u="1" v="2017-11-10T00:00:00"/>
+        <d u="1" v="2018-06-16T00:00:00"/>
+        <d u="1" v="2018-08-07T00:00:00"/>
+        <d u="1" v="2017-11-22T00:00:00"/>
+        <d u="1" v="2017-12-27T00:00:00"/>
+        <d u="1" v="2017-12-20T00:00:00"/>
+        <d u="1" v="2018-02-13T00:00:00"/>
+        <d u="1" v="2017-11-27T00:00:00"/>
+        <d u="1" v="2018-08-24T00:00:00"/>
+        <d u="1" v="2017-11-18T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="TIME" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsDate="1" containsNonDate="0" containsString="0" count="0" maxDate="1899-12-30T18:36:00" minDate="1899-12-30T09:59:00"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="城市" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="评价门店" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="用户昵称" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="星级" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="4">
+        <s v="5星"/>
+        <s v="1星"/>
+        <s v="4星"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="评分" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="效果" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="环境" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="服务" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="评价内容" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0" longText="1"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="是否消费评价" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="消费时间" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" createdVersion="6" minRefreshableVersion="3" recordCount="3" refreshedBy="Microsoft Office 用户" refreshedDate="43348.50288831018" refreshedVersion="6" r:id="rId1">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:L1048576" sheet="回复口碑"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField databaseField="1" hierarchy="0" level="0" name="年" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="2" maxValue="2018" minValue="2018">
+        <n v="2018"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="月" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="6" maxValue="9" minValue="5">
+        <n v="8"/>
+        <n v="9"/>
+        <m/>
+        <n u="1" v="5"/>
+        <n u="1" v="6"/>
+        <n u="1" v="7"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="日" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsDate="1" containsNonDate="0" containsString="0" count="12" maxDate="2018-08-26T00:00:00" minDate="2018-06-10T00:00:00">
+        <m/>
+        <d u="1" v="2018-06-17T00:00:00"/>
+        <d u="1" v="2018-06-10T00:00:00"/>
+        <d u="1" v="2018-06-22T00:00:00"/>
+        <d u="1" v="2018-08-13T00:00:00"/>
+        <d u="1" v="2018-08-06T00:00:00"/>
+        <d u="1" v="2018-08-25T00:00:00"/>
+        <d u="1" v="2018-06-20T00:00:00"/>
+        <d u="1" v="2018-06-16T00:00:00"/>
+        <d u="1" v="2018-08-07T00:00:00"/>
+        <d u="1" v="2018-07-21T00:00:00"/>
+        <d u="1" v="2018-08-24T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="TIME" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="城市" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="评价门店" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="用户昵称" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="星级" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="评分" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="评价内容" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="是否消费评价" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="消费时间" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" createdVersion="6" minRefreshableVersion="3" recordCount="25" refreshedBy="Microsoft Office 用户" refreshedDate="43348.50291157408" refreshedVersion="6" r:id="rId1">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:I1048576" sheet="预约数据"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField databaseField="1" hierarchy="0" level="0" name="年" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="3" maxValue="2018" minValue="1900">
+        <n v="2018"/>
+        <m/>
+        <n u="1" v="1900"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="月" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="7" maxValue="9" minValue="1">
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <m/>
+        <n u="1" v="5"/>
+        <n u="1" v="6"/>
+        <n u="1" v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="时间" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsDate="1" containsNonDate="0" containsString="0" count="0" maxDate="2018-09-05T00:00:00" minDate="2018-07-06T00:00:00"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="time" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsDate="1" containsNonDate="0" containsString="0" count="0" maxDate="1899-12-30T22:42:00" minDate="1899-12-30T01:09:00"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="订单来源" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="5">
+        <s v="门店预约"/>
+        <s v="咨询"/>
+        <m/>
+        <s u="1" v="400已接"/>
+        <s u="1" v="400未接"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="客户姓名" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="联系方式" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="0" maxValue="18911688274" minValue="13051533291"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="顾客留言" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsInteger="1" containsMixedTypes="1" containsNumber="1" count="0" maxValue="18601295334" minValue="13681290691"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="预约医师" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="订单状态" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="备注" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" createdVersion="6" minRefreshableVersion="3" recordCount="95" refreshedBy="Microsoft Office 用户" refreshedDate="43348.50291481482" refreshedVersion="6" r:id="rId1">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G1048576" sheet="咨询明细"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField databaseField="1" hierarchy="0" level="0" name="年" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="2" maxValue="2018" minValue="2018">
+        <n v="2018"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="月" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="7" maxValue="9" minValue="4">
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="姓名" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="电话" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="首次沟通时间" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsDate="1" containsNonDate="0" containsString="0" count="0" maxDate="2018-09-04T18:40:32" minDate="2018-04-22T22:35:40"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="最后沟通时间" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsDate="1" containsNonDate="0" containsString="0" count="0" maxDate="2018-09-04T19:34:20" minDate="2018-04-23T09:35:14"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="顾客标签" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="18">
+        <s v="美体塑形"/>
+        <s v="吸脂"/>
+        <s v="其他"/>
+        <s v="肉毒素"/>
+        <s v="祛痣"/>
+        <s v="脱毛"/>
+        <s v="眼部整形"/>
+        <s v="祛痘"/>
+        <s v="玻尿酸"/>
+        <s v="皮肤清洁"/>
+        <s v="祛斑"/>
+        <s v="半永久"/>
+        <s v="鼻部整形"/>
+        <s v="口腔"/>
+        <s v="水光针"/>
+        <m/>
+        <s u="1" v="皮肤修复"/>
+        <s u="1" v="广告"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="所属门店" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="所属城市" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
     </cacheField>
   </cacheFields>
 </pivotCacheDefinition>
@@ -6499,69 +6085,90 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" createdVersion="6" minRefreshableVersion="3" recordCount="3" refreshedBy="Microsoft Office 用户" refreshedDate="43348.50288831018" refreshedVersion="6" r:id="rId1">
+<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" createdVersion="6" minRefreshableVersion="3" recordCount="52" refreshedBy="Microsoft Office 用户" refreshedDate="43348.5028849537" refreshedVersion="6" r:id="rId1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:L1048576" sheet="回复口碑"/>
+    <worksheetSource ref="A1:M1048576" sheet="消费数据明细（线上）"/>
   </cacheSource>
-  <cacheFields count="12">
+  <cacheFields count="16">
     <cacheField databaseField="1" hierarchy="0" level="0" name="年" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="2" maxValue="2018" minValue="2018">
-        <n v="2018"/>
-        <m/>
-      </sharedItems>
+      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="0" maxValue="2018" minValue="2018"/>
     </cacheField>
     <cacheField databaseField="1" hierarchy="0" level="0" name="月" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="6" maxValue="9" minValue="5">
+      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="5" maxValue="9" minValue="6">
+        <n v="7"/>
         <n v="8"/>
         <n v="9"/>
         <m/>
-        <n u="1" v="5"/>
         <n u="1" v="6"/>
-        <n u="1" v="7"/>
       </sharedItems>
     </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="日" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsDate="1" containsNonDate="0" containsString="0" count="12" maxDate="2018-08-26T00:00:00" minDate="2018-06-10T00:00:00">
+    <cacheField databaseField="1" hierarchy="0" level="0" name="成交价格" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsNumber="1" containsString="0" count="0" maxValue="1280" minValue="8"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="序列号" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="0" maxValue="98678645917" minValue="226836609"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="用户手机号" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="消费时间" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsDate="1" containsNonDate="0" containsString="0" count="0" maxDate="2018-09-04T00:00:00" minDate="2018-07-01T00:00:00"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="TIME" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsDate="1" containsNonDate="0" containsString="0" count="0" maxDate="1899-12-30T17:27:43" minDate="1899-12-30T08:41:34"/>
+    </cacheField>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="套餐信息" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="25">
+        <s v="[2018.04.19]超微小气泡[18.00元][14190698]"/>
+        <s v="[2018.05.04]点痣小于1[19.90元][14207307]"/>
+        <s v="[2018.06.07]果酸祛鼻部黑头[199.00元][14196036]"/>
+        <s v="[2018.05.04]点痣小于1[19.90元][31080665]"/>
+        <s v="[2018.04.19]超微小气泡[18.00元][30789516]"/>
+        <s v="[2018.05.04]VISIA皮肤检测[10.00元][14196641]"/>
+        <s v="[2018.05.04]脱毛  唇腋毛  二选一[98.00元][14198778]"/>
+        <s v="[2018.07.10]单人洁牙洗牙套餐[168.00元][15124746]"/>
+        <s v="[2018.07.04]单人祛黑头套餐[98.00元][14631800]"/>
+        <s v="[2018.05.04]脱毛  唇腋毛  二选一[98.00元][31080384]"/>
+        <s v="[2018.08.10]衡力瘦脸针 v脸打造美[1280.00元][20278087]"/>
         <m/>
-        <d u="1" v="2018-06-17T00:00:00"/>
-        <d u="1" v="2018-06-10T00:00:00"/>
-        <d u="1" v="2018-06-22T00:00:00"/>
-        <d u="1" v="2018-08-13T00:00:00"/>
-        <d u="1" v="2018-08-06T00:00:00"/>
-        <d u="1" v="2018-08-25T00:00:00"/>
-        <d u="1" v="2018-06-20T00:00:00"/>
-        <d u="1" v="2018-06-16T00:00:00"/>
-        <d u="1" v="2018-08-07T00:00:00"/>
-        <d u="1" v="2018-07-21T00:00:00"/>
-        <d u="1" v="2018-08-24T00:00:00"/>
+        <s u="1" v="[2018.06.14]伊肤泉微针美塑[1999.00元][14062010]"/>
+        <s u="1" v="[2018.06.04]肉毒素瘦脸针V脸时刻[739.00元][31728753]"/>
+        <s u="1" v="[2018.06.01]烟雨水雾眉[1299.00元][31729998]"/>
+        <s u="1" v="[2018.06.01]明眸美瞳线[888.00元][31730064]"/>
+        <s u="1" v="[2018.06.01]激光点痣干净面庞[69.90元][14207056]"/>
+        <s u="1" v="[2018.06.01]海珠水光针水润透亮[499.00元][14199376]"/>
+        <s u="1" v="[2018.06.01]冰点脱唇毛腋毛单次体验[32.00元][14195709]"/>
+        <s u="1" v="[2018.06.01]激光点痣干净面庞[69.90元][31726233]"/>
+        <s u="1" v="[2018.06.01]韩国小气泡洁净做自己[98.00元][14188592]"/>
+        <s u="1" v="[2018.06.04]无针水光针持久补水[128.00元][14196741]"/>
+        <s u="1" v="[2018.06.14]芯丝翠果酸焕肤[699.00元][14061744]"/>
+        <s u="1" v="[2018.06.14]多点定位微创双眼皮[3980.00元][14062248]"/>
+        <s u="1" v="[2018.06.01]冰点脱唇毛腋毛单次体验[32.00元][31727380]"/>
       </sharedItems>
     </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="TIME" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="售价（元）" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsNumber="1" containsString="0" count="0" maxValue="1280" minValue="10"/>
     </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="城市" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="商家优惠金额（元）" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="0" maxValue="88" minValue="8"/>
     </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="评价门店" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="结算价（元）" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" count="0" maxValue="88.2" minValue="16.2"/>
     </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="用户昵称" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="备注" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
     </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="星级" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="分店名" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
     </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="评分" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="验券帐号" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
     </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="评价内容" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="商户ID" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsInteger="1" containsNumber="1" containsString="0" count="0" maxValue="98380431" minValue="98380431"/>
     </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="是否消费评价" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
-    </cacheField>
-    <cacheField databaseField="1" hierarchy="0" level="0" name="消费时间" numFmtId="0" sqlType="0" uniqueList="1">
-      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="分店城市" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" count="0"/>
     </cacheField>
   </cacheFields>
 </pivotCacheDefinition>
@@ -8920,242 +8527,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="0" chartFormat="3" colGrandTotals="0" compact="0" compactData="0" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表14" outline="0" outlineData="0" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
-  <location colPageCount="1" firstDataCol="1" firstDataRow="2" firstHeaderRow="1" ref="A25:C39" rowPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisPage" compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="2">
-        <item sd="1" t="data" x="0"/>
-        <item h="1" sd="1" t="data" x="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="7">
-        <item h="1" sd="1" t="data" x="6"/>
-        <item h="1" sd="1" t="data" x="1"/>
-        <item h="1" sd="1" t="data" x="2"/>
-        <item h="1" sd="1" t="data" x="3"/>
-        <item sd="1" t="data" x="4"/>
-        <item h="1" sd="1" t="data" x="0"/>
-        <item sd="1" t="data" x="5"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField axis="axisRow" compact="0" dataField="1" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="descending" subtotalTop="1" topAutoShow="1">
-      <items count="18">
-        <item sd="1" t="data" x="11"/>
-        <item sd="1" t="data" x="12"/>
-        <item sd="1" t="data" x="8"/>
-        <item m="1" sd="1" t="data" x="17"/>
-        <item sd="1" t="data" x="0"/>
-        <item sd="1" t="data" x="2"/>
-        <item sd="1" t="data" x="10"/>
-        <item sd="1" t="data" x="4"/>
-        <item sd="1" t="data" x="3"/>
-        <item sd="1" t="data" x="14"/>
-        <item sd="1" t="data" x="5"/>
-        <item sd="1" t="data" x="6"/>
-        <item sd="1" t="data" x="15"/>
-        <item m="1" sd="1" t="data" x="16"/>
-        <item sd="1" t="data" x="1"/>
-        <item sd="1" t="data" x="7"/>
-        <item sd="1" t="data" x="9"/>
-        <item sd="1" t="data" x="13"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="normal">
-          <references count="2">
-            <reference field="4294967294" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" selected="0">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="13">
-    <i i="0" r="0" t="data">
-      <x v="11"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="7"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="16"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="10"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="5"/>
-    </i>
-    <i i="0" r="0" t="data"/>
-    <i i="0" r="0" t="data">
-      <x v="15"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="17"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="8"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="9"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="6"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="1"/>
-    </i>
-    <i i="0" r="0" t="grand"/>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="2">
-    <i i="0" r="0" t="data">
-      <x v="4"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="6"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField baseField="0" baseItem="0" fld="6" name="计数项:顾客标签" showDataAs="normal" subtotal="count"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="37">
-      <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea axis="axisValues" dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="6" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表6" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
-  <location colPageCount="1" firstDataCol="1" firstDataRow="1" firstHeaderRow="1" ref="L6:M9" rowPageCount="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="5">
-        <item h="1" m="1" sd="1" t="data" x="3"/>
-        <item sd="1" t="data" x="0"/>
-        <item h="1" sd="1" t="data" x="1"/>
-        <item h="1" m="1" sd="1" t="data" x="2"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="13">
-        <item h="1" m="1" sd="1" t="data" x="7"/>
-        <item h="1" m="1" sd="1" t="data" x="5"/>
-        <item h="1" m="1" sd="1" t="data" x="8"/>
-        <item h="1" m="1" sd="1" t="data" x="9"/>
-        <item h="1" m="1" sd="1" t="data" x="11"/>
-        <item h="1" sd="1" t="data" x="3"/>
-        <item h="1" m="1" sd="1" t="data" x="10"/>
-        <item h="1" m="1" sd="1" t="data" x="4"/>
-        <item h="1" m="1" sd="1" t="data" x="6"/>
-        <item h="1" sd="1" t="data" x="0"/>
-        <item sd="1" t="data" x="1"/>
-        <item h="1" sd="1" t="data" x="2"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField axis="axisRow" compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="8">
-        <item m="1" sd="1" t="data" x="5"/>
-        <item m="1" sd="1" t="data" x="3"/>
-        <item m="1" sd="1" t="data" x="6"/>
-        <item sd="1" t="data" x="0"/>
-        <item m="1" sd="1" t="data" x="4"/>
-        <item sd="1" t="data" x="1"/>
-        <item sd="1" t="data" x="2"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i i="0" r="0" t="data">
-      <x v="3"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="5"/>
-    </i>
-    <i i="0" r="0" t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i i="0" r="0" t="data"/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField baseField="0" baseItem="0" fld="4" name="计数项:订单来源" showDataAs="normal" subtotal="count"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="22">
-      <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
-    </format>
-    <format dxfId="20">
-      <pivotArea axis="axisRow" dataOnly="0" field="4" fieldPosition="0" labelOnly="1" outline="0" type="button"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea dataOnly="0" fieldPosition="0" labelOnly="1" outline="1" type="normal">
-        <references count="1">
-          <reference field="4">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="18">
-      <pivotArea dataOnly="0" fieldPosition="0" grandRow="1" labelOnly="1" outline="0" type="normal"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea axis="axisValues" dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="4" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表11" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
   <location colPageCount="1" firstDataCol="0" firstDataRow="1" firstHeaderRow="0" ref="X6:AB7" rowPageCount="3"/>
   <pivotFields count="15">
@@ -9375,7 +8746,7 @@
     <dataField baseField="0" baseItem="0" fld="9" name="求和项:商户浏览量" showDataAs="normal" subtotal="sum"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="50">
+    <format dxfId="34">
       <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal">
         <references count="1">
           <reference field="4294967294" selected="0">
@@ -9384,13 +8755,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="33">
       <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="32">
       <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="31">
       <pivotArea dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal">
         <references count="1">
           <reference field="4294967294">
@@ -9404,7 +8775,771 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="2" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表10" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
+  <location colPageCount="1" firstDataCol="0" firstDataRow="1" firstHeaderRow="1" ref="U16:U17" rowPageCount="3"/>
+  <pivotFields count="12">
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="3">
+        <item sd="1" t="data" x="0"/>
+        <item h="1" sd="1" t="data" x="1"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="7">
+        <item h="1" sd="1" t="data" x="2"/>
+        <item h="1" m="1" sd="1" t="data" x="3"/>
+        <item h="1" m="1" sd="1" t="data" x="4"/>
+        <item h="1" m="1" sd="1" t="data" x="5"/>
+        <item sd="1" t="data" x="0"/>
+        <item h="1" sd="1" t="data" x="1"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="13">
+        <item sd="1" t="data" x="0"/>
+        <item m="1" sd="1" t="data" x="3"/>
+        <item m="1" sd="1" t="data" x="2"/>
+        <item m="1" sd="1" t="data" x="8"/>
+        <item m="1" sd="1" t="data" x="1"/>
+        <item m="1" sd="1" t="data" x="7"/>
+        <item m="1" sd="1" t="data" x="10"/>
+        <item m="1" sd="1" t="data" x="5"/>
+        <item m="1" sd="1" t="data" x="9"/>
+        <item m="1" sd="1" t="data" x="4"/>
+        <item m="1" sd="1" t="data" x="6"/>
+        <item m="1" sd="1" t="data" x="11"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i i="0" r="0" t="data"/>
+  </rowItems>
+  <colItems count="1">
+    <i i="0" r="0" t="data"/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField baseField="0" baseItem="0" fld="7" name="计数项:星级" showDataAs="normal" subtotal="count"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="18">
+      <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea axis="axisValues" dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="0" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表3" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
+  <location colPageCount="1" firstDataCol="0" firstDataRow="1" firstHeaderRow="1" ref="F6:F7" rowPageCount="2"/>
+  <pivotFields count="9">
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="3">
+        <item sd="1" t="data" x="0"/>
+        <item h="1" sd="1" t="data" x="1"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="8">
+        <item h="1" sd="1" t="data" x="6"/>
+        <item h="1" sd="1" t="data" x="1"/>
+        <item h="1" sd="1" t="data" x="2"/>
+        <item h="1" sd="1" t="data" x="3"/>
+        <item h="1" sd="1" t="data" x="4"/>
+        <item h="1" sd="1" t="data" x="0"/>
+        <item sd="1" t="data" x="5"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i i="0" r="0" t="data"/>
+  </rowItems>
+  <colItems count="1">
+    <i i="0" r="0" t="data"/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField baseField="0" baseItem="0" fld="2" name="计数项:姓名" showDataAs="normal" subtotal="count"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="43">
+      <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
+    </format>
+    <format dxfId="42">
+      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea axis="axisValues" dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="0" chartFormat="3" colGrandTotals="0" compact="0" compactData="0" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表14" outline="0" outlineData="0" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
+  <location colPageCount="1" firstDataCol="1" firstDataRow="2" firstHeaderRow="1" ref="A25:C39" rowPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisPage" compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="2">
+        <item sd="1" t="data" x="0"/>
+        <item h="1" sd="1" t="data" x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="7">
+        <item h="1" sd="1" t="data" x="6"/>
+        <item h="1" sd="1" t="data" x="1"/>
+        <item h="1" sd="1" t="data" x="2"/>
+        <item h="1" sd="1" t="data" x="3"/>
+        <item sd="1" t="data" x="4"/>
+        <item h="1" sd="1" t="data" x="0"/>
+        <item sd="1" t="data" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField axis="axisRow" compact="0" dataField="1" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="descending" subtotalTop="1" topAutoShow="1">
+      <items count="18">
+        <item sd="1" t="data" x="11"/>
+        <item sd="1" t="data" x="12"/>
+        <item sd="1" t="data" x="8"/>
+        <item m="1" sd="1" t="data" x="17"/>
+        <item sd="1" t="data" x="0"/>
+        <item sd="1" t="data" x="2"/>
+        <item sd="1" t="data" x="10"/>
+        <item sd="1" t="data" x="4"/>
+        <item sd="1" t="data" x="3"/>
+        <item sd="1" t="data" x="14"/>
+        <item sd="1" t="data" x="5"/>
+        <item sd="1" t="data" x="6"/>
+        <item sd="1" t="data" x="15"/>
+        <item m="1" sd="1" t="data" x="16"/>
+        <item sd="1" t="data" x="1"/>
+        <item sd="1" t="data" x="7"/>
+        <item sd="1" t="data" x="9"/>
+        <item sd="1" t="data" x="13"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="normal">
+          <references count="2">
+            <reference field="4294967294" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" selected="0">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="13">
+    <i i="0" r="0" t="data">
+      <x v="11"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="7"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="16"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="10"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="5"/>
+    </i>
+    <i i="0" r="0" t="data"/>
+    <i i="0" r="0" t="data">
+      <x v="15"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="17"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="8"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="9"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="6"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="1"/>
+    </i>
+    <i i="0" r="0" t="grand"/>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="2">
+    <i i="0" r="0" t="data">
+      <x v="4"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="6"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField baseField="0" baseItem="0" fld="6" name="计数项:顾客标签" showDataAs="normal" subtotal="count"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="15">
+      <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea axis="axisValues" dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="6" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表6" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
+  <location colPageCount="1" firstDataCol="1" firstDataRow="1" firstHeaderRow="1" ref="L6:M9" rowPageCount="2"/>
+  <pivotFields count="10">
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="5">
+        <item h="1" m="1" sd="1" t="data" x="3"/>
+        <item sd="1" t="data" x="0"/>
+        <item h="1" sd="1" t="data" x="1"/>
+        <item h="1" m="1" sd="1" t="data" x="2"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="13">
+        <item h="1" m="1" sd="1" t="data" x="7"/>
+        <item h="1" m="1" sd="1" t="data" x="5"/>
+        <item h="1" m="1" sd="1" t="data" x="8"/>
+        <item h="1" m="1" sd="1" t="data" x="9"/>
+        <item h="1" m="1" sd="1" t="data" x="11"/>
+        <item h="1" sd="1" t="data" x="3"/>
+        <item h="1" m="1" sd="1" t="data" x="10"/>
+        <item h="1" m="1" sd="1" t="data" x="4"/>
+        <item h="1" m="1" sd="1" t="data" x="6"/>
+        <item h="1" sd="1" t="data" x="0"/>
+        <item sd="1" t="data" x="1"/>
+        <item h="1" sd="1" t="data" x="2"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField axis="axisRow" compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="8">
+        <item m="1" sd="1" t="data" x="5"/>
+        <item m="1" sd="1" t="data" x="3"/>
+        <item m="1" sd="1" t="data" x="6"/>
+        <item sd="1" t="data" x="0"/>
+        <item m="1" sd="1" t="data" x="4"/>
+        <item sd="1" t="data" x="1"/>
+        <item sd="1" t="data" x="2"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i i="0" r="0" t="data">
+      <x v="3"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="5"/>
+    </i>
+    <i i="0" r="0" t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i i="0" r="0" t="data"/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField baseField="0" baseItem="0" fld="4" name="计数项:订单来源" showDataAs="normal" subtotal="count"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="40">
+      <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea axis="axisRow" dataOnly="0" field="4" fieldPosition="0" labelOnly="1" outline="0" type="button"/>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" fieldPosition="0" labelOnly="1" outline="1" type="normal">
+        <references count="1">
+          <reference field="4">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" fieldPosition="0" grandRow="1" labelOnly="1" outline="0" type="normal"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea axis="axisValues" dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="7" chartFormat="0" colGrandTotals="0" compact="0" compactData="0" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表13" outline="0" outlineData="0" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
+  <location firstDataCol="1" firstDataRow="3" firstHeaderRow="1" ref="AD2:AH14"/>
+  <pivotFields count="16">
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField axis="axisCol" compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="5">
+        <item h="1" m="1" sd="1" t="data" x="4"/>
+        <item h="1" sd="1" t="data" x="3"/>
+        <item h="1" sd="1" t="data" x="0"/>
+        <item sd="1" t="data" x="1"/>
+        <item sd="1" t="data" x="2"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" dataField="1" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField axis="axisRow" compact="0" dataField="1" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="25">
+        <item m="1" sd="1" t="data" x="24"/>
+        <item m="1" sd="1" t="data" x="19"/>
+        <item m="1" sd="1" t="data" x="14"/>
+        <item m="1" sd="1" t="data" x="23"/>
+        <item sd="1" t="data" x="11"/>
+        <item m="1" sd="1" t="data" x="20"/>
+        <item m="1" sd="1" t="data" x="16"/>
+        <item m="1" sd="1" t="data" x="18"/>
+        <item m="1" sd="1" t="data" x="13"/>
+        <item m="1" sd="1" t="data" x="22"/>
+        <item m="1" sd="1" t="data" x="12"/>
+        <item m="1" sd="1" t="data" x="15"/>
+        <item m="1" sd="1" t="data" x="21"/>
+        <item m="1" sd="1" t="data" x="17"/>
+        <item sd="1" t="data" x="0"/>
+        <item sd="1" t="data" x="1"/>
+        <item sd="1" t="data" x="2"/>
+        <item sd="1" t="data" x="3"/>
+        <item sd="1" t="data" x="4"/>
+        <item sd="1" t="data" x="5"/>
+        <item sd="1" t="data" x="6"/>
+        <item sd="1" t="data" x="7"/>
+        <item sd="1" t="data" x="8"/>
+        <item sd="1" t="data" x="9"/>
+        <item sd="1" t="data" x="10"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="0" topAutoShow="1"/>
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="10">
+    <i i="0" r="0" t="data">
+      <x v="14"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="15"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="18"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="19"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="20"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="21"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="22"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="23"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="24"/>
+    </i>
+    <i i="0" r="0" t="grand"/>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i i="0" r="0" t="data"/>
+    <i i="1" r="1" t="data">
+      <x v="1"/>
+    </i>
+    <i i="0" r="0" t="data"/>
+    <i i="1" r="1" t="data">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField baseField="0" baseItem="0" fld="7" name="计数 / 套餐信息" showDataAs="normal" subtotal="count"/>
+    <dataField baseField="0" baseItem="0" fld="2" name="求和 / 成交价格" showDataAs="normal" subtotal="sum"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="1" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表7" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
+  <location colPageCount="1" firstDataCol="1" firstDataRow="1" firstHeaderRow="1" ref="O6:P8" rowPageCount="3"/>
+  <pivotFields count="15">
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="5">
+        <item h="1" m="1" sd="1" t="data" x="3"/>
+        <item sd="1" t="data" x="0"/>
+        <item h="1" sd="1" t="data" x="1"/>
+        <item h="1" m="1" sd="1" t="data" x="2"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="13">
+        <item h="1" m="1" sd="1" t="data" x="7"/>
+        <item h="1" m="1" sd="1" t="data" x="5"/>
+        <item h="1" m="1" sd="1" t="data" x="9"/>
+        <item h="1" m="1" sd="1" t="data" x="11"/>
+        <item h="1" sd="1" t="data" x="3"/>
+        <item h="1" m="1" sd="1" t="data" x="8"/>
+        <item h="1" m="1" sd="1" t="data" x="10"/>
+        <item h="1" m="1" sd="1" t="data" x="6"/>
+        <item h="1" m="1" sd="1" t="data" x="4"/>
+        <item h="1" sd="1" t="data" x="0"/>
+        <item h="1" sd="1" t="data" x="1"/>
+        <item sd="1" t="data" x="2"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="42">
+        <item m="1" sd="1" t="data" x="18"/>
+        <item m="1" sd="1" t="data" x="31"/>
+        <item m="1" sd="1" t="data" x="30"/>
+        <item m="1" sd="1" t="data" x="40"/>
+        <item m="1" sd="1" t="data" x="27"/>
+        <item m="1" sd="1" t="data" x="34"/>
+        <item m="1" sd="1" t="data" x="38"/>
+        <item m="1" sd="1" t="data" x="25"/>
+        <item m="1" sd="1" t="data" x="36"/>
+        <item m="1" sd="1" t="data" x="23"/>
+        <item m="1" sd="1" t="data" x="35"/>
+        <item m="1" sd="1" t="data" x="14"/>
+        <item m="1" sd="1" t="data" x="29"/>
+        <item m="1" sd="1" t="data" x="16"/>
+        <item m="1" sd="1" t="data" x="13"/>
+        <item m="1" sd="1" t="data" x="37"/>
+        <item m="1" sd="1" t="data" x="28"/>
+        <item sd="1" t="data" x="12"/>
+        <item m="1" sd="1" t="data" x="17"/>
+        <item m="1" sd="1" t="data" x="26"/>
+        <item m="1" sd="1" t="data" x="15"/>
+        <item m="1" sd="1" t="data" x="32"/>
+        <item m="1" sd="1" t="data" x="24"/>
+        <item m="1" sd="1" t="data" x="19"/>
+        <item sd="1" t="data" x="3"/>
+        <item m="1" sd="1" t="data" x="33"/>
+        <item m="1" sd="1" t="data" x="21"/>
+        <item m="1" sd="1" t="data" x="20"/>
+        <item sd="1" t="data" x="10"/>
+        <item m="1" sd="1" t="data" x="22"/>
+        <item m="1" sd="1" t="data" x="39"/>
+        <item sd="1" t="data" x="0"/>
+        <item sd="1" t="data" x="1"/>
+        <item sd="1" t="data" x="2"/>
+        <item sd="1" t="data" x="4"/>
+        <item sd="1" t="data" x="5"/>
+        <item sd="1" t="data" x="6"/>
+        <item sd="1" t="data" x="7"/>
+        <item sd="1" t="data" x="8"/>
+        <item sd="1" t="data" x="9"/>
+        <item sd="1" t="data" x="11"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField axis="axisRow" compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="5">
+        <item sd="1" t="data" x="1"/>
+        <item sd="1" t="data" x="2"/>
+        <item sd="1" t="data" x="0"/>
+        <item sd="1" t="data" x="3"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="2">
+    <i i="0" r="0" t="data">
+      <x v="2"/>
+    </i>
+    <i i="0" r="0" t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i i="0" r="0" t="data"/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField baseField="0" baseItem="0" fld="7" name="计数项:星级" showDataAs="normal" subtotal="count"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="61">
+      <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
+    </format>
+    <format dxfId="60">
+      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
+    </format>
+    <format dxfId="59">
+      <pivotArea axis="axisRow" dataOnly="0" field="7" fieldPosition="0" labelOnly="1" outline="0" type="button"/>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" fieldPosition="0" grandRow="1" labelOnly="1" outline="0" type="normal"/>
+    </format>
+    <format dxfId="57">
+      <pivotArea axis="axisValues" dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="1" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表8" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
+  <location colPageCount="1" firstDataCol="1" firstDataRow="1" firstHeaderRow="1" ref="R6:S9" rowPageCount="3"/>
+  <pivotFields count="15">
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="5">
+        <item h="1" m="1" sd="1" t="data" x="3"/>
+        <item sd="1" t="data" x="0"/>
+        <item h="1" sd="1" t="data" x="1"/>
+        <item h="1" m="1" sd="1" t="data" x="2"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="13">
+        <item h="1" m="1" sd="1" t="data" x="7"/>
+        <item h="1" m="1" sd="1" t="data" x="5"/>
+        <item h="1" m="1" sd="1" t="data" x="9"/>
+        <item h="1" m="1" sd="1" t="data" x="11"/>
+        <item h="1" sd="1" t="data" x="3"/>
+        <item h="1" m="1" sd="1" t="data" x="8"/>
+        <item h="1" m="1" sd="1" t="data" x="10"/>
+        <item h="1" m="1" sd="1" t="data" x="6"/>
+        <item h="1" m="1" sd="1" t="data" x="4"/>
+        <item h="1" sd="1" t="data" x="0"/>
+        <item sd="1" t="data" x="1"/>
+        <item h="1" sd="1" t="data" x="2"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="42">
+        <item m="1" sd="1" t="data" x="18"/>
+        <item m="1" sd="1" t="data" x="31"/>
+        <item m="1" sd="1" t="data" x="30"/>
+        <item m="1" sd="1" t="data" x="40"/>
+        <item m="1" sd="1" t="data" x="27"/>
+        <item m="1" sd="1" t="data" x="34"/>
+        <item m="1" sd="1" t="data" x="38"/>
+        <item m="1" sd="1" t="data" x="25"/>
+        <item m="1" sd="1" t="data" x="36"/>
+        <item m="1" sd="1" t="data" x="23"/>
+        <item m="1" sd="1" t="data" x="35"/>
+        <item m="1" sd="1" t="data" x="14"/>
+        <item m="1" sd="1" t="data" x="29"/>
+        <item m="1" sd="1" t="data" x="16"/>
+        <item m="1" sd="1" t="data" x="13"/>
+        <item m="1" sd="1" t="data" x="37"/>
+        <item m="1" sd="1" t="data" x="28"/>
+        <item sd="1" t="data" x="12"/>
+        <item m="1" sd="1" t="data" x="17"/>
+        <item m="1" sd="1" t="data" x="26"/>
+        <item m="1" sd="1" t="data" x="15"/>
+        <item m="1" sd="1" t="data" x="32"/>
+        <item m="1" sd="1" t="data" x="24"/>
+        <item m="1" sd="1" t="data" x="19"/>
+        <item sd="1" t="data" x="3"/>
+        <item m="1" sd="1" t="data" x="33"/>
+        <item m="1" sd="1" t="data" x="21"/>
+        <item m="1" sd="1" t="data" x="20"/>
+        <item sd="1" t="data" x="10"/>
+        <item m="1" sd="1" t="data" x="22"/>
+        <item m="1" sd="1" t="data" x="39"/>
+        <item sd="1" t="data" x="0"/>
+        <item sd="1" t="data" x="1"/>
+        <item sd="1" t="data" x="2"/>
+        <item sd="1" t="data" x="4"/>
+        <item sd="1" t="data" x="5"/>
+        <item sd="1" t="data" x="6"/>
+        <item sd="1" t="data" x="7"/>
+        <item sd="1" t="data" x="8"/>
+        <item sd="1" t="data" x="9"/>
+        <item sd="1" t="data" x="11"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField axis="axisRow" compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="5">
+        <item sd="1" t="data" x="1"/>
+        <item sd="1" t="data" x="2"/>
+        <item sd="1" t="data" x="0"/>
+        <item sd="1" t="data" x="3"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="3">
+    <i i="0" r="0" t="data">
+      <x v="1"/>
+    </i>
+    <i i="0" r="0" t="data">
+      <x v="2"/>
+    </i>
+    <i i="0" r="0" t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i i="0" r="0" t="data"/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField baseField="0" baseItem="0" fld="7" name="计数项:星级" showDataAs="normal" subtotal="count"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="12">
+      <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea axis="axisRow" dataOnly="0" field="7" fieldPosition="0" labelOnly="1" outline="0" type="button"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" fieldPosition="0" grandRow="1" labelOnly="1" outline="0" type="normal"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea axis="axisValues" dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="2" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表9" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
   <location colPageCount="1" firstDataCol="0" firstDataRow="1" firstHeaderRow="1" ref="U6:U7" rowPageCount="3"/>
   <pivotFields count="12">
@@ -9468,13 +9603,13 @@
     <dataField baseField="0" baseItem="0" fld="7" name="计数项:星级" showDataAs="normal" subtotal="count"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="16">
+    <format dxfId="30">
       <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="29">
       <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="28">
       <pivotArea axis="axisValues" dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal"/>
     </format>
   </formats>
@@ -9482,7 +9617,398 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="4" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表12" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
+  <location colPageCount="1" firstDataCol="0" firstDataRow="1" firstHeaderRow="0" ref="X17:AB18" rowPageCount="3"/>
+  <pivotFields count="15">
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="5">
+        <item h="1" m="1" sd="1" t="data" x="3"/>
+        <item m="1" sd="1" t="data" x="2"/>
+        <item h="1" sd="1" t="data" x="1"/>
+        <item h="1" sd="1" t="data" x="0"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="8">
+        <item h="1" sd="1" t="data" x="0"/>
+        <item m="1" sd="1" t="data" x="2"/>
+        <item m="1" sd="1" t="data" x="3"/>
+        <item h="1" m="1" sd="1" t="data" x="4"/>
+        <item h="1" m="1" sd="1" t="data" x="6"/>
+        <item h="1" sd="1" t="data" x="1"/>
+        <item h="1" m="1" sd="1" t="data" x="5"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="144">
+        <item m="1" sd="1" t="data" x="89"/>
+        <item m="1" sd="1" t="data" x="7"/>
+        <item m="1" sd="1" t="data" x="67"/>
+        <item m="1" sd="1" t="data" x="127"/>
+        <item m="1" sd="1" t="data" x="45"/>
+        <item m="1" sd="1" t="data" x="106"/>
+        <item m="1" sd="1" t="data" x="24"/>
+        <item m="1" sd="1" t="data" x="83"/>
+        <item m="1" sd="1" t="data" x="1"/>
+        <item m="1" sd="1" t="data" x="94"/>
+        <item m="1" sd="1" t="data" x="12"/>
+        <item m="1" sd="1" t="data" x="71"/>
+        <item m="1" sd="1" t="data" x="131"/>
+        <item m="1" sd="1" t="data" x="49"/>
+        <item m="1" sd="1" t="data" x="110"/>
+        <item m="1" sd="1" t="data" x="28"/>
+        <item m="1" sd="1" t="data" x="87"/>
+        <item m="1" sd="1" t="data" x="5"/>
+        <item m="1" sd="1" t="data" x="64"/>
+        <item m="1" sd="1" t="data" x="124"/>
+        <item m="1" sd="1" t="data" x="42"/>
+        <item m="1" sd="1" t="data" x="103"/>
+        <item m="1" sd="1" t="data" x="21"/>
+        <item m="1" sd="1" t="data" x="80"/>
+        <item m="1" sd="1" t="data" x="140"/>
+        <item m="1" sd="1" t="data" x="58"/>
+        <item m="1" sd="1" t="data" x="119"/>
+        <item m="1" sd="1" t="data" x="37"/>
+        <item m="1" sd="1" t="data" x="98"/>
+        <item m="1" sd="1" t="data" x="16"/>
+        <item m="1" sd="1" t="data" x="75"/>
+        <item m="1" sd="1" t="data" x="135"/>
+        <item m="1" sd="1" t="data" x="53"/>
+        <item m="1" sd="1" t="data" x="114"/>
+        <item m="1" sd="1" t="data" x="32"/>
+        <item m="1" sd="1" t="data" x="92"/>
+        <item m="1" sd="1" t="data" x="10"/>
+        <item m="1" sd="1" t="data" x="70"/>
+        <item m="1" sd="1" t="data" x="130"/>
+        <item m="1" sd="1" t="data" x="48"/>
+        <item m="1" sd="1" t="data" x="109"/>
+        <item m="1" sd="1" t="data" x="27"/>
+        <item m="1" sd="1" t="data" x="86"/>
+        <item m="1" sd="1" t="data" x="4"/>
+        <item m="1" sd="1" t="data" x="63"/>
+        <item m="1" sd="1" t="data" x="123"/>
+        <item m="1" sd="1" t="data" x="41"/>
+        <item m="1" sd="1" t="data" x="102"/>
+        <item m="1" sd="1" t="data" x="20"/>
+        <item m="1" sd="1" t="data" x="78"/>
+        <item m="1" sd="1" t="data" x="138"/>
+        <item m="1" sd="1" t="data" x="56"/>
+        <item m="1" sd="1" t="data" x="117"/>
+        <item m="1" sd="1" t="data" x="35"/>
+        <item m="1" sd="1" t="data" x="96"/>
+        <item m="1" sd="1" t="data" x="14"/>
+        <item m="1" sd="1" t="data" x="73"/>
+        <item m="1" sd="1" t="data" x="133"/>
+        <item m="1" sd="1" t="data" x="51"/>
+        <item m="1" sd="1" t="data" x="112"/>
+        <item m="1" sd="1" t="data" x="30"/>
+        <item m="1" sd="1" t="data" x="90"/>
+        <item m="1" sd="1" t="data" x="8"/>
+        <item m="1" sd="1" t="data" x="68"/>
+        <item m="1" sd="1" t="data" x="128"/>
+        <item m="1" sd="1" t="data" x="46"/>
+        <item m="1" sd="1" t="data" x="107"/>
+        <item m="1" sd="1" t="data" x="25"/>
+        <item m="1" sd="1" t="data" x="84"/>
+        <item m="1" sd="1" t="data" x="2"/>
+        <item m="1" sd="1" t="data" x="61"/>
+        <item m="1" sd="1" t="data" x="95"/>
+        <item m="1" sd="1" t="data" x="13"/>
+        <item m="1" sd="1" t="data" x="72"/>
+        <item m="1" sd="1" t="data" x="132"/>
+        <item m="1" sd="1" t="data" x="50"/>
+        <item m="1" sd="1" t="data" x="111"/>
+        <item m="1" sd="1" t="data" x="29"/>
+        <item m="1" sd="1" t="data" x="88"/>
+        <item m="1" sd="1" t="data" x="6"/>
+        <item m="1" sd="1" t="data" x="65"/>
+        <item m="1" sd="1" t="data" x="125"/>
+        <item m="1" sd="1" t="data" x="43"/>
+        <item m="1" sd="1" t="data" x="104"/>
+        <item m="1" sd="1" t="data" x="22"/>
+        <item m="1" sd="1" t="data" x="81"/>
+        <item m="1" sd="1" t="data" x="141"/>
+        <item m="1" sd="1" t="data" x="59"/>
+        <item m="1" sd="1" t="data" x="120"/>
+        <item m="1" sd="1" t="data" x="38"/>
+        <item m="1" sd="1" t="data" x="99"/>
+        <item m="1" sd="1" t="data" x="17"/>
+        <item m="1" sd="1" t="data" x="76"/>
+        <item m="1" sd="1" t="data" x="136"/>
+        <item m="1" sd="1" t="data" x="54"/>
+        <item m="1" sd="1" t="data" x="115"/>
+        <item m="1" sd="1" t="data" x="33"/>
+        <item m="1" sd="1" t="data" x="93"/>
+        <item m="1" sd="1" t="data" x="11"/>
+        <item m="1" sd="1" t="data" x="79"/>
+        <item m="1" sd="1" t="data" x="139"/>
+        <item m="1" sd="1" t="data" x="57"/>
+        <item m="1" sd="1" t="data" x="118"/>
+        <item m="1" sd="1" t="data" x="36"/>
+        <item m="1" sd="1" t="data" x="97"/>
+        <item m="1" sd="1" t="data" x="15"/>
+        <item m="1" sd="1" t="data" x="74"/>
+        <item m="1" sd="1" t="data" x="134"/>
+        <item m="1" sd="1" t="data" x="52"/>
+        <item m="1" sd="1" t="data" x="113"/>
+        <item m="1" sd="1" t="data" x="31"/>
+        <item m="1" sd="1" t="data" x="91"/>
+        <item m="1" sd="1" t="data" x="9"/>
+        <item sd="1" t="data" x="0"/>
+        <item m="1" sd="1" t="data" x="69"/>
+        <item m="1" sd="1" t="data" x="129"/>
+        <item m="1" sd="1" t="data" x="47"/>
+        <item m="1" sd="1" t="data" x="108"/>
+        <item m="1" sd="1" t="data" x="26"/>
+        <item m="1" sd="1" t="data" x="85"/>
+        <item m="1" sd="1" t="data" x="3"/>
+        <item m="1" sd="1" t="data" x="62"/>
+        <item m="1" sd="1" t="data" x="122"/>
+        <item m="1" sd="1" t="data" x="40"/>
+        <item m="1" sd="1" t="data" x="101"/>
+        <item m="1" sd="1" t="data" x="19"/>
+        <item m="1" sd="1" t="data" x="77"/>
+        <item m="1" sd="1" t="data" x="137"/>
+        <item m="1" sd="1" t="data" x="55"/>
+        <item m="1" sd="1" t="data" x="116"/>
+        <item m="1" sd="1" t="data" x="34"/>
+        <item m="1" sd="1" t="data" x="66"/>
+        <item m="1" sd="1" t="data" x="126"/>
+        <item m="1" sd="1" t="data" x="44"/>
+        <item m="1" sd="1" t="data" x="105"/>
+        <item m="1" sd="1" t="data" x="23"/>
+        <item m="1" sd="1" t="data" x="82"/>
+        <item m="1" sd="1" t="data" x="142"/>
+        <item m="1" sd="1" t="data" x="60"/>
+        <item m="1" sd="1" t="data" x="121"/>
+        <item m="1" sd="1" t="data" x="39"/>
+        <item m="1" sd="1" t="data" x="100"/>
+        <item m="1" sd="1" t="data" x="18"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i i="0" r="0" t="data"/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i i="0" r="0" t="data"/>
+    <i i="1" r="0" t="data">
+      <x v="1"/>
+    </i>
+    <i i="2" r="0" t="data">
+      <x v="2"/>
+    </i>
+    <i i="3" r="0" t="data">
+      <x v="3"/>
+    </i>
+    <i i="4" r="0" t="data">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField baseField="0" baseItem="0" fld="5" name="求和项:花费" showDataAs="normal" subtotal="sum"/>
+    <dataField baseField="0" baseItem="0" fld="7" name="求和项:点击" showDataAs="normal" subtotal="sum"/>
+    <dataField baseField="0" baseItem="1" fld="8" name="平均值项:点击均价" showDataAs="normal" subtotal="average"/>
+    <dataField baseField="0" baseItem="0" fld="6" name="求和项:曝光" showDataAs="normal" subtotal="sum"/>
+    <dataField baseField="0" baseItem="0" fld="9" name="求和项:商户浏览量" showDataAs="normal" subtotal="sum"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="56">
+      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal">
+        <references count="1">
+          <reference field="4294967294" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="55">
+      <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal">
+        <references count="1">
+          <reference field="4294967294">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="5" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表5" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
+  <location colPageCount="1" firstDataCol="1" firstDataRow="1" firstHeaderRow="1" ref="I6:J8" rowPageCount="2"/>
+  <pivotFields count="11">
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="4">
+        <item h="1" sd="1" t="data" x="1"/>
+        <item h="1" m="1" sd="1" t="data" x="2"/>
+        <item sd="1" t="data" x="0"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="8">
+        <item h="1" m="1" sd="1" t="data" x="6"/>
+        <item h="1" sd="1" t="data" x="3"/>
+        <item h="1" m="1" sd="1" t="data" x="4"/>
+        <item h="1" m="1" sd="1" t="data" x="5"/>
+        <item h="1" sd="1" t="data" x="0"/>
+        <item h="1" sd="1" t="data" x="1"/>
+        <item sd="1" t="data" x="2"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField axis="axisRow" compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="6">
+        <item sd="1" t="data" x="2"/>
+        <item sd="1" t="data" x="1"/>
+        <item m="1" sd="1" t="data" x="3"/>
+        <item m="1" sd="1" t="data" x="4"/>
+        <item sd="1" t="data" x="0"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="2">
+    <i i="0" r="0" t="data">
+      <x v="1"/>
+    </i>
+    <i i="0" r="0" t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i i="0" r="0" t="data"/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField baseField="0" baseItem="0" fld="4" name="计数项:订单来源" showDataAs="normal" subtotal="count"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="7">
+      <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea axis="axisRow" dataOnly="0" field="4" fieldPosition="0" labelOnly="1" outline="0" type="button"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" fieldPosition="0" grandRow="1" labelOnly="1" outline="0" type="normal"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea axis="axisValues" dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="0" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表4" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
+  <location colPageCount="1" firstDataCol="0" firstDataRow="1" firstHeaderRow="1" ref="F16:F17" rowPageCount="2"/>
+  <pivotFields count="9">
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="3">
+        <item sd="1" t="data" x="0"/>
+        <item h="1" sd="1" t="data" x="1"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
+      <items count="8">
+        <item h="1" sd="1" t="data" x="6"/>
+        <item h="1" sd="1" t="data" x="1"/>
+        <item h="1" sd="1" t="data" x="2"/>
+        <item h="1" sd="1" t="data" x="3"/>
+        <item sd="1" t="data" x="4"/>
+        <item h="1" sd="1" t="data" x="0"/>
+        <item h="1" sd="1" t="data" x="5"/>
+        <item sd="1" t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i i="0" r="0" t="data"/>
+  </rowItems>
+  <colItems count="1">
+    <i i="0" r="0" t="data"/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField baseField="0" baseItem="0" fld="2" name="计数项:姓名" showDataAs="normal" subtotal="count"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="2">
+      <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea axis="axisValues" dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="3" chartFormat="0" colGrandTotals="1" compact="0" compactData="0" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表1" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
   <location colPageCount="1" firstDataCol="0" firstDataRow="1" firstHeaderRow="0" ref="A6:D7" rowPageCount="3"/>
   <pivotFields count="7">
@@ -9758,7 +10284,7 @@
     <dataField baseField="0" baseItem="3" fld="6" name="跳失率" showDataAs="normal" subtotal="average"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="46">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal">
         <references count="1">
           <reference field="4294967294" selected="0">
@@ -9767,7 +10293,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="26">
       <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal">
         <references count="1">
           <reference field="4294967294" selected="0">
@@ -9776,13 +10302,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="25">
       <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="24">
       <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="23">
       <pivotArea dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal">
         <references count="1">
           <reference field="4294967294">
@@ -9791,7 +10317,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="22">
       <pivotArea dataOnly="1" fieldPosition="0" outline="0" type="normal">
         <references count="1">
           <reference field="4294967294" selected="0">
@@ -9800,7 +10326,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="21">
       <pivotArea dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal">
         <references count="1">
           <reference field="4294967294">
@@ -9809,7 +10335,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="20">
       <pivotArea dataOnly="1" fieldPosition="0" outline="0" type="normal">
         <references count="1">
           <reference field="4294967294" selected="0">
@@ -9818,7 +10344,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="19">
       <pivotArea dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal">
         <references count="1">
           <reference field="4294967294">
@@ -9832,867 +10358,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="2" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表10" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
-  <location colPageCount="1" firstDataCol="0" firstDataRow="1" firstHeaderRow="1" ref="U16:U17" rowPageCount="3"/>
-  <pivotFields count="12">
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="3">
-        <item sd="1" t="data" x="0"/>
-        <item h="1" sd="1" t="data" x="1"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="7">
-        <item h="1" sd="1" t="data" x="2"/>
-        <item h="1" m="1" sd="1" t="data" x="3"/>
-        <item h="1" m="1" sd="1" t="data" x="4"/>
-        <item h="1" m="1" sd="1" t="data" x="5"/>
-        <item sd="1" t="data" x="0"/>
-        <item h="1" sd="1" t="data" x="1"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="13">
-        <item sd="1" t="data" x="0"/>
-        <item m="1" sd="1" t="data" x="3"/>
-        <item m="1" sd="1" t="data" x="2"/>
-        <item m="1" sd="1" t="data" x="8"/>
-        <item m="1" sd="1" t="data" x="1"/>
-        <item m="1" sd="1" t="data" x="7"/>
-        <item m="1" sd="1" t="data" x="10"/>
-        <item m="1" sd="1" t="data" x="5"/>
-        <item m="1" sd="1" t="data" x="9"/>
-        <item m="1" sd="1" t="data" x="4"/>
-        <item m="1" sd="1" t="data" x="6"/>
-        <item m="1" sd="1" t="data" x="11"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i i="0" r="0" t="data"/>
-  </rowItems>
-  <colItems count="1">
-    <i i="0" r="0" t="data"/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField baseField="0" baseItem="0" fld="7" name="计数项:星级" showDataAs="normal" subtotal="count"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="61">
-      <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
-    </format>
-    <format dxfId="60">
-      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
-    </format>
-    <format dxfId="59">
-      <pivotArea axis="axisValues" dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="1" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表8" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
-  <location colPageCount="1" firstDataCol="1" firstDataRow="1" firstHeaderRow="1" ref="R6:S9" rowPageCount="3"/>
-  <pivotFields count="15">
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="5">
-        <item h="1" m="1" sd="1" t="data" x="3"/>
-        <item sd="1" t="data" x="0"/>
-        <item h="1" sd="1" t="data" x="1"/>
-        <item h="1" m="1" sd="1" t="data" x="2"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="13">
-        <item h="1" m="1" sd="1" t="data" x="7"/>
-        <item h="1" m="1" sd="1" t="data" x="5"/>
-        <item h="1" m="1" sd="1" t="data" x="9"/>
-        <item h="1" m="1" sd="1" t="data" x="11"/>
-        <item h="1" sd="1" t="data" x="3"/>
-        <item h="1" m="1" sd="1" t="data" x="8"/>
-        <item h="1" m="1" sd="1" t="data" x="10"/>
-        <item h="1" m="1" sd="1" t="data" x="6"/>
-        <item h="1" m="1" sd="1" t="data" x="4"/>
-        <item h="1" sd="1" t="data" x="0"/>
-        <item sd="1" t="data" x="1"/>
-        <item h="1" sd="1" t="data" x="2"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="42">
-        <item m="1" sd="1" t="data" x="18"/>
-        <item m="1" sd="1" t="data" x="31"/>
-        <item m="1" sd="1" t="data" x="30"/>
-        <item m="1" sd="1" t="data" x="40"/>
-        <item m="1" sd="1" t="data" x="27"/>
-        <item m="1" sd="1" t="data" x="34"/>
-        <item m="1" sd="1" t="data" x="38"/>
-        <item m="1" sd="1" t="data" x="25"/>
-        <item m="1" sd="1" t="data" x="36"/>
-        <item m="1" sd="1" t="data" x="23"/>
-        <item m="1" sd="1" t="data" x="35"/>
-        <item m="1" sd="1" t="data" x="14"/>
-        <item m="1" sd="1" t="data" x="29"/>
-        <item m="1" sd="1" t="data" x="16"/>
-        <item m="1" sd="1" t="data" x="13"/>
-        <item m="1" sd="1" t="data" x="37"/>
-        <item m="1" sd="1" t="data" x="28"/>
-        <item sd="1" t="data" x="12"/>
-        <item m="1" sd="1" t="data" x="17"/>
-        <item m="1" sd="1" t="data" x="26"/>
-        <item m="1" sd="1" t="data" x="15"/>
-        <item m="1" sd="1" t="data" x="32"/>
-        <item m="1" sd="1" t="data" x="24"/>
-        <item m="1" sd="1" t="data" x="19"/>
-        <item sd="1" t="data" x="3"/>
-        <item m="1" sd="1" t="data" x="33"/>
-        <item m="1" sd="1" t="data" x="21"/>
-        <item m="1" sd="1" t="data" x="20"/>
-        <item sd="1" t="data" x="10"/>
-        <item m="1" sd="1" t="data" x="22"/>
-        <item m="1" sd="1" t="data" x="39"/>
-        <item sd="1" t="data" x="0"/>
-        <item sd="1" t="data" x="1"/>
-        <item sd="1" t="data" x="2"/>
-        <item sd="1" t="data" x="4"/>
-        <item sd="1" t="data" x="5"/>
-        <item sd="1" t="data" x="6"/>
-        <item sd="1" t="data" x="7"/>
-        <item sd="1" t="data" x="8"/>
-        <item sd="1" t="data" x="9"/>
-        <item sd="1" t="data" x="11"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField axis="axisRow" compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="5">
-        <item sd="1" t="data" x="1"/>
-        <item sd="1" t="data" x="2"/>
-        <item sd="1" t="data" x="0"/>
-        <item sd="1" t="data" x="3"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="3">
-    <i i="0" r="0" t="data">
-      <x v="1"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="2"/>
-    </i>
-    <i i="0" r="0" t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i i="0" r="0" t="data"/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField baseField="0" baseItem="0" fld="7" name="计数项:星级" showDataAs="normal" subtotal="count"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="58">
-      <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
-    </format>
-    <format dxfId="57">
-      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
-    </format>
-    <format dxfId="56">
-      <pivotArea axis="axisRow" dataOnly="0" field="7" fieldPosition="0" labelOnly="1" outline="0" type="button"/>
-    </format>
-    <format dxfId="55">
-      <pivotArea dataOnly="0" fieldPosition="0" grandRow="1" labelOnly="1" outline="0" type="normal"/>
-    </format>
-    <format dxfId="54">
-      <pivotArea axis="axisValues" dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="5" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表5" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
-  <location colPageCount="1" firstDataCol="1" firstDataRow="1" firstHeaderRow="1" ref="I6:J8" rowPageCount="2"/>
-  <pivotFields count="11">
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="4">
-        <item h="1" sd="1" t="data" x="1"/>
-        <item h="1" m="1" sd="1" t="data" x="2"/>
-        <item sd="1" t="data" x="0"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="8">
-        <item h="1" m="1" sd="1" t="data" x="6"/>
-        <item h="1" sd="1" t="data" x="3"/>
-        <item h="1" m="1" sd="1" t="data" x="4"/>
-        <item h="1" m="1" sd="1" t="data" x="5"/>
-        <item h="1" sd="1" t="data" x="0"/>
-        <item h="1" sd="1" t="data" x="1"/>
-        <item sd="1" t="data" x="2"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField axis="axisRow" compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="6">
-        <item sd="1" t="data" x="2"/>
-        <item sd="1" t="data" x="1"/>
-        <item m="1" sd="1" t="data" x="3"/>
-        <item m="1" sd="1" t="data" x="4"/>
-        <item sd="1" t="data" x="0"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="2">
-    <i i="0" r="0" t="data">
-      <x v="1"/>
-    </i>
-    <i i="0" r="0" t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i i="0" r="0" t="data"/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField baseField="0" baseItem="0" fld="4" name="计数项:订单来源" showDataAs="normal" subtotal="count"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="13">
-      <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea axis="axisRow" dataOnly="0" field="4" fieldPosition="0" labelOnly="1" outline="0" type="button"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea dataOnly="0" fieldPosition="0" grandRow="1" labelOnly="1" outline="0" type="normal"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea axis="axisValues" dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="0" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表4" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
-  <location colPageCount="1" firstDataCol="0" firstDataRow="1" firstHeaderRow="1" ref="F16:F17" rowPageCount="2"/>
-  <pivotFields count="9">
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="3">
-        <item sd="1" t="data" x="0"/>
-        <item h="1" sd="1" t="data" x="1"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="8">
-        <item h="1" sd="1" t="data" x="6"/>
-        <item h="1" sd="1" t="data" x="1"/>
-        <item h="1" sd="1" t="data" x="2"/>
-        <item h="1" sd="1" t="data" x="3"/>
-        <item sd="1" t="data" x="4"/>
-        <item h="1" sd="1" t="data" x="0"/>
-        <item h="1" sd="1" t="data" x="5"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i i="0" r="0" t="data"/>
-  </rowItems>
-  <colItems count="1">
-    <i i="0" r="0" t="data"/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField baseField="0" baseItem="0" fld="2" name="计数项:姓名" showDataAs="normal" subtotal="count"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="34">
-      <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea axis="axisValues" dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="7" chartFormat="0" colGrandTotals="0" compact="0" compactData="0" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表13" outline="0" outlineData="0" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
-  <location firstDataCol="1" firstDataRow="3" firstHeaderRow="1" ref="AD2:AH14"/>
-  <pivotFields count="16">
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField axis="axisCol" compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="5">
-        <item h="1" m="1" sd="1" t="data" x="4"/>
-        <item h="1" sd="1" t="data" x="3"/>
-        <item h="1" sd="1" t="data" x="0"/>
-        <item sd="1" t="data" x="1"/>
-        <item sd="1" t="data" x="2"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" dataField="1" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField axis="axisRow" compact="0" dataField="1" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="25">
-        <item m="1" sd="1" t="data" x="24"/>
-        <item m="1" sd="1" t="data" x="19"/>
-        <item m="1" sd="1" t="data" x="14"/>
-        <item m="1" sd="1" t="data" x="23"/>
-        <item sd="1" t="data" x="11"/>
-        <item m="1" sd="1" t="data" x="20"/>
-        <item m="1" sd="1" t="data" x="16"/>
-        <item m="1" sd="1" t="data" x="18"/>
-        <item m="1" sd="1" t="data" x="13"/>
-        <item m="1" sd="1" t="data" x="22"/>
-        <item m="1" sd="1" t="data" x="12"/>
-        <item m="1" sd="1" t="data" x="15"/>
-        <item m="1" sd="1" t="data" x="21"/>
-        <item m="1" sd="1" t="data" x="17"/>
-        <item sd="1" t="data" x="0"/>
-        <item sd="1" t="data" x="1"/>
-        <item sd="1" t="data" x="2"/>
-        <item sd="1" t="data" x="3"/>
-        <item sd="1" t="data" x="4"/>
-        <item sd="1" t="data" x="5"/>
-        <item sd="1" t="data" x="6"/>
-        <item sd="1" t="data" x="7"/>
-        <item sd="1" t="data" x="8"/>
-        <item sd="1" t="data" x="9"/>
-        <item sd="1" t="data" x="10"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="0" topAutoShow="1"/>
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="0" defaultSubtotal="0" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="0" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="10">
-    <i i="0" r="0" t="data">
-      <x v="14"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="15"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="18"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="19"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="20"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="21"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="22"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="23"/>
-    </i>
-    <i i="0" r="0" t="data">
-      <x v="24"/>
-    </i>
-    <i i="0" r="0" t="grand"/>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i i="0" r="0" t="data"/>
-    <i i="1" r="1" t="data">
-      <x v="1"/>
-    </i>
-    <i i="0" r="0" t="data"/>
-    <i i="1" r="1" t="data">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField baseField="0" baseItem="0" fld="7" name="计数 / 套餐信息" showDataAs="normal" subtotal="count"/>
-    <dataField baseField="0" baseItem="0" fld="2" name="求和 / 成交价格" showDataAs="normal" subtotal="sum"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="1" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表7" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
-  <location colPageCount="1" firstDataCol="1" firstDataRow="1" firstHeaderRow="1" ref="O6:P8" rowPageCount="3"/>
-  <pivotFields count="15">
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="5">
-        <item h="1" m="1" sd="1" t="data" x="3"/>
-        <item sd="1" t="data" x="0"/>
-        <item h="1" sd="1" t="data" x="1"/>
-        <item h="1" m="1" sd="1" t="data" x="2"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="13">
-        <item h="1" m="1" sd="1" t="data" x="7"/>
-        <item h="1" m="1" sd="1" t="data" x="5"/>
-        <item h="1" m="1" sd="1" t="data" x="9"/>
-        <item h="1" m="1" sd="1" t="data" x="11"/>
-        <item h="1" sd="1" t="data" x="3"/>
-        <item h="1" m="1" sd="1" t="data" x="8"/>
-        <item h="1" m="1" sd="1" t="data" x="10"/>
-        <item h="1" m="1" sd="1" t="data" x="6"/>
-        <item h="1" m="1" sd="1" t="data" x="4"/>
-        <item h="1" sd="1" t="data" x="0"/>
-        <item h="1" sd="1" t="data" x="1"/>
-        <item sd="1" t="data" x="2"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="42">
-        <item m="1" sd="1" t="data" x="18"/>
-        <item m="1" sd="1" t="data" x="31"/>
-        <item m="1" sd="1" t="data" x="30"/>
-        <item m="1" sd="1" t="data" x="40"/>
-        <item m="1" sd="1" t="data" x="27"/>
-        <item m="1" sd="1" t="data" x="34"/>
-        <item m="1" sd="1" t="data" x="38"/>
-        <item m="1" sd="1" t="data" x="25"/>
-        <item m="1" sd="1" t="data" x="36"/>
-        <item m="1" sd="1" t="data" x="23"/>
-        <item m="1" sd="1" t="data" x="35"/>
-        <item m="1" sd="1" t="data" x="14"/>
-        <item m="1" sd="1" t="data" x="29"/>
-        <item m="1" sd="1" t="data" x="16"/>
-        <item m="1" sd="1" t="data" x="13"/>
-        <item m="1" sd="1" t="data" x="37"/>
-        <item m="1" sd="1" t="data" x="28"/>
-        <item sd="1" t="data" x="12"/>
-        <item m="1" sd="1" t="data" x="17"/>
-        <item m="1" sd="1" t="data" x="26"/>
-        <item m="1" sd="1" t="data" x="15"/>
-        <item m="1" sd="1" t="data" x="32"/>
-        <item m="1" sd="1" t="data" x="24"/>
-        <item m="1" sd="1" t="data" x="19"/>
-        <item sd="1" t="data" x="3"/>
-        <item m="1" sd="1" t="data" x="33"/>
-        <item m="1" sd="1" t="data" x="21"/>
-        <item m="1" sd="1" t="data" x="20"/>
-        <item sd="1" t="data" x="10"/>
-        <item m="1" sd="1" t="data" x="22"/>
-        <item m="1" sd="1" t="data" x="39"/>
-        <item sd="1" t="data" x="0"/>
-        <item sd="1" t="data" x="1"/>
-        <item sd="1" t="data" x="2"/>
-        <item sd="1" t="data" x="4"/>
-        <item sd="1" t="data" x="5"/>
-        <item sd="1" t="data" x="6"/>
-        <item sd="1" t="data" x="7"/>
-        <item sd="1" t="data" x="8"/>
-        <item sd="1" t="data" x="9"/>
-        <item sd="1" t="data" x="11"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField axis="axisRow" compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="5">
-        <item sd="1" t="data" x="1"/>
-        <item sd="1" t="data" x="2"/>
-        <item sd="1" t="data" x="0"/>
-        <item sd="1" t="data" x="3"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="2">
-    <i i="0" r="0" t="data">
-      <x v="2"/>
-    </i>
-    <i i="0" r="0" t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i i="0" r="0" t="data"/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField baseField="0" baseItem="0" fld="7" name="计数项:星级" showDataAs="normal" subtotal="count"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="8">
-      <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea axis="axisRow" dataOnly="0" field="7" fieldPosition="0" labelOnly="1" outline="0" type="button"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" fieldPosition="0" grandRow="1" labelOnly="1" outline="0" type="normal"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea axis="axisValues" dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="4" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表12" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
-  <location colPageCount="1" firstDataCol="0" firstDataRow="1" firstHeaderRow="0" ref="X17:AB18" rowPageCount="3"/>
-  <pivotFields count="15">
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="5">
-        <item h="1" m="1" sd="1" t="data" x="3"/>
-        <item m="1" sd="1" t="data" x="2"/>
-        <item h="1" sd="1" t="data" x="1"/>
-        <item h="1" sd="1" t="data" x="0"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="8">
-        <item h="1" sd="1" t="data" x="0"/>
-        <item m="1" sd="1" t="data" x="2"/>
-        <item m="1" sd="1" t="data" x="3"/>
-        <item h="1" m="1" sd="1" t="data" x="4"/>
-        <item h="1" m="1" sd="1" t="data" x="6"/>
-        <item h="1" sd="1" t="data" x="1"/>
-        <item h="1" m="1" sd="1" t="data" x="5"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="144">
-        <item m="1" sd="1" t="data" x="89"/>
-        <item m="1" sd="1" t="data" x="7"/>
-        <item m="1" sd="1" t="data" x="67"/>
-        <item m="1" sd="1" t="data" x="127"/>
-        <item m="1" sd="1" t="data" x="45"/>
-        <item m="1" sd="1" t="data" x="106"/>
-        <item m="1" sd="1" t="data" x="24"/>
-        <item m="1" sd="1" t="data" x="83"/>
-        <item m="1" sd="1" t="data" x="1"/>
-        <item m="1" sd="1" t="data" x="94"/>
-        <item m="1" sd="1" t="data" x="12"/>
-        <item m="1" sd="1" t="data" x="71"/>
-        <item m="1" sd="1" t="data" x="131"/>
-        <item m="1" sd="1" t="data" x="49"/>
-        <item m="1" sd="1" t="data" x="110"/>
-        <item m="1" sd="1" t="data" x="28"/>
-        <item m="1" sd="1" t="data" x="87"/>
-        <item m="1" sd="1" t="data" x="5"/>
-        <item m="1" sd="1" t="data" x="64"/>
-        <item m="1" sd="1" t="data" x="124"/>
-        <item m="1" sd="1" t="data" x="42"/>
-        <item m="1" sd="1" t="data" x="103"/>
-        <item m="1" sd="1" t="data" x="21"/>
-        <item m="1" sd="1" t="data" x="80"/>
-        <item m="1" sd="1" t="data" x="140"/>
-        <item m="1" sd="1" t="data" x="58"/>
-        <item m="1" sd="1" t="data" x="119"/>
-        <item m="1" sd="1" t="data" x="37"/>
-        <item m="1" sd="1" t="data" x="98"/>
-        <item m="1" sd="1" t="data" x="16"/>
-        <item m="1" sd="1" t="data" x="75"/>
-        <item m="1" sd="1" t="data" x="135"/>
-        <item m="1" sd="1" t="data" x="53"/>
-        <item m="1" sd="1" t="data" x="114"/>
-        <item m="1" sd="1" t="data" x="32"/>
-        <item m="1" sd="1" t="data" x="92"/>
-        <item m="1" sd="1" t="data" x="10"/>
-        <item m="1" sd="1" t="data" x="70"/>
-        <item m="1" sd="1" t="data" x="130"/>
-        <item m="1" sd="1" t="data" x="48"/>
-        <item m="1" sd="1" t="data" x="109"/>
-        <item m="1" sd="1" t="data" x="27"/>
-        <item m="1" sd="1" t="data" x="86"/>
-        <item m="1" sd="1" t="data" x="4"/>
-        <item m="1" sd="1" t="data" x="63"/>
-        <item m="1" sd="1" t="data" x="123"/>
-        <item m="1" sd="1" t="data" x="41"/>
-        <item m="1" sd="1" t="data" x="102"/>
-        <item m="1" sd="1" t="data" x="20"/>
-        <item m="1" sd="1" t="data" x="78"/>
-        <item m="1" sd="1" t="data" x="138"/>
-        <item m="1" sd="1" t="data" x="56"/>
-        <item m="1" sd="1" t="data" x="117"/>
-        <item m="1" sd="1" t="data" x="35"/>
-        <item m="1" sd="1" t="data" x="96"/>
-        <item m="1" sd="1" t="data" x="14"/>
-        <item m="1" sd="1" t="data" x="73"/>
-        <item m="1" sd="1" t="data" x="133"/>
-        <item m="1" sd="1" t="data" x="51"/>
-        <item m="1" sd="1" t="data" x="112"/>
-        <item m="1" sd="1" t="data" x="30"/>
-        <item m="1" sd="1" t="data" x="90"/>
-        <item m="1" sd="1" t="data" x="8"/>
-        <item m="1" sd="1" t="data" x="68"/>
-        <item m="1" sd="1" t="data" x="128"/>
-        <item m="1" sd="1" t="data" x="46"/>
-        <item m="1" sd="1" t="data" x="107"/>
-        <item m="1" sd="1" t="data" x="25"/>
-        <item m="1" sd="1" t="data" x="84"/>
-        <item m="1" sd="1" t="data" x="2"/>
-        <item m="1" sd="1" t="data" x="61"/>
-        <item m="1" sd="1" t="data" x="95"/>
-        <item m="1" sd="1" t="data" x="13"/>
-        <item m="1" sd="1" t="data" x="72"/>
-        <item m="1" sd="1" t="data" x="132"/>
-        <item m="1" sd="1" t="data" x="50"/>
-        <item m="1" sd="1" t="data" x="111"/>
-        <item m="1" sd="1" t="data" x="29"/>
-        <item m="1" sd="1" t="data" x="88"/>
-        <item m="1" sd="1" t="data" x="6"/>
-        <item m="1" sd="1" t="data" x="65"/>
-        <item m="1" sd="1" t="data" x="125"/>
-        <item m="1" sd="1" t="data" x="43"/>
-        <item m="1" sd="1" t="data" x="104"/>
-        <item m="1" sd="1" t="data" x="22"/>
-        <item m="1" sd="1" t="data" x="81"/>
-        <item m="1" sd="1" t="data" x="141"/>
-        <item m="1" sd="1" t="data" x="59"/>
-        <item m="1" sd="1" t="data" x="120"/>
-        <item m="1" sd="1" t="data" x="38"/>
-        <item m="1" sd="1" t="data" x="99"/>
-        <item m="1" sd="1" t="data" x="17"/>
-        <item m="1" sd="1" t="data" x="76"/>
-        <item m="1" sd="1" t="data" x="136"/>
-        <item m="1" sd="1" t="data" x="54"/>
-        <item m="1" sd="1" t="data" x="115"/>
-        <item m="1" sd="1" t="data" x="33"/>
-        <item m="1" sd="1" t="data" x="93"/>
-        <item m="1" sd="1" t="data" x="11"/>
-        <item m="1" sd="1" t="data" x="79"/>
-        <item m="1" sd="1" t="data" x="139"/>
-        <item m="1" sd="1" t="data" x="57"/>
-        <item m="1" sd="1" t="data" x="118"/>
-        <item m="1" sd="1" t="data" x="36"/>
-        <item m="1" sd="1" t="data" x="97"/>
-        <item m="1" sd="1" t="data" x="15"/>
-        <item m="1" sd="1" t="data" x="74"/>
-        <item m="1" sd="1" t="data" x="134"/>
-        <item m="1" sd="1" t="data" x="52"/>
-        <item m="1" sd="1" t="data" x="113"/>
-        <item m="1" sd="1" t="data" x="31"/>
-        <item m="1" sd="1" t="data" x="91"/>
-        <item m="1" sd="1" t="data" x="9"/>
-        <item sd="1" t="data" x="0"/>
-        <item m="1" sd="1" t="data" x="69"/>
-        <item m="1" sd="1" t="data" x="129"/>
-        <item m="1" sd="1" t="data" x="47"/>
-        <item m="1" sd="1" t="data" x="108"/>
-        <item m="1" sd="1" t="data" x="26"/>
-        <item m="1" sd="1" t="data" x="85"/>
-        <item m="1" sd="1" t="data" x="3"/>
-        <item m="1" sd="1" t="data" x="62"/>
-        <item m="1" sd="1" t="data" x="122"/>
-        <item m="1" sd="1" t="data" x="40"/>
-        <item m="1" sd="1" t="data" x="101"/>
-        <item m="1" sd="1" t="data" x="19"/>
-        <item m="1" sd="1" t="data" x="77"/>
-        <item m="1" sd="1" t="data" x="137"/>
-        <item m="1" sd="1" t="data" x="55"/>
-        <item m="1" sd="1" t="data" x="116"/>
-        <item m="1" sd="1" t="data" x="34"/>
-        <item m="1" sd="1" t="data" x="66"/>
-        <item m="1" sd="1" t="data" x="126"/>
-        <item m="1" sd="1" t="data" x="44"/>
-        <item m="1" sd="1" t="data" x="105"/>
-        <item m="1" sd="1" t="data" x="23"/>
-        <item m="1" sd="1" t="data" x="82"/>
-        <item m="1" sd="1" t="data" x="142"/>
-        <item m="1" sd="1" t="data" x="60"/>
-        <item m="1" sd="1" t="data" x="121"/>
-        <item m="1" sd="1" t="data" x="39"/>
-        <item m="1" sd="1" t="data" x="100"/>
-        <item m="1" sd="1" t="data" x="18"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i i="0" r="0" t="data"/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i i="0" r="0" t="data"/>
-    <i i="1" r="0" t="data">
-      <x v="1"/>
-    </i>
-    <i i="2" r="0" t="data">
-      <x v="2"/>
-    </i>
-    <i i="3" r="0" t="data">
-      <x v="3"/>
-    </i>
-    <i i="4" r="0" t="data">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField baseField="0" baseItem="0" fld="5" name="求和项:花费" showDataAs="normal" subtotal="sum"/>
-    <dataField baseField="0" baseItem="0" fld="7" name="求和项:点击" showDataAs="normal" subtotal="sum"/>
-    <dataField baseField="0" baseItem="1" fld="8" name="平均值项:点击均价" showDataAs="normal" subtotal="average"/>
-    <dataField baseField="0" baseItem="0" fld="6" name="求和项:曝光" showDataAs="normal" subtotal="sum"/>
-    <dataField baseField="0" baseItem="0" fld="9" name="求和项:商户浏览量" showDataAs="normal" subtotal="sum"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="3">
-      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal">
-        <references count="1">
-          <reference field="4294967294" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal">
-        <references count="1">
-          <reference field="4294967294">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="3" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表2" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
   <location colPageCount="1" firstDataCol="0" firstDataRow="1" firstHeaderRow="0" ref="A16:D17" rowPageCount="3"/>
   <pivotFields count="7">
@@ -10968,7 +10634,7 @@
     <dataField baseField="0" baseItem="3" fld="6" name="跳失率" showDataAs="normal" subtotal="average"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="31">
+    <format dxfId="52">
       <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal">
         <references count="1">
           <reference field="4294967294" selected="0">
@@ -10977,7 +10643,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="51">
       <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal">
         <references count="1">
           <reference field="4294967294" selected="0">
@@ -10986,13 +10652,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="50">
       <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="49">
       <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="48">
       <pivotArea dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal">
         <references count="1">
           <reference field="4294967294">
@@ -11001,7 +10667,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="47">
       <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal">
         <references count="1">
           <reference field="4294967294" selected="0">
@@ -11010,7 +10676,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="46">
       <pivotArea dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal">
         <references count="1">
           <reference field="4294967294">
@@ -11019,7 +10685,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="45">
       <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal">
         <references count="1">
           <reference field="4294967294" selected="0">
@@ -11028,7 +10694,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="44">
       <pivotArea dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal">
         <references count="1">
           <reference field="4294967294">
@@ -11036,65 +10702,6 @@
           </reference>
         </references>
       </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="0" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="6" dataCaption="值" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="数据透视表3" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="6" useAutoFormatting="1" visualTotals="1" r:id="rId1">
-  <location colPageCount="1" firstDataCol="0" firstDataRow="1" firstHeaderRow="1" ref="F6:F7" rowPageCount="2"/>
-  <pivotFields count="9">
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="3">
-        <item sd="1" t="data" x="0"/>
-        <item h="1" sd="1" t="data" x="1"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" multipleItemSelectionAllowed="1" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
-      <items count="8">
-        <item h="1" sd="1" t="data" x="6"/>
-        <item h="1" sd="1" t="data" x="1"/>
-        <item h="1" sd="1" t="data" x="2"/>
-        <item h="1" sd="1" t="data" x="3"/>
-        <item h="1" sd="1" t="data" x="4"/>
-        <item h="1" sd="1" t="data" x="0"/>
-        <item sd="1" t="data" x="5"/>
-        <item sd="1" t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i i="0" r="0" t="data"/>
-  </rowItems>
-  <colItems count="1">
-    <i i="0" r="0" t="data"/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField baseField="0" baseItem="0" fld="2" name="计数项:姓名" showDataAs="normal" subtotal="count"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="53">
-      <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="all"/>
-    </format>
-    <format dxfId="52">
-      <pivotArea collapsedLevelsAreSubtotals="1" dataOnly="1" fieldPosition="0" outline="0" type="normal"/>
-    </format>
-    <format dxfId="51">
-      <pivotArea axis="axisValues" dataOnly="0" fieldPosition="0" labelOnly="1" outline="0" type="normal"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
@@ -11830,7 +11437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0" zoomScale="119" zoomScaleNormal="120">
       <selection activeCell="G12" sqref="G12"/>
@@ -12916,6 +12523,75 @@
       </c>
       <c r="G46" t="n">
         <v>34.28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B47" t="n">
+        <v>9</v>
+      </c>
+      <c r="C47" s="218" t="n">
+        <v>43357</v>
+      </c>
+      <c r="D47" t="n">
+        <v>172</v>
+      </c>
+      <c r="E47" t="n">
+        <v>48</v>
+      </c>
+      <c r="F47" t="n">
+        <v>62.48</v>
+      </c>
+      <c r="G47" t="n">
+        <v>28.32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B48" t="n">
+        <v>9</v>
+      </c>
+      <c r="C48" s="218" t="n">
+        <v>43358</v>
+      </c>
+      <c r="D48" t="n">
+        <v>204</v>
+      </c>
+      <c r="E48" t="n">
+        <v>49</v>
+      </c>
+      <c r="F48" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="G48" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B49" t="n">
+        <v>9</v>
+      </c>
+      <c r="C49" s="218" t="n">
+        <v>43359</v>
+      </c>
+      <c r="D49" t="n">
+        <v>200</v>
+      </c>
+      <c r="E49" t="n">
+        <v>62</v>
+      </c>
+      <c r="F49" t="n">
+        <v>71.70999999999999</v>
+      </c>
+      <c r="G49" t="n">
+        <v>32.82</v>
       </c>
     </row>
   </sheetData>
@@ -13145,7 +12821,7 @@
         <v>208</v>
       </c>
       <c r="E9" s="138" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F9" s="129" t="s">
         <v>187</v>
@@ -13162,13 +12838,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="128" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D10" s="138" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E10" s="138" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F10" s="129" t="s">
         <v>187</v>
@@ -13185,13 +12861,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="128" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D11" s="138" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E11" s="138" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F11" s="129" t="s">
         <v>187</v>
@@ -13208,13 +12884,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="128" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D12" s="138" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E12" s="138" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F12" s="129" t="s">
         <v>187</v>
@@ -13231,13 +12907,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="128" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D13" s="138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E13" s="138" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F13" s="129" t="s">
         <v>187</v>
@@ -13254,16 +12930,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="128" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D14" s="138" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E14" s="138" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F14" s="129" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="G14" s="128" t="s">
         <v>188</v>
@@ -13277,16 +12953,16 @@
         <v>9</v>
       </c>
       <c r="C15" s="128" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D15" s="138" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E15" s="138" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F15" s="129" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="G15" s="128" t="s">
         <v>188</v>
@@ -13300,16 +12976,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="128" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D16" s="138" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E16" s="138" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F16" s="129" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G16" s="128" t="s">
         <v>188</v>
@@ -13323,16 +12999,16 @@
         <v>9</v>
       </c>
       <c r="C17" s="128" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D17" s="138" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E17" s="138" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F17" s="129" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="G17" s="128" t="s">
         <v>188</v>
@@ -13346,16 +13022,16 @@
         <v>9</v>
       </c>
       <c r="C18" s="128" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D18" s="138" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E18" s="138" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F18" s="129" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G18" s="128" t="s">
         <v>188</v>
@@ -13369,16 +13045,16 @@
         <v>9</v>
       </c>
       <c r="C19" s="128" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D19" s="138" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E19" s="138" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F19" s="129" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G19" s="128" t="s">
         <v>188</v>
@@ -13389,19 +13065,19 @@
         <v>2018</v>
       </c>
       <c r="B20" s="110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="128" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D20" s="138" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E20" s="138" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F20" s="129" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="G20" s="128" t="s">
         <v>188</v>
@@ -13412,19 +13088,19 @@
         <v>2018</v>
       </c>
       <c r="B21" s="110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="128" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D21" s="138" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E21" s="138" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F21" s="129" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="128" t="s">
         <v>188</v>
@@ -13435,19 +13111,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" s="128" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D22" s="138" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E22" s="138" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F22" s="129" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G22" s="128" t="s">
         <v>188</v>
@@ -13458,19 +13134,19 @@
         <v>2018</v>
       </c>
       <c r="B23" s="110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="128" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D23" s="138" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E23" s="138" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F23" s="129" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G23" s="128" t="s">
         <v>188</v>
@@ -13484,16 +13160,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="128" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D24" s="138" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E24" s="138" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F24" s="129" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G24" s="128" t="s">
         <v>188</v>
@@ -13507,16 +13183,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="128" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D25" s="138" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E25" s="138" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F25" s="129" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G25" s="128" t="s">
         <v>188</v>
@@ -13530,16 +13206,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="128" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D26" s="138" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E26" s="138" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F26" s="129" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G26" s="128" t="s">
         <v>188</v>
@@ -13553,16 +13229,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="128" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D27" s="138" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E27" s="138" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F27" s="129" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G27" s="128" t="s">
         <v>188</v>
@@ -13576,16 +13252,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D28" s="138" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E28" s="138" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F28" s="129" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G28" s="128" t="s">
         <v>188</v>
@@ -13599,16 +13275,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="128" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D29" s="138" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E29" s="138" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F29" s="129" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="G29" s="128" t="s">
         <v>188</v>
@@ -13622,16 +13298,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="128" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D30" s="138" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E30" s="138" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F30" s="129" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="G30" s="128" t="s">
         <v>188</v>
@@ -13645,16 +13321,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="128" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D31" s="138" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E31" s="138" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F31" s="129" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G31" s="128" t="s">
         <v>188</v>
@@ -13668,16 +13344,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="128" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D32" s="138" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E32" s="138" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F32" s="129" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="G32" s="128" t="s">
         <v>188</v>
@@ -13691,16 +13367,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="128" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D33" s="138" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E33" s="138" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F33" s="129" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="G33" s="128" t="s">
         <v>188</v>
@@ -13714,16 +13390,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="128" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D34" s="138" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E34" s="138" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F34" s="129" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="G34" s="128" t="s">
         <v>188</v>
@@ -13737,13 +13413,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="128" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D35" s="138" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E35" s="138" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F35" s="129" t="s">
         <v>53</v>
@@ -13760,16 +13436,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="128" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D36" s="138" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E36" s="138" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F36" s="129" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="G36" s="128" t="s">
         <v>188</v>
@@ -13783,16 +13459,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="128" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D37" s="138" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E37" s="138" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F37" s="129" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G37" s="128" t="s">
         <v>188</v>
@@ -13806,16 +13482,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="128" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D38" s="138" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E38" s="138" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F38" s="129" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="G38" s="128" t="s">
         <v>188</v>
@@ -13829,16 +13505,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="128" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D39" s="138" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E39" s="138" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F39" s="129" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G39" s="128" t="s">
         <v>188</v>
@@ -13852,16 +13528,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="128" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D40" s="138" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E40" s="138" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F40" s="129" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G40" s="128" t="s">
         <v>188</v>
@@ -13875,16 +13551,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="128" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D41" s="138" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E41" s="138" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F41" s="129" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G41" s="128" t="s">
         <v>188</v>
@@ -13898,16 +13574,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="128" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D42" s="138" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E42" s="138" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F42" s="129" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G42" s="128" t="s">
         <v>188</v>
@@ -13921,16 +13597,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="128" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D43" s="138" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E43" s="138" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F43" s="129" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G43" s="128" t="s">
         <v>188</v>
@@ -13944,16 +13620,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="128" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D44" s="138" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E44" s="138" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F44" s="129" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="G44" s="128" t="s">
         <v>188</v>
@@ -13967,16 +13643,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="128" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D45" s="138" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E45" s="138" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F45" s="129" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G45" s="128" t="s">
         <v>188</v>
@@ -13990,16 +13666,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="128" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D46" s="138" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E46" s="138" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F46" s="129" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="G46" s="128" t="s">
         <v>188</v>
@@ -14013,16 +13689,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="128" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D47" s="138" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E47" s="138" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F47" s="129" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G47" s="128" t="s">
         <v>188</v>
@@ -14036,16 +13712,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="128" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D48" s="138" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E48" s="138" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F48" s="129" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="G48" s="128" t="s">
         <v>188</v>
@@ -14059,16 +13735,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="128" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D49" s="138" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E49" s="138" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F49" s="129" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G49" s="128" t="s">
         <v>188</v>
@@ -14082,13 +13758,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="128" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D50" s="138" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E50" s="138" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F50" s="129" t="s">
         <v>58</v>
@@ -14105,16 +13781,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="128" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D51" s="138" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E51" s="138" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F51" s="129" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G51" s="128" t="s">
         <v>188</v>
@@ -14128,16 +13804,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="128" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D52" s="138" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E52" s="138" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F52" s="129" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G52" s="128" t="s">
         <v>188</v>
@@ -14151,16 +13827,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="128" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D53" s="138" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E53" s="138" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F53" s="129" t="s">
-        <v>341</v>
+        <v>51</v>
       </c>
       <c r="G53" s="128" t="s">
         <v>188</v>
@@ -14183,7 +13859,7 @@
         <v>344</v>
       </c>
       <c r="F54" s="129" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="G54" s="128" t="s">
         <v>188</v>
@@ -14206,7 +13882,7 @@
         <v>347</v>
       </c>
       <c r="F55" s="129" t="s">
-        <v>341</v>
+        <v>51</v>
       </c>
       <c r="G55" s="128" t="s">
         <v>188</v>
@@ -14229,7 +13905,7 @@
         <v>350</v>
       </c>
       <c r="F56" s="129" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="G56" s="128" t="s">
         <v>188</v>
@@ -14252,7 +13928,7 @@
         <v>353</v>
       </c>
       <c r="F57" s="129" t="s">
-        <v>53</v>
+        <v>354</v>
       </c>
       <c r="G57" s="128" t="s">
         <v>188</v>
@@ -14266,16 +13942,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="128" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D58" s="138" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E58" s="138" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F58" s="129" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="G58" s="128" t="s">
         <v>188</v>
@@ -14289,16 +13965,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="128" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D59" s="138" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E59" s="138" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F59" s="129" t="s">
-        <v>163</v>
+        <v>354</v>
       </c>
       <c r="G59" s="128" t="s">
         <v>188</v>
@@ -14312,16 +13988,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="128" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D60" s="138" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E60" s="138" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F60" s="129" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="G60" s="128" t="s">
         <v>188</v>
@@ -14332,19 +14008,19 @@
         <v>2018</v>
       </c>
       <c r="B61" s="110" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" s="128" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D61" s="138" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E61" s="138" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F61" s="129" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G61" s="128" t="s">
         <v>188</v>
@@ -14355,19 +14031,19 @@
         <v>2018</v>
       </c>
       <c r="B62" s="110" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" s="128" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D62" s="138" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E62" s="138" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F62" s="129" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="G62" s="128" t="s">
         <v>188</v>
@@ -14378,16 +14054,16 @@
         <v>2018</v>
       </c>
       <c r="B63" s="110" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" s="128" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D63" s="138" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E63" s="138" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F63" s="129" t="s">
         <v>163</v>
@@ -14401,1196 +14077,482 @@
         <v>2018</v>
       </c>
       <c r="B64" s="110" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" s="128" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D64" s="138" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E64" s="138" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F64" s="129" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G64" s="128" t="s">
         <v>188</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="65" s="188" spans="1:7">
-      <c r="A65" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B65" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C65" s="128" t="s">
-        <v>375</v>
-      </c>
-      <c r="D65" s="138" t="s">
-        <v>376</v>
-      </c>
-      <c r="E65" s="138" t="s">
-        <v>377</v>
-      </c>
-      <c r="F65" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="G65" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A65" s="110" t="n"/>
+      <c r="B65" s="110" t="n"/>
+      <c r="C65" s="128" t="n"/>
+      <c r="D65" s="138" t="n"/>
+      <c r="E65" s="138" t="n"/>
+      <c r="F65" s="129" t="n"/>
+      <c r="G65" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="66" s="188" spans="1:7">
-      <c r="A66" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B66" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C66" s="128" t="s">
-        <v>378</v>
-      </c>
-      <c r="D66" s="138" t="s">
-        <v>379</v>
-      </c>
-      <c r="E66" s="138" t="s">
-        <v>380</v>
-      </c>
-      <c r="F66" s="129" t="s">
-        <v>163</v>
-      </c>
-      <c r="G66" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A66" s="110" t="n"/>
+      <c r="B66" s="110" t="n"/>
+      <c r="C66" s="128" t="n"/>
+      <c r="D66" s="138" t="n"/>
+      <c r="E66" s="138" t="n"/>
+      <c r="F66" s="129" t="n"/>
+      <c r="G66" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="67" s="188" spans="1:7">
-      <c r="A67" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B67" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C67" s="128" t="s">
-        <v>381</v>
-      </c>
-      <c r="D67" s="138" t="s">
-        <v>382</v>
-      </c>
-      <c r="E67" s="138" t="s">
-        <v>383</v>
-      </c>
-      <c r="F67" s="129" t="s">
-        <v>49</v>
-      </c>
-      <c r="G67" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A67" s="110" t="n"/>
+      <c r="B67" s="110" t="n"/>
+      <c r="C67" s="128" t="n"/>
+      <c r="D67" s="138" t="n"/>
+      <c r="E67" s="138" t="n"/>
+      <c r="F67" s="129" t="n"/>
+      <c r="G67" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="68" s="188" spans="1:7">
-      <c r="A68" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B68" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C68" s="128" t="s">
-        <v>384</v>
-      </c>
-      <c r="D68" s="138" t="s">
-        <v>385</v>
-      </c>
-      <c r="E68" s="138" t="s">
-        <v>386</v>
-      </c>
-      <c r="F68" s="129" t="s">
-        <v>42</v>
-      </c>
-      <c r="G68" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A68" s="110" t="n"/>
+      <c r="B68" s="110" t="n"/>
+      <c r="C68" s="128" t="n"/>
+      <c r="D68" s="138" t="n"/>
+      <c r="E68" s="138" t="n"/>
+      <c r="F68" s="129" t="n"/>
+      <c r="G68" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="69" s="188" spans="1:7">
-      <c r="A69" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B69" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C69" s="128" t="s">
-        <v>387</v>
-      </c>
-      <c r="D69" s="138" t="s">
-        <v>388</v>
-      </c>
-      <c r="E69" s="138" t="s">
-        <v>389</v>
-      </c>
-      <c r="F69" s="129" t="s">
-        <v>42</v>
-      </c>
-      <c r="G69" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A69" s="110" t="n"/>
+      <c r="B69" s="110" t="n"/>
+      <c r="C69" s="128" t="n"/>
+      <c r="D69" s="138" t="n"/>
+      <c r="E69" s="138" t="n"/>
+      <c r="F69" s="129" t="n"/>
+      <c r="G69" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="70" s="188" spans="1:7">
-      <c r="A70" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B70" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C70" s="128" t="s">
-        <v>390</v>
-      </c>
-      <c r="D70" s="138" t="s">
-        <v>391</v>
-      </c>
-      <c r="E70" s="138" t="s">
-        <v>392</v>
-      </c>
-      <c r="F70" s="129" t="s">
-        <v>42</v>
-      </c>
-      <c r="G70" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A70" s="110" t="n"/>
+      <c r="B70" s="110" t="n"/>
+      <c r="C70" s="128" t="n"/>
+      <c r="D70" s="138" t="n"/>
+      <c r="E70" s="138" t="n"/>
+      <c r="F70" s="129" t="n"/>
+      <c r="G70" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="71" s="188" spans="1:7">
-      <c r="A71" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B71" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C71" s="128" t="s">
-        <v>393</v>
-      </c>
-      <c r="D71" s="138" t="s">
-        <v>394</v>
-      </c>
-      <c r="E71" s="138" t="s">
-        <v>395</v>
-      </c>
-      <c r="F71" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="G71" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A71" s="110" t="n"/>
+      <c r="B71" s="110" t="n"/>
+      <c r="C71" s="128" t="n"/>
+      <c r="D71" s="138" t="n"/>
+      <c r="E71" s="138" t="n"/>
+      <c r="F71" s="129" t="n"/>
+      <c r="G71" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="72" s="188" spans="1:7">
-      <c r="A72" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B72" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C72" s="128" t="s">
-        <v>396</v>
-      </c>
-      <c r="D72" s="138" t="s">
-        <v>397</v>
-      </c>
-      <c r="E72" s="138" t="s">
-        <v>398</v>
-      </c>
-      <c r="F72" s="129" t="s">
-        <v>47</v>
-      </c>
-      <c r="G72" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A72" s="110" t="n"/>
+      <c r="B72" s="110" t="n"/>
+      <c r="C72" s="128" t="n"/>
+      <c r="D72" s="138" t="n"/>
+      <c r="E72" s="138" t="n"/>
+      <c r="F72" s="129" t="n"/>
+      <c r="G72" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="73" s="188" spans="1:7">
-      <c r="A73" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B73" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C73" s="128" t="s">
-        <v>399</v>
-      </c>
-      <c r="D73" s="138" t="s">
-        <v>400</v>
-      </c>
-      <c r="E73" s="138" t="s">
-        <v>401</v>
-      </c>
-      <c r="F73" s="129" t="s">
-        <v>51</v>
-      </c>
-      <c r="G73" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A73" s="110" t="n"/>
+      <c r="B73" s="110" t="n"/>
+      <c r="C73" s="128" t="n"/>
+      <c r="D73" s="138" t="n"/>
+      <c r="E73" s="138" t="n"/>
+      <c r="F73" s="129" t="n"/>
+      <c r="G73" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="74" s="188" spans="1:7">
-      <c r="A74" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B74" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C74" s="128" t="s">
-        <v>402</v>
-      </c>
-      <c r="D74" s="138" t="s">
-        <v>403</v>
-      </c>
-      <c r="E74" s="138" t="s">
-        <v>404</v>
-      </c>
-      <c r="F74" s="129" t="s">
-        <v>42</v>
-      </c>
-      <c r="G74" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A74" s="110" t="n"/>
+      <c r="B74" s="110" t="n"/>
+      <c r="C74" s="128" t="n"/>
+      <c r="D74" s="138" t="n"/>
+      <c r="E74" s="138" t="n"/>
+      <c r="F74" s="129" t="n"/>
+      <c r="G74" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="75" s="188" spans="1:7">
-      <c r="A75" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B75" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C75" s="128" t="s">
-        <v>405</v>
-      </c>
-      <c r="D75" s="138" t="s">
-        <v>406</v>
-      </c>
-      <c r="E75" s="138" t="s">
-        <v>407</v>
-      </c>
-      <c r="F75" s="129" t="s">
-        <v>55</v>
-      </c>
-      <c r="G75" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A75" s="110" t="n"/>
+      <c r="B75" s="110" t="n"/>
+      <c r="C75" s="128" t="n"/>
+      <c r="D75" s="138" t="n"/>
+      <c r="E75" s="138" t="n"/>
+      <c r="F75" s="129" t="n"/>
+      <c r="G75" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="76" s="188" spans="1:7">
-      <c r="A76" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B76" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C76" s="128" t="s">
-        <v>408</v>
-      </c>
-      <c r="D76" s="138" t="s">
-        <v>409</v>
-      </c>
-      <c r="E76" s="138" t="s">
-        <v>410</v>
-      </c>
-      <c r="F76" s="129" t="s">
-        <v>411</v>
-      </c>
-      <c r="G76" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A76" s="110" t="n"/>
+      <c r="B76" s="110" t="n"/>
+      <c r="C76" s="128" t="n"/>
+      <c r="D76" s="138" t="n"/>
+      <c r="E76" s="138" t="n"/>
+      <c r="F76" s="129" t="n"/>
+      <c r="G76" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="77" s="188" spans="1:7">
-      <c r="A77" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B77" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C77" s="128" t="s">
-        <v>412</v>
-      </c>
-      <c r="D77" s="138" t="s">
-        <v>413</v>
-      </c>
-      <c r="E77" s="138" t="s">
-        <v>414</v>
-      </c>
-      <c r="F77" s="129" t="s">
-        <v>57</v>
-      </c>
-      <c r="G77" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A77" s="110" t="n"/>
+      <c r="B77" s="110" t="n"/>
+      <c r="C77" s="128" t="n"/>
+      <c r="D77" s="138" t="n"/>
+      <c r="E77" s="138" t="n"/>
+      <c r="F77" s="129" t="n"/>
+      <c r="G77" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="78" s="188" spans="1:7">
-      <c r="A78" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B78" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C78" s="128" t="s">
-        <v>415</v>
-      </c>
-      <c r="D78" s="138" t="s">
-        <v>416</v>
-      </c>
-      <c r="E78" s="138" t="s">
-        <v>417</v>
-      </c>
-      <c r="F78" s="129" t="s">
-        <v>163</v>
-      </c>
-      <c r="G78" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A78" s="110" t="n"/>
+      <c r="B78" s="110" t="n"/>
+      <c r="C78" s="128" t="n"/>
+      <c r="D78" s="138" t="n"/>
+      <c r="E78" s="138" t="n"/>
+      <c r="F78" s="129" t="n"/>
+      <c r="G78" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="79" s="188" spans="1:7">
-      <c r="A79" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B79" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C79" s="128" t="s">
-        <v>418</v>
-      </c>
-      <c r="D79" s="138" t="s">
-        <v>419</v>
-      </c>
-      <c r="E79" s="138" t="s">
-        <v>420</v>
-      </c>
-      <c r="F79" s="129" t="s">
-        <v>53</v>
-      </c>
-      <c r="G79" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A79" s="110" t="n"/>
+      <c r="B79" s="110" t="n"/>
+      <c r="C79" s="128" t="n"/>
+      <c r="D79" s="138" t="n"/>
+      <c r="E79" s="138" t="n"/>
+      <c r="F79" s="129" t="n"/>
+      <c r="G79" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="80" s="188" spans="1:7">
-      <c r="A80" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B80" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C80" s="128" t="s">
-        <v>421</v>
-      </c>
-      <c r="D80" s="138" t="s">
-        <v>422</v>
-      </c>
-      <c r="E80" s="138" t="s">
-        <v>423</v>
-      </c>
-      <c r="F80" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="G80" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A80" s="110" t="n"/>
+      <c r="B80" s="110" t="n"/>
+      <c r="C80" s="128" t="n"/>
+      <c r="D80" s="138" t="n"/>
+      <c r="E80" s="138" t="n"/>
+      <c r="F80" s="129" t="n"/>
+      <c r="G80" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="81" s="188" spans="1:7">
-      <c r="A81" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B81" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C81" s="128" t="s">
-        <v>424</v>
-      </c>
-      <c r="D81" s="138" t="s">
-        <v>425</v>
-      </c>
-      <c r="E81" s="138" t="s">
-        <v>426</v>
-      </c>
-      <c r="F81" s="129" t="s">
-        <v>341</v>
-      </c>
-      <c r="G81" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A81" s="110" t="n"/>
+      <c r="B81" s="110" t="n"/>
+      <c r="C81" s="128" t="n"/>
+      <c r="D81" s="138" t="n"/>
+      <c r="E81" s="138" t="n"/>
+      <c r="F81" s="129" t="n"/>
+      <c r="G81" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="82" s="188" spans="1:7">
-      <c r="A82" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B82" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C82" s="128" t="s">
-        <v>427</v>
-      </c>
-      <c r="D82" s="138" t="s">
-        <v>428</v>
-      </c>
-      <c r="E82" s="138" t="s">
-        <v>429</v>
-      </c>
-      <c r="F82" s="129" t="s">
-        <v>430</v>
-      </c>
-      <c r="G82" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A82" s="110" t="n"/>
+      <c r="B82" s="110" t="n"/>
+      <c r="C82" s="128" t="n"/>
+      <c r="D82" s="138" t="n"/>
+      <c r="E82" s="138" t="n"/>
+      <c r="F82" s="129" t="n"/>
+      <c r="G82" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="83" s="188" spans="1:7">
-      <c r="A83" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B83" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C83" s="128" t="s">
-        <v>431</v>
-      </c>
-      <c r="D83" s="138" t="s">
-        <v>432</v>
-      </c>
-      <c r="E83" s="138" t="s">
-        <v>433</v>
-      </c>
-      <c r="F83" s="129" t="s">
-        <v>411</v>
-      </c>
-      <c r="G83" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A83" s="110" t="n"/>
+      <c r="B83" s="110" t="n"/>
+      <c r="C83" s="128" t="n"/>
+      <c r="D83" s="138" t="n"/>
+      <c r="E83" s="138" t="n"/>
+      <c r="F83" s="129" t="n"/>
+      <c r="G83" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="84" s="188" spans="1:7">
-      <c r="A84" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B84" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C84" s="128" t="s">
-        <v>434</v>
-      </c>
-      <c r="D84" s="138" t="s">
-        <v>435</v>
-      </c>
-      <c r="E84" s="138" t="s">
-        <v>436</v>
-      </c>
-      <c r="F84" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="G84" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A84" s="110" t="n"/>
+      <c r="B84" s="110" t="n"/>
+      <c r="C84" s="128" t="n"/>
+      <c r="D84" s="138" t="n"/>
+      <c r="E84" s="138" t="n"/>
+      <c r="F84" s="129" t="n"/>
+      <c r="G84" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="85" s="188" spans="1:7">
-      <c r="A85" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B85" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C85" s="128" t="s">
-        <v>437</v>
-      </c>
-      <c r="D85" s="138" t="s">
-        <v>438</v>
-      </c>
-      <c r="E85" s="138" t="s">
-        <v>439</v>
-      </c>
-      <c r="F85" s="129" t="s">
-        <v>53</v>
-      </c>
-      <c r="G85" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A85" s="110" t="n"/>
+      <c r="B85" s="110" t="n"/>
+      <c r="C85" s="128" t="n"/>
+      <c r="D85" s="138" t="n"/>
+      <c r="E85" s="138" t="n"/>
+      <c r="F85" s="129" t="n"/>
+      <c r="G85" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="86" s="188" spans="1:7">
-      <c r="A86" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B86" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C86" s="128" t="s">
-        <v>440</v>
-      </c>
-      <c r="D86" s="138" t="s">
-        <v>441</v>
-      </c>
-      <c r="E86" s="138" t="s">
-        <v>442</v>
-      </c>
-      <c r="F86" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="G86" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A86" s="110" t="n"/>
+      <c r="B86" s="110" t="n"/>
+      <c r="C86" s="128" t="n"/>
+      <c r="D86" s="138" t="n"/>
+      <c r="E86" s="138" t="n"/>
+      <c r="F86" s="129" t="n"/>
+      <c r="G86" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="87" s="188" spans="1:7">
-      <c r="A87" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B87" s="110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C87" s="128" t="s">
-        <v>443</v>
-      </c>
-      <c r="D87" s="138" t="s">
-        <v>444</v>
-      </c>
-      <c r="E87" s="138" t="s">
-        <v>444</v>
-      </c>
-      <c r="F87" s="129" t="s">
-        <v>163</v>
-      </c>
-      <c r="G87" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A87" s="110" t="n"/>
+      <c r="B87" s="110" t="n"/>
+      <c r="C87" s="128" t="n"/>
+      <c r="D87" s="138" t="n"/>
+      <c r="E87" s="138" t="n"/>
+      <c r="F87" s="129" t="n"/>
+      <c r="G87" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="88" s="188" spans="1:7">
-      <c r="A88" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B88" s="110" t="n">
-        <v>6</v>
-      </c>
-      <c r="C88" s="128" t="s">
-        <v>445</v>
-      </c>
-      <c r="D88" s="138" t="s">
-        <v>446</v>
-      </c>
-      <c r="E88" s="138" t="s">
-        <v>447</v>
-      </c>
-      <c r="F88" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="G88" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A88" s="110" t="n"/>
+      <c r="B88" s="110" t="n"/>
+      <c r="C88" s="128" t="n"/>
+      <c r="D88" s="138" t="n"/>
+      <c r="E88" s="138" t="n"/>
+      <c r="F88" s="129" t="n"/>
+      <c r="G88" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="89" s="188" spans="1:7">
-      <c r="A89" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B89" s="110" t="n">
-        <v>6</v>
-      </c>
-      <c r="C89" s="128" t="s">
-        <v>448</v>
-      </c>
-      <c r="D89" s="138" t="s">
-        <v>449</v>
-      </c>
-      <c r="E89" s="138" t="s">
-        <v>450</v>
-      </c>
-      <c r="F89" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="G89" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A89" s="110" t="n"/>
+      <c r="B89" s="110" t="n"/>
+      <c r="C89" s="128" t="n"/>
+      <c r="D89" s="138" t="n"/>
+      <c r="E89" s="138" t="n"/>
+      <c r="F89" s="129" t="n"/>
+      <c r="G89" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="90" s="188" spans="1:7">
-      <c r="A90" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B90" s="110" t="n">
-        <v>6</v>
-      </c>
-      <c r="C90" s="128" t="s">
-        <v>451</v>
-      </c>
-      <c r="D90" s="138" t="s">
-        <v>452</v>
-      </c>
-      <c r="E90" s="138" t="s">
-        <v>453</v>
-      </c>
-      <c r="F90" s="129" t="s">
-        <v>47</v>
-      </c>
-      <c r="G90" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A90" s="110" t="n"/>
+      <c r="B90" s="110" t="n"/>
+      <c r="C90" s="128" t="n"/>
+      <c r="D90" s="138" t="n"/>
+      <c r="E90" s="138" t="n"/>
+      <c r="F90" s="129" t="n"/>
+      <c r="G90" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="91" s="188" spans="1:7">
-      <c r="A91" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B91" s="110" t="n">
-        <v>6</v>
-      </c>
-      <c r="C91" s="128" t="s">
-        <v>454</v>
-      </c>
-      <c r="D91" s="138" t="s">
-        <v>455</v>
-      </c>
-      <c r="E91" s="138" t="s">
-        <v>456</v>
-      </c>
-      <c r="F91" s="129" t="s">
-        <v>53</v>
-      </c>
-      <c r="G91" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A91" s="110" t="n"/>
+      <c r="B91" s="110" t="n"/>
+      <c r="C91" s="128" t="n"/>
+      <c r="D91" s="138" t="n"/>
+      <c r="E91" s="138" t="n"/>
+      <c r="F91" s="129" t="n"/>
+      <c r="G91" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="92" s="188" spans="1:7">
-      <c r="A92" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B92" s="110" t="n">
-        <v>6</v>
-      </c>
-      <c r="C92" s="128" t="s">
-        <v>457</v>
-      </c>
-      <c r="D92" s="138" t="s">
-        <v>458</v>
-      </c>
-      <c r="E92" s="138" t="s">
-        <v>459</v>
-      </c>
-      <c r="F92" s="129" t="s">
-        <v>341</v>
-      </c>
-      <c r="G92" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A92" s="110" t="n"/>
+      <c r="B92" s="110" t="n"/>
+      <c r="C92" s="128" t="n"/>
+      <c r="D92" s="138" t="n"/>
+      <c r="E92" s="138" t="n"/>
+      <c r="F92" s="129" t="n"/>
+      <c r="G92" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="93" s="188" spans="1:7">
-      <c r="A93" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B93" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C93" s="128" t="s">
-        <v>460</v>
-      </c>
-      <c r="D93" s="138" t="s">
-        <v>461</v>
-      </c>
-      <c r="E93" s="138" t="s">
-        <v>462</v>
-      </c>
-      <c r="F93" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="G93" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A93" s="110" t="n"/>
+      <c r="B93" s="110" t="n"/>
+      <c r="C93" s="128" t="n"/>
+      <c r="D93" s="138" t="n"/>
+      <c r="E93" s="138" t="n"/>
+      <c r="F93" s="129" t="n"/>
+      <c r="G93" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="94" s="188" spans="1:7">
-      <c r="A94" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B94" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C94" s="128" t="s">
-        <v>463</v>
-      </c>
-      <c r="D94" s="138" t="s">
-        <v>464</v>
-      </c>
-      <c r="E94" s="138" t="s">
-        <v>465</v>
-      </c>
-      <c r="F94" s="129" t="s">
-        <v>42</v>
-      </c>
-      <c r="G94" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A94" s="110" t="n"/>
+      <c r="B94" s="110" t="n"/>
+      <c r="C94" s="128" t="n"/>
+      <c r="D94" s="138" t="n"/>
+      <c r="E94" s="138" t="n"/>
+      <c r="F94" s="129" t="n"/>
+      <c r="G94" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="95" s="188" spans="1:7">
-      <c r="A95" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B95" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C95" s="128" t="s">
-        <v>466</v>
-      </c>
-      <c r="D95" s="138" t="s">
-        <v>467</v>
-      </c>
-      <c r="E95" s="138" t="s">
-        <v>467</v>
-      </c>
-      <c r="F95" s="129" t="s">
-        <v>341</v>
-      </c>
-      <c r="G95" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A95" s="110" t="n"/>
+      <c r="B95" s="110" t="n"/>
+      <c r="C95" s="128" t="n"/>
+      <c r="D95" s="138" t="n"/>
+      <c r="E95" s="138" t="n"/>
+      <c r="F95" s="129" t="n"/>
+      <c r="G95" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="96" s="188" spans="1:7">
-      <c r="A96" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B96" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C96" s="128" t="s">
-        <v>468</v>
-      </c>
-      <c r="D96" s="138" t="s">
-        <v>469</v>
-      </c>
-      <c r="E96" s="138" t="s">
-        <v>470</v>
-      </c>
-      <c r="F96" s="129" t="s">
-        <v>47</v>
-      </c>
-      <c r="G96" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A96" s="110" t="n"/>
+      <c r="B96" s="110" t="n"/>
+      <c r="C96" s="128" t="n"/>
+      <c r="D96" s="138" t="n"/>
+      <c r="E96" s="138" t="n"/>
+      <c r="F96" s="129" t="n"/>
+      <c r="G96" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="97" s="188" spans="1:7">
-      <c r="A97" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B97" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C97" s="128" t="s">
-        <v>471</v>
-      </c>
-      <c r="D97" s="138" t="s">
-        <v>472</v>
-      </c>
-      <c r="E97" s="138" t="s">
-        <v>473</v>
-      </c>
-      <c r="F97" s="129" t="s">
-        <v>51</v>
-      </c>
-      <c r="G97" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A97" s="110" t="n"/>
+      <c r="B97" s="110" t="n"/>
+      <c r="C97" s="128" t="n"/>
+      <c r="D97" s="138" t="n"/>
+      <c r="E97" s="138" t="n"/>
+      <c r="F97" s="129" t="n"/>
+      <c r="G97" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="98" s="188" spans="1:7">
-      <c r="A98" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B98" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C98" s="128" t="s">
-        <v>474</v>
-      </c>
-      <c r="D98" s="138" t="s">
-        <v>475</v>
-      </c>
-      <c r="E98" s="138" t="s">
-        <v>476</v>
-      </c>
-      <c r="F98" s="129" t="s">
-        <v>411</v>
-      </c>
-      <c r="G98" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A98" s="110" t="n"/>
+      <c r="B98" s="110" t="n"/>
+      <c r="C98" s="128" t="n"/>
+      <c r="D98" s="138" t="n"/>
+      <c r="E98" s="138" t="n"/>
+      <c r="F98" s="129" t="n"/>
+      <c r="G98" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="99" s="188" spans="1:7">
-      <c r="A99" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B99" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C99" s="128" t="s">
-        <v>477</v>
-      </c>
-      <c r="D99" s="138" t="s">
-        <v>478</v>
-      </c>
-      <c r="E99" s="138" t="s">
-        <v>479</v>
-      </c>
-      <c r="F99" s="129" t="s">
-        <v>51</v>
-      </c>
-      <c r="G99" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A99" s="110" t="n"/>
+      <c r="B99" s="110" t="n"/>
+      <c r="C99" s="128" t="n"/>
+      <c r="D99" s="138" t="n"/>
+      <c r="E99" s="138" t="n"/>
+      <c r="F99" s="129" t="n"/>
+      <c r="G99" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="100" s="188" spans="1:7">
-      <c r="A100" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B100" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C100" s="128" t="s">
-        <v>480</v>
-      </c>
-      <c r="D100" s="138" t="s">
-        <v>481</v>
-      </c>
-      <c r="E100" s="138" t="s">
-        <v>482</v>
-      </c>
-      <c r="F100" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="G100" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A100" s="110" t="n"/>
+      <c r="B100" s="110" t="n"/>
+      <c r="C100" s="128" t="n"/>
+      <c r="D100" s="138" t="n"/>
+      <c r="E100" s="138" t="n"/>
+      <c r="F100" s="129" t="n"/>
+      <c r="G100" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="101" s="188" spans="1:7">
-      <c r="A101" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B101" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C101" s="128" t="s">
-        <v>483</v>
-      </c>
-      <c r="D101" s="138" t="s">
-        <v>484</v>
-      </c>
-      <c r="E101" s="138" t="s">
-        <v>485</v>
-      </c>
-      <c r="F101" s="129" t="s">
-        <v>53</v>
-      </c>
-      <c r="G101" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A101" s="110" t="n"/>
+      <c r="B101" s="110" t="n"/>
+      <c r="C101" s="128" t="n"/>
+      <c r="D101" s="138" t="n"/>
+      <c r="E101" s="138" t="n"/>
+      <c r="F101" s="129" t="n"/>
+      <c r="G101" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="102" s="188" spans="1:7">
-      <c r="A102" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B102" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C102" s="128" t="s">
-        <v>486</v>
-      </c>
-      <c r="D102" s="138" t="s">
-        <v>487</v>
-      </c>
-      <c r="E102" s="138" t="s">
-        <v>488</v>
-      </c>
-      <c r="F102" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="G102" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A102" s="110" t="n"/>
+      <c r="B102" s="110" t="n"/>
+      <c r="C102" s="128" t="n"/>
+      <c r="D102" s="138" t="n"/>
+      <c r="E102" s="138" t="n"/>
+      <c r="F102" s="129" t="n"/>
+      <c r="G102" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="103" s="188" spans="1:7">
-      <c r="A103" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B103" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C103" s="128" t="s">
-        <v>489</v>
-      </c>
-      <c r="D103" s="138" t="s">
-        <v>490</v>
-      </c>
-      <c r="E103" s="138" t="s">
-        <v>491</v>
-      </c>
-      <c r="F103" s="129" t="s">
-        <v>168</v>
-      </c>
-      <c r="G103" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A103" s="110" t="n"/>
+      <c r="B103" s="110" t="n"/>
+      <c r="C103" s="128" t="n"/>
+      <c r="D103" s="138" t="n"/>
+      <c r="E103" s="138" t="n"/>
+      <c r="F103" s="129" t="n"/>
+      <c r="G103" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="104" s="188" spans="1:7">
-      <c r="A104" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B104" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C104" s="128" t="s">
-        <v>492</v>
-      </c>
-      <c r="D104" s="138" t="s">
-        <v>493</v>
-      </c>
-      <c r="E104" s="138" t="s">
-        <v>493</v>
-      </c>
-      <c r="F104" s="129" t="s">
-        <v>341</v>
-      </c>
-      <c r="G104" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A104" s="110" t="n"/>
+      <c r="B104" s="110" t="n"/>
+      <c r="C104" s="128" t="n"/>
+      <c r="D104" s="138" t="n"/>
+      <c r="E104" s="138" t="n"/>
+      <c r="F104" s="129" t="n"/>
+      <c r="G104" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="105" s="188" spans="1:7">
-      <c r="A105" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B105" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C105" s="128" t="s">
-        <v>494</v>
-      </c>
-      <c r="D105" s="138" t="s">
-        <v>495</v>
-      </c>
-      <c r="E105" s="138" t="s">
-        <v>496</v>
-      </c>
-      <c r="F105" s="129" t="s">
-        <v>53</v>
-      </c>
-      <c r="G105" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A105" s="110" t="n"/>
+      <c r="B105" s="110" t="n"/>
+      <c r="C105" s="128" t="n"/>
+      <c r="D105" s="138" t="n"/>
+      <c r="E105" s="138" t="n"/>
+      <c r="F105" s="129" t="n"/>
+      <c r="G105" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="106" s="188" spans="1:7">
-      <c r="A106" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B106" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C106" s="128" t="s">
-        <v>497</v>
-      </c>
-      <c r="D106" s="138" t="s">
-        <v>498</v>
-      </c>
-      <c r="E106" s="138" t="s">
-        <v>499</v>
-      </c>
-      <c r="F106" s="129" t="s">
-        <v>341</v>
-      </c>
-      <c r="G106" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A106" s="110" t="n"/>
+      <c r="B106" s="110" t="n"/>
+      <c r="C106" s="128" t="n"/>
+      <c r="D106" s="138" t="n"/>
+      <c r="E106" s="138" t="n"/>
+      <c r="F106" s="129" t="n"/>
+      <c r="G106" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="107" s="188" spans="1:7">
-      <c r="A107" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B107" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C107" s="128" t="s">
-        <v>500</v>
-      </c>
-      <c r="D107" s="138" t="s">
-        <v>501</v>
-      </c>
-      <c r="E107" s="138" t="s">
-        <v>502</v>
-      </c>
-      <c r="F107" s="129" t="s">
-        <v>51</v>
-      </c>
-      <c r="G107" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A107" s="110" t="n"/>
+      <c r="B107" s="110" t="n"/>
+      <c r="C107" s="128" t="n"/>
+      <c r="D107" s="138" t="n"/>
+      <c r="E107" s="138" t="n"/>
+      <c r="F107" s="129" t="n"/>
+      <c r="G107" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="108" s="188" spans="1:7">
-      <c r="A108" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B108" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C108" s="128" t="s">
-        <v>503</v>
-      </c>
-      <c r="D108" s="138" t="s">
-        <v>504</v>
-      </c>
-      <c r="E108" s="138" t="s">
-        <v>505</v>
-      </c>
-      <c r="F108" s="129" t="s">
-        <v>341</v>
-      </c>
-      <c r="G108" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A108" s="110" t="n"/>
+      <c r="B108" s="110" t="n"/>
+      <c r="C108" s="128" t="n"/>
+      <c r="D108" s="138" t="n"/>
+      <c r="E108" s="138" t="n"/>
+      <c r="F108" s="129" t="n"/>
+      <c r="G108" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="109" s="188" spans="1:7">
-      <c r="A109" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B109" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C109" s="128" t="s">
-        <v>506</v>
-      </c>
-      <c r="D109" s="138" t="s">
-        <v>507</v>
-      </c>
-      <c r="E109" s="138" t="s">
-        <v>508</v>
-      </c>
-      <c r="F109" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="G109" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A109" s="110" t="n"/>
+      <c r="B109" s="110" t="n"/>
+      <c r="C109" s="128" t="n"/>
+      <c r="D109" s="138" t="n"/>
+      <c r="E109" s="138" t="n"/>
+      <c r="F109" s="129" t="n"/>
+      <c r="G109" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="110" s="188" spans="1:7">
-      <c r="A110" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B110" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C110" s="128" t="s">
-        <v>509</v>
-      </c>
-      <c r="D110" s="138" t="s">
-        <v>510</v>
-      </c>
-      <c r="E110" s="138" t="s">
-        <v>511</v>
-      </c>
-      <c r="F110" s="129" t="s">
-        <v>47</v>
-      </c>
-      <c r="G110" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A110" s="110" t="n"/>
+      <c r="B110" s="110" t="n"/>
+      <c r="C110" s="128" t="n"/>
+      <c r="D110" s="138" t="n"/>
+      <c r="E110" s="138" t="n"/>
+      <c r="F110" s="129" t="n"/>
+      <c r="G110" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="111" s="188" spans="1:7">
-      <c r="A111" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B111" s="110" t="n">
-        <v>5</v>
-      </c>
-      <c r="C111" s="128" t="s">
-        <v>512</v>
-      </c>
-      <c r="D111" s="138" t="s">
-        <v>513</v>
-      </c>
-      <c r="E111" s="138" t="s">
-        <v>514</v>
-      </c>
-      <c r="F111" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="G111" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A111" s="110" t="n"/>
+      <c r="B111" s="110" t="n"/>
+      <c r="C111" s="128" t="n"/>
+      <c r="D111" s="138" t="n"/>
+      <c r="E111" s="138" t="n"/>
+      <c r="F111" s="129" t="n"/>
+      <c r="G111" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="112" s="188" spans="1:7">
-      <c r="A112" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B112" s="110" t="n">
-        <v>4</v>
-      </c>
-      <c r="C112" s="128" t="s">
-        <v>515</v>
-      </c>
-      <c r="D112" s="138" t="s">
-        <v>516</v>
-      </c>
-      <c r="E112" s="138" t="s">
-        <v>517</v>
-      </c>
-      <c r="F112" s="129" t="s">
-        <v>430</v>
-      </c>
-      <c r="G112" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A112" s="110" t="n"/>
+      <c r="B112" s="110" t="n"/>
+      <c r="C112" s="128" t="n"/>
+      <c r="D112" s="138" t="n"/>
+      <c r="E112" s="138" t="n"/>
+      <c r="F112" s="129" t="n"/>
+      <c r="G112" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="113" s="188" spans="1:7">
-      <c r="A113" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B113" s="110" t="n">
-        <v>4</v>
-      </c>
-      <c r="C113" s="128" t="s">
-        <v>518</v>
-      </c>
-      <c r="D113" s="138" t="s">
-        <v>519</v>
-      </c>
-      <c r="E113" s="138" t="s">
-        <v>520</v>
-      </c>
-      <c r="F113" s="129" t="s">
-        <v>341</v>
-      </c>
-      <c r="G113" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A113" s="110" t="n"/>
+      <c r="B113" s="110" t="n"/>
+      <c r="C113" s="128" t="n"/>
+      <c r="D113" s="138" t="n"/>
+      <c r="E113" s="138" t="n"/>
+      <c r="F113" s="129" t="n"/>
+      <c r="G113" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="114" s="188" spans="1:7">
-      <c r="A114" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B114" s="110" t="n">
-        <v>4</v>
-      </c>
-      <c r="C114" s="128" t="s">
-        <v>521</v>
-      </c>
-      <c r="D114" s="138" t="s">
-        <v>522</v>
-      </c>
-      <c r="E114" s="138" t="s">
-        <v>523</v>
-      </c>
-      <c r="F114" s="129" t="s">
-        <v>341</v>
-      </c>
-      <c r="G114" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A114" s="110" t="n"/>
+      <c r="B114" s="110" t="n"/>
+      <c r="C114" s="128" t="n"/>
+      <c r="D114" s="138" t="n"/>
+      <c r="E114" s="138" t="n"/>
+      <c r="F114" s="129" t="n"/>
+      <c r="G114" s="128" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="115" s="188" spans="1:7">
-      <c r="A115" s="110" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B115" s="110" t="n">
-        <v>4</v>
-      </c>
-      <c r="C115" s="128" t="s">
-        <v>524</v>
-      </c>
-      <c r="D115" s="138" t="s">
-        <v>525</v>
-      </c>
-      <c r="E115" s="138" t="s">
-        <v>526</v>
-      </c>
-      <c r="F115" s="129" t="s">
-        <v>411</v>
-      </c>
-      <c r="G115" s="128" t="s">
-        <v>188</v>
-      </c>
+      <c r="A115" s="110" t="n"/>
+      <c r="B115" s="110" t="n"/>
+      <c r="C115" s="128" t="n"/>
+      <c r="D115" s="138" t="n"/>
+      <c r="E115" s="138" t="n"/>
+      <c r="F115" s="129" t="n"/>
+      <c r="G115" s="128" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -15631,25 +14593,25 @@
         <v>111</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>527</v>
+        <v>376</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>528</v>
+        <v>377</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>529</v>
+        <v>378</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>530</v>
+        <v>379</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>531</v>
+        <v>380</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>532</v>
+        <v>381</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>533</v>
+        <v>382</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="2" s="188" spans="1:9">
@@ -15660,23 +14622,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>534</v>
+        <v>383</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>535</v>
+        <v>384</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="139" t="s"/>
+        <v>154</v>
+      </c>
+      <c r="F2" s="139" t="s">
+        <v>385</v>
+      </c>
       <c r="G2" s="139" t="s">
-        <v>536</v>
+        <v>386</v>
       </c>
       <c r="H2" s="139" t="s">
         <v>187</v>
       </c>
       <c r="I2" s="139" t="s">
-        <v>537</v>
+        <v>387</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="3" s="188" spans="1:9">
@@ -15687,25 +14651,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>538</v>
+        <v>388</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>539</v>
+        <v>389</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="F3" s="139" t="s">
-        <v>540</v>
+        <v>385</v>
       </c>
       <c r="G3" s="139" t="s">
-        <v>541</v>
+        <v>390</v>
       </c>
       <c r="H3" s="139" t="s">
-        <v>542</v>
+        <v>187</v>
       </c>
       <c r="I3" s="139" t="s">
-        <v>537</v>
+        <v>387</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="4" s="188" spans="1:9">
@@ -15716,25 +14680,25 @@
         <v>9</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>543</v>
+        <v>391</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>544</v>
+        <v>392</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="F4" s="139" t="s">
-        <v>540</v>
+        <v>385</v>
       </c>
       <c r="G4" s="139" t="s">
-        <v>545</v>
+        <v>393</v>
       </c>
       <c r="H4" s="139" t="s">
-        <v>546</v>
+        <v>187</v>
       </c>
       <c r="I4" s="139" t="s">
-        <v>537</v>
+        <v>394</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="5" s="188" spans="1:9">
@@ -15742,28 +14706,28 @@
         <v>2018</v>
       </c>
       <c r="B5" s="110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>547</v>
+        <v>391</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>548</v>
+        <v>395</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>540</v>
+        <v>385</v>
       </c>
       <c r="G5" s="139" t="s">
-        <v>549</v>
+        <v>393</v>
       </c>
       <c r="H5" s="139" t="s">
-        <v>550</v>
+        <v>187</v>
       </c>
       <c r="I5" s="139" t="s">
-        <v>551</v>
+        <v>394</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="6" s="188" spans="1:9">
@@ -15774,25 +14738,25 @@
         <v>9</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>552</v>
+        <v>396</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>553</v>
+        <v>397</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="F6" s="139" t="s">
-        <v>540</v>
+        <v>385</v>
       </c>
       <c r="G6" s="139" t="s">
-        <v>554</v>
+        <v>398</v>
       </c>
       <c r="H6" s="139" t="s">
-        <v>555</v>
+        <v>187</v>
       </c>
       <c r="I6" s="139" t="s">
-        <v>537</v>
+        <v>387</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="7" s="188" spans="1:9">
@@ -15800,28 +14764,28 @@
         <v>2018</v>
       </c>
       <c r="B7" s="110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>556</v>
+        <v>396</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>557</v>
+        <v>399</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="F7" s="139" t="s">
-        <v>540</v>
+        <v>385</v>
       </c>
       <c r="G7" s="139" t="s">
-        <v>558</v>
+        <v>400</v>
       </c>
       <c r="H7" s="139" t="s">
-        <v>559</v>
+        <v>187</v>
       </c>
       <c r="I7" s="139" t="s">
-        <v>537</v>
+        <v>387</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="8" s="188" spans="1:9">
@@ -15829,28 +14793,28 @@
         <v>2018</v>
       </c>
       <c r="B8" s="110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>560</v>
+        <v>396</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>561</v>
+        <v>401</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>540</v>
+        <v>385</v>
       </c>
       <c r="G8" s="139" t="s">
-        <v>562</v>
+        <v>402</v>
       </c>
       <c r="H8" s="139" t="s">
-        <v>563</v>
+        <v>187</v>
       </c>
       <c r="I8" s="139" t="s">
-        <v>564</v>
+        <v>394</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="9" s="188" spans="1:9">
@@ -15858,28 +14822,28 @@
         <v>2018</v>
       </c>
       <c r="B9" s="110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>565</v>
+        <v>396</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>566</v>
+        <v>403</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="F9" s="139" t="s">
-        <v>540</v>
+        <v>385</v>
       </c>
       <c r="G9" s="139" t="s">
-        <v>567</v>
+        <v>402</v>
       </c>
       <c r="H9" s="139" t="s">
-        <v>568</v>
+        <v>187</v>
       </c>
       <c r="I9" s="139" t="s">
-        <v>564</v>
+        <v>394</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="10" s="188" spans="1:9">
@@ -15887,28 +14851,26 @@
         <v>2018</v>
       </c>
       <c r="B10" s="110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>569</v>
+        <v>404</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>570</v>
+        <v>405</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="139" t="s">
-        <v>540</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F10" s="139" t="s"/>
       <c r="G10" s="139" t="s">
-        <v>571</v>
+        <v>406</v>
       </c>
       <c r="H10" s="139" t="s">
-        <v>572</v>
+        <v>187</v>
       </c>
       <c r="I10" s="139" t="s">
-        <v>564</v>
+        <v>394</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="11" s="188" spans="1:9">
@@ -15916,28 +14878,28 @@
         <v>2018</v>
       </c>
       <c r="B11" s="110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>573</v>
+        <v>407</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>574</v>
+        <v>408</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="139" t="s">
-        <v>540</v>
+        <v>409</v>
       </c>
       <c r="G11" s="139" t="s">
-        <v>575</v>
+        <v>410</v>
       </c>
       <c r="H11" s="139" t="s">
-        <v>576</v>
+        <v>411</v>
       </c>
       <c r="I11" s="139" t="s">
-        <v>551</v>
+        <v>394</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="12" s="188" spans="1:9">
@@ -15945,26 +14907,28 @@
         <v>2018</v>
       </c>
       <c r="B12" s="110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>573</v>
+        <v>412</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>577</v>
+        <v>413</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" s="139" t="s"/>
+        <v>9</v>
+      </c>
+      <c r="F12" s="139" t="s">
+        <v>409</v>
+      </c>
       <c r="G12" s="139" t="s">
-        <v>575</v>
+        <v>414</v>
       </c>
       <c r="H12" s="139" t="s">
-        <v>578</v>
+        <v>415</v>
       </c>
       <c r="I12" s="139" t="s">
-        <v>551</v>
+        <v>394</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="13" s="188" spans="1:9">
@@ -15975,23 +14939,25 @@
         <v>8</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>579</v>
+        <v>416</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>580</v>
+        <v>417</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="139" t="s"/>
+        <v>9</v>
+      </c>
+      <c r="F13" s="139" t="s">
+        <v>409</v>
+      </c>
       <c r="G13" s="139" t="s">
-        <v>581</v>
+        <v>418</v>
       </c>
       <c r="H13" s="139" t="s">
-        <v>187</v>
+        <v>419</v>
       </c>
       <c r="I13" s="139" t="s">
-        <v>564</v>
+        <v>420</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="14" s="188" spans="1:9">
@@ -15999,28 +14965,28 @@
         <v>2018</v>
       </c>
       <c r="B14" s="110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>582</v>
+        <v>421</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>583</v>
+        <v>422</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="139" t="s">
-        <v>540</v>
+        <v>409</v>
       </c>
       <c r="G14" s="139" t="s">
-        <v>584</v>
+        <v>423</v>
       </c>
       <c r="H14" s="139" t="s">
-        <v>585</v>
+        <v>424</v>
       </c>
       <c r="I14" s="139" t="s">
-        <v>551</v>
+        <v>394</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="15" s="188" spans="1:9">
@@ -16031,25 +14997,25 @@
         <v>8</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>586</v>
+        <v>425</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>587</v>
+        <v>426</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="139" t="s">
-        <v>540</v>
+        <v>409</v>
       </c>
       <c r="G15" s="139" t="s">
-        <v>588</v>
+        <v>427</v>
       </c>
       <c r="H15" s="139" t="s">
-        <v>589</v>
+        <v>428</v>
       </c>
       <c r="I15" s="139" t="s">
-        <v>590</v>
+        <v>394</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="16" s="188" spans="1:9">
@@ -16060,25 +15026,25 @@
         <v>8</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>591</v>
+        <v>429</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>592</v>
+        <v>430</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="139" t="s">
-        <v>540</v>
+        <v>409</v>
       </c>
       <c r="G16" s="139" t="s">
-        <v>593</v>
+        <v>431</v>
       </c>
       <c r="H16" s="139" t="s">
-        <v>594</v>
+        <v>432</v>
       </c>
       <c r="I16" s="139" t="s">
-        <v>590</v>
+        <v>433</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="17" s="188" spans="1:9">
@@ -16089,25 +15055,25 @@
         <v>8</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>595</v>
+        <v>434</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>596</v>
+        <v>435</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="139" t="s">
-        <v>540</v>
+        <v>409</v>
       </c>
       <c r="G17" s="139" t="s">
-        <v>597</v>
+        <v>436</v>
       </c>
       <c r="H17" s="139" t="s">
-        <v>598</v>
+        <v>437</v>
       </c>
       <c r="I17" s="139" t="s">
-        <v>551</v>
+        <v>433</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="18" s="188" spans="1:9">
@@ -16118,25 +15084,25 @@
         <v>8</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>599</v>
+        <v>438</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>600</v>
+        <v>439</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="139" t="s">
-        <v>540</v>
+        <v>409</v>
       </c>
       <c r="G18" s="139" t="s">
-        <v>601</v>
+        <v>440</v>
       </c>
       <c r="H18" s="139" t="s">
-        <v>602</v>
+        <v>441</v>
       </c>
       <c r="I18" s="139" t="s">
-        <v>564</v>
+        <v>433</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="19" s="188" spans="1:9">
@@ -16147,112 +15113,252 @@
         <v>8</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>599</v>
+        <v>442</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>603</v>
+        <v>443</v>
       </c>
       <c r="E19" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="139" t="s">
+        <v>409</v>
+      </c>
+      <c r="G19" s="139" t="s">
+        <v>444</v>
+      </c>
+      <c r="H19" s="139" t="s">
+        <v>445</v>
+      </c>
+      <c r="I19" s="139" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.5" r="20" s="188" spans="1:9">
+      <c r="A20" s="110" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="110" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="139" t="s"/>
-      <c r="G19" s="139" t="s">
-        <v>604</v>
-      </c>
-      <c r="H19" s="139" t="s">
+      <c r="F20" s="139" t="s"/>
+      <c r="G20" s="139" t="s">
+        <v>444</v>
+      </c>
+      <c r="H20" s="139" t="s">
+        <v>447</v>
+      </c>
+      <c r="I20" s="139" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.5" r="21" s="188" spans="1:9">
+      <c r="A21" s="110" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="110" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="139" t="s"/>
+      <c r="G21" s="139" t="s">
+        <v>450</v>
+      </c>
+      <c r="H21" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="I19" s="139" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="16.5" r="20" s="188" spans="1:9">
-      <c r="A20" s="110" t="n"/>
-      <c r="B20" s="110" t="n"/>
-      <c r="C20" s="29" t="n"/>
-      <c r="D20" s="30" t="n"/>
-      <c r="E20" s="30" t="n"/>
-      <c r="F20" s="139" t="n"/>
-      <c r="G20" s="139" t="n"/>
-      <c r="H20" s="139" t="n"/>
-      <c r="I20" s="139" t="n"/>
-    </row>
-    <row customHeight="1" ht="16.5" r="21" s="188" spans="1:9">
-      <c r="A21" s="110" t="n"/>
-      <c r="B21" s="110" t="n"/>
-      <c r="C21" s="29" t="n"/>
-      <c r="D21" s="30" t="n"/>
-      <c r="E21" s="30" t="n"/>
-      <c r="F21" s="139" t="n"/>
-      <c r="G21" s="139" t="n"/>
-      <c r="H21" s="139" t="n"/>
-      <c r="I21" s="139" t="n"/>
+      <c r="I21" s="139" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row customHeight="1" ht="16.5" r="22" s="188" spans="1:9">
-      <c r="A22" s="110" t="n"/>
-      <c r="B22" s="110" t="n"/>
-      <c r="C22" s="29" t="n"/>
-      <c r="D22" s="30" t="n"/>
-      <c r="E22" s="30" t="n"/>
-      <c r="F22" s="139" t="n"/>
-      <c r="G22" s="139" t="n"/>
-      <c r="H22" s="139" t="n"/>
-      <c r="I22" s="139" t="n"/>
+      <c r="A22" s="110" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="110" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="139" t="s">
+        <v>409</v>
+      </c>
+      <c r="G22" s="139" t="s">
+        <v>453</v>
+      </c>
+      <c r="H22" s="139" t="s">
+        <v>454</v>
+      </c>
+      <c r="I22" s="139" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row customHeight="1" ht="16.5" r="23" s="188" spans="1:9">
-      <c r="A23" s="110" t="n"/>
-      <c r="B23" s="110" t="n"/>
-      <c r="C23" s="29" t="n"/>
-      <c r="D23" s="30" t="n"/>
-      <c r="E23" s="30" t="n"/>
-      <c r="F23" s="139" t="n"/>
-      <c r="G23" s="139" t="n"/>
-      <c r="H23" s="139" t="n"/>
-      <c r="I23" s="139" t="n"/>
+      <c r="A23" s="110" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="110" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="139" t="s">
+        <v>409</v>
+      </c>
+      <c r="G23" s="139" t="s">
+        <v>457</v>
+      </c>
+      <c r="H23" s="139" t="s">
+        <v>458</v>
+      </c>
+      <c r="I23" s="139" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row customHeight="1" ht="16.5" r="24" s="188" spans="1:9">
-      <c r="A24" s="110" t="n"/>
-      <c r="B24" s="110" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="30" t="n"/>
-      <c r="E24" s="30" t="n"/>
-      <c r="F24" s="139" t="n"/>
-      <c r="G24" s="139" t="n"/>
-      <c r="H24" s="139" t="n"/>
-      <c r="I24" s="139" t="n"/>
+      <c r="A24" s="110" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="110" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="139" t="s">
+        <v>409</v>
+      </c>
+      <c r="G24" s="139" t="s">
+        <v>462</v>
+      </c>
+      <c r="H24" s="139" t="s">
+        <v>463</v>
+      </c>
+      <c r="I24" s="139" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row customHeight="1" ht="16.5" r="25" s="188" spans="1:9">
-      <c r="A25" s="110" t="n"/>
-      <c r="B25" s="110" t="n"/>
-      <c r="C25" s="29" t="n"/>
-      <c r="D25" s="30" t="n"/>
-      <c r="E25" s="30" t="n"/>
-      <c r="F25" s="139" t="n"/>
-      <c r="G25" s="139" t="n"/>
-      <c r="H25" s="139" t="n"/>
-      <c r="I25" s="139" t="n"/>
+      <c r="A25" s="110" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="110" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="139" t="s">
+        <v>409</v>
+      </c>
+      <c r="G25" s="139" t="s">
+        <v>466</v>
+      </c>
+      <c r="H25" s="139" t="s">
+        <v>467</v>
+      </c>
+      <c r="I25" s="139" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row customHeight="1" ht="16.5" r="26" s="188" spans="1:9">
-      <c r="A26" s="110" t="n"/>
-      <c r="B26" s="110" t="n"/>
-      <c r="C26" s="29" t="n"/>
-      <c r="D26" s="30" t="n"/>
-      <c r="E26" s="30" t="n"/>
-      <c r="F26" s="139" t="n"/>
-      <c r="G26" s="139" t="n"/>
-      <c r="H26" s="139" t="n"/>
-      <c r="I26" s="139" t="n"/>
+      <c r="A26" s="110" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="110" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="139" t="s">
+        <v>409</v>
+      </c>
+      <c r="G26" s="139" t="s">
+        <v>470</v>
+      </c>
+      <c r="H26" s="139" t="s">
+        <v>471</v>
+      </c>
+      <c r="I26" s="139" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row customHeight="1" ht="16.5" r="27" s="188" spans="1:9">
-      <c r="A27" s="110" t="n"/>
-      <c r="B27" s="110" t="n"/>
-      <c r="C27" s="29" t="n"/>
-      <c r="D27" s="30" t="n"/>
-      <c r="E27" s="30" t="n"/>
-      <c r="F27" s="139" t="n"/>
-      <c r="G27" s="139" t="n"/>
-      <c r="H27" s="139" t="n"/>
-      <c r="I27" s="139" t="n"/>
+      <c r="A27" s="110" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="110" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="139" t="s"/>
+      <c r="G27" s="139" t="s">
+        <v>473</v>
+      </c>
+      <c r="H27" s="139" t="s">
+        <v>187</v>
+      </c>
+      <c r="I27" s="139" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row customHeight="1" ht="16.5" r="28" s="188" spans="1:9">
       <c r="A28" s="110" t="n"/>
@@ -16398,37 +15504,37 @@
         <v>111</v>
       </c>
       <c r="C1" s="117" t="s">
-        <v>605</v>
+        <v>474</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>606</v>
+        <v>475</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>607</v>
+        <v>476</v>
       </c>
       <c r="F1" s="77" t="s">
-        <v>608</v>
+        <v>477</v>
       </c>
       <c r="G1" s="77" t="s">
-        <v>609</v>
+        <v>478</v>
       </c>
       <c r="H1" s="77" t="s">
         <v>116</v>
       </c>
       <c r="I1" s="77" t="s">
-        <v>610</v>
+        <v>479</v>
       </c>
       <c r="J1" s="77" t="s">
-        <v>611</v>
+        <v>480</v>
       </c>
       <c r="K1" s="77" t="s">
-        <v>612</v>
+        <v>481</v>
       </c>
       <c r="L1" s="77" t="s">
-        <v>613</v>
+        <v>482</v>
       </c>
       <c r="M1" s="77" t="s">
-        <v>614</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -16445,16 +15551,16 @@
         <v>77932709186</v>
       </c>
       <c r="E2" s="126" t="s">
-        <v>615</v>
+        <v>484</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>616</v>
+        <v>485</v>
       </c>
       <c r="G2" s="127" t="s">
-        <v>617</v>
+        <v>486</v>
       </c>
       <c r="H2" s="126" t="s">
-        <v>618</v>
+        <v>487</v>
       </c>
       <c r="I2" s="126" t="n">
         <v>18</v>
@@ -16469,7 +15575,7 @@
         <v>188</v>
       </c>
       <c r="M2" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -16486,16 +15592,16 @@
         <v>38397034716</v>
       </c>
       <c r="E3" s="126" t="s">
-        <v>620</v>
+        <v>489</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>621</v>
+        <v>490</v>
       </c>
       <c r="G3" s="127" t="s">
-        <v>622</v>
+        <v>491</v>
       </c>
       <c r="H3" s="126" t="s">
-        <v>618</v>
+        <v>487</v>
       </c>
       <c r="I3" s="126" t="n">
         <v>18</v>
@@ -16510,7 +15616,7 @@
         <v>188</v>
       </c>
       <c r="M3" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -16527,16 +15633,16 @@
         <v>51984675638</v>
       </c>
       <c r="E4" s="126" t="s">
-        <v>623</v>
+        <v>492</v>
       </c>
       <c r="F4" s="80" t="s">
-        <v>621</v>
+        <v>490</v>
       </c>
       <c r="G4" s="127" t="s">
-        <v>624</v>
+        <v>493</v>
       </c>
       <c r="H4" s="126" t="s">
-        <v>618</v>
+        <v>487</v>
       </c>
       <c r="I4" s="126" t="n">
         <v>18</v>
@@ -16551,7 +15657,7 @@
         <v>188</v>
       </c>
       <c r="M4" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -16568,16 +15674,16 @@
         <v>36825480773</v>
       </c>
       <c r="E5" s="126" t="s">
-        <v>625</v>
+        <v>494</v>
       </c>
       <c r="F5" s="80" t="s">
-        <v>626</v>
+        <v>495</v>
       </c>
       <c r="G5" s="127" t="s">
-        <v>627</v>
+        <v>496</v>
       </c>
       <c r="H5" s="126" t="s">
-        <v>618</v>
+        <v>487</v>
       </c>
       <c r="I5" s="126" t="n">
         <v>18</v>
@@ -16592,7 +15698,7 @@
         <v>188</v>
       </c>
       <c r="M5" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -16609,16 +15715,16 @@
         <v>33122016090</v>
       </c>
       <c r="E6" s="126" t="s">
-        <v>628</v>
+        <v>497</v>
       </c>
       <c r="F6" s="80" t="s">
-        <v>626</v>
+        <v>495</v>
       </c>
       <c r="G6" s="127" t="s">
-        <v>629</v>
+        <v>498</v>
       </c>
       <c r="H6" s="126" t="s">
-        <v>630</v>
+        <v>499</v>
       </c>
       <c r="I6" s="126" t="n">
         <v>199</v>
@@ -16633,7 +15739,7 @@
         <v>188</v>
       </c>
       <c r="M6" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -16650,16 +15756,16 @@
         <v>41563867428</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>631</v>
+        <v>500</v>
       </c>
       <c r="F7" s="80" t="s">
-        <v>632</v>
+        <v>501</v>
       </c>
       <c r="G7" s="127" t="s">
-        <v>633</v>
+        <v>502</v>
       </c>
       <c r="H7" s="126" t="s">
-        <v>618</v>
+        <v>487</v>
       </c>
       <c r="I7" s="126" t="n">
         <v>18</v>
@@ -16674,7 +15780,7 @@
         <v>188</v>
       </c>
       <c r="M7" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -16691,16 +15797,16 @@
         <v>86854746681</v>
       </c>
       <c r="E8" s="126" t="s">
-        <v>634</v>
+        <v>503</v>
       </c>
       <c r="F8" s="80" t="s">
-        <v>635</v>
+        <v>504</v>
       </c>
       <c r="G8" s="127" t="s">
-        <v>636</v>
+        <v>505</v>
       </c>
       <c r="H8" s="126" t="s">
-        <v>618</v>
+        <v>487</v>
       </c>
       <c r="I8" s="126" t="n">
         <v>18</v>
@@ -16715,7 +15821,7 @@
         <v>188</v>
       </c>
       <c r="M8" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -16732,16 +15838,16 @@
         <v>4113284451</v>
       </c>
       <c r="E9" s="126" t="s">
-        <v>637</v>
+        <v>506</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>638</v>
+        <v>507</v>
       </c>
       <c r="G9" s="127" t="s">
-        <v>639</v>
+        <v>508</v>
       </c>
       <c r="H9" s="126" t="s">
-        <v>618</v>
+        <v>487</v>
       </c>
       <c r="I9" s="126" t="n">
         <v>18</v>
@@ -16756,7 +15862,7 @@
         <v>188</v>
       </c>
       <c r="M9" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -16773,13 +15879,13 @@
         <v>3188419512</v>
       </c>
       <c r="E10" s="126" t="s">
-        <v>640</v>
+        <v>509</v>
       </c>
       <c r="F10" s="80" t="s">
-        <v>641</v>
+        <v>510</v>
       </c>
       <c r="G10" s="127" t="s">
-        <v>642</v>
+        <v>511</v>
       </c>
       <c r="H10" s="126" t="s">
         <v>137</v>
@@ -16797,7 +15903,7 @@
         <v>188</v>
       </c>
       <c r="M10" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -16814,16 +15920,16 @@
         <v>77926699348</v>
       </c>
       <c r="E11" s="126" t="s">
-        <v>643</v>
+        <v>512</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>644</v>
+        <v>513</v>
       </c>
       <c r="G11" s="127" t="s">
-        <v>645</v>
+        <v>514</v>
       </c>
       <c r="H11" s="126" t="s">
-        <v>618</v>
+        <v>487</v>
       </c>
       <c r="I11" s="126" t="n">
         <v>18</v>
@@ -16838,7 +15944,7 @@
         <v>188</v>
       </c>
       <c r="M11" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -16855,16 +15961,16 @@
         <v>42732013704</v>
       </c>
       <c r="E12" s="126" t="s">
-        <v>643</v>
+        <v>512</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>644</v>
+        <v>513</v>
       </c>
       <c r="G12" s="127" t="s">
-        <v>646</v>
+        <v>515</v>
       </c>
       <c r="H12" s="126" t="s">
-        <v>647</v>
+        <v>516</v>
       </c>
       <c r="I12" s="126" t="n">
         <v>19.9</v>
@@ -16879,7 +15985,7 @@
         <v>188</v>
       </c>
       <c r="M12" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -16896,16 +16002,16 @@
         <v>22045833668</v>
       </c>
       <c r="E13" s="126" t="s">
-        <v>648</v>
+        <v>517</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>644</v>
+        <v>513</v>
       </c>
       <c r="G13" s="127" t="s">
-        <v>649</v>
+        <v>518</v>
       </c>
       <c r="H13" s="126" t="s">
-        <v>618</v>
+        <v>487</v>
       </c>
       <c r="I13" s="126" t="n">
         <v>18</v>
@@ -16920,7 +16026,7 @@
         <v>188</v>
       </c>
       <c r="M13" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -16937,16 +16043,16 @@
         <v>26722847649</v>
       </c>
       <c r="E14" s="126" t="s">
-        <v>650</v>
+        <v>519</v>
       </c>
       <c r="F14" s="80" t="s">
-        <v>651</v>
+        <v>520</v>
       </c>
       <c r="G14" s="127" t="s">
-        <v>652</v>
+        <v>521</v>
       </c>
       <c r="H14" s="126" t="s">
-        <v>653</v>
+        <v>522</v>
       </c>
       <c r="I14" s="126" t="n">
         <v>168</v>
@@ -16961,7 +16067,7 @@
         <v>188</v>
       </c>
       <c r="M14" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -16978,16 +16084,16 @@
         <v>35650508561</v>
       </c>
       <c r="E15" s="126" t="s">
-        <v>654</v>
+        <v>523</v>
       </c>
       <c r="F15" s="80" t="s">
-        <v>655</v>
+        <v>524</v>
       </c>
       <c r="G15" s="127" t="s">
-        <v>656</v>
+        <v>525</v>
       </c>
       <c r="H15" s="126" t="s">
-        <v>618</v>
+        <v>487</v>
       </c>
       <c r="I15" s="126" t="n">
         <v>18</v>
@@ -17002,7 +16108,7 @@
         <v>188</v>
       </c>
       <c r="M15" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -17019,16 +16125,16 @@
         <v>4036421668</v>
       </c>
       <c r="E16" s="126" t="s">
-        <v>657</v>
+        <v>526</v>
       </c>
       <c r="F16" s="80" t="s">
-        <v>655</v>
+        <v>524</v>
       </c>
       <c r="G16" s="127" t="s">
-        <v>658</v>
+        <v>527</v>
       </c>
       <c r="H16" s="126" t="s">
-        <v>659</v>
+        <v>528</v>
       </c>
       <c r="I16" s="126" t="n">
         <v>1280</v>
@@ -17043,7 +16149,7 @@
         <v>188</v>
       </c>
       <c r="M16" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -17060,16 +16166,16 @@
         <v>3477711341</v>
       </c>
       <c r="E17" s="126" t="s">
-        <v>660</v>
+        <v>529</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>661</v>
+        <v>530</v>
       </c>
       <c r="G17" s="127" t="s">
-        <v>662</v>
+        <v>531</v>
       </c>
       <c r="H17" s="126" t="s">
-        <v>663</v>
+        <v>532</v>
       </c>
       <c r="I17" s="126" t="n">
         <v>98</v>
@@ -17084,7 +16190,7 @@
         <v>188</v>
       </c>
       <c r="M17" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -17101,16 +16207,16 @@
         <v>92849998676</v>
       </c>
       <c r="E18" s="126" t="s">
-        <v>664</v>
+        <v>533</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>665</v>
+        <v>534</v>
       </c>
       <c r="G18" s="127" t="s">
-        <v>666</v>
+        <v>535</v>
       </c>
       <c r="H18" s="126" t="s">
-        <v>618</v>
+        <v>487</v>
       </c>
       <c r="I18" s="126" t="n">
         <v>18</v>
@@ -17125,7 +16231,7 @@
         <v>188</v>
       </c>
       <c r="M18" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -17142,16 +16248,16 @@
         <v>43559024237</v>
       </c>
       <c r="E19" s="126" t="s">
-        <v>667</v>
+        <v>536</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>668</v>
+        <v>537</v>
       </c>
       <c r="G19" s="127" t="s">
-        <v>669</v>
+        <v>538</v>
       </c>
       <c r="H19" s="126" t="s">
-        <v>647</v>
+        <v>516</v>
       </c>
       <c r="I19" s="126" t="n">
         <v>19.9</v>
@@ -17166,7 +16272,7 @@
         <v>188</v>
       </c>
       <c r="M19" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -17183,13 +16289,13 @@
         <v>3437263956</v>
       </c>
       <c r="E20" s="126" t="s">
-        <v>670</v>
+        <v>539</v>
       </c>
       <c r="F20" s="80" t="s">
-        <v>671</v>
+        <v>540</v>
       </c>
       <c r="G20" s="127" t="s">
-        <v>672</v>
+        <v>541</v>
       </c>
       <c r="H20" s="126" t="s">
         <v>137</v>
@@ -17207,7 +16313,7 @@
         <v>188</v>
       </c>
       <c r="M20" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -17224,13 +16330,13 @@
         <v>3454772622</v>
       </c>
       <c r="E21" s="126" t="s">
-        <v>673</v>
+        <v>542</v>
       </c>
       <c r="F21" s="80" t="s">
-        <v>674</v>
+        <v>543</v>
       </c>
       <c r="G21" s="127" t="s">
-        <v>675</v>
+        <v>544</v>
       </c>
       <c r="H21" s="126" t="s">
         <v>137</v>
@@ -17248,7 +16354,7 @@
         <v>188</v>
       </c>
       <c r="M21" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -17265,16 +16371,16 @@
         <v>25433898888</v>
       </c>
       <c r="E22" s="126" t="s">
-        <v>667</v>
+        <v>536</v>
       </c>
       <c r="F22" s="80" t="s">
-        <v>668</v>
+        <v>537</v>
       </c>
       <c r="G22" s="127" t="s">
-        <v>676</v>
+        <v>545</v>
       </c>
       <c r="H22" s="126" t="s">
-        <v>618</v>
+        <v>487</v>
       </c>
       <c r="I22" s="126" t="n">
         <v>18</v>
@@ -17289,7 +16395,7 @@
         <v>188</v>
       </c>
       <c r="M22" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -17306,16 +16412,16 @@
         <v>49359097018</v>
       </c>
       <c r="E23" s="126" t="s">
-        <v>677</v>
+        <v>546</v>
       </c>
       <c r="F23" s="80" t="s">
-        <v>668</v>
+        <v>537</v>
       </c>
       <c r="G23" s="127" t="s">
-        <v>678</v>
+        <v>547</v>
       </c>
       <c r="H23" s="126" t="s">
-        <v>679</v>
+        <v>548</v>
       </c>
       <c r="I23" s="126" t="n">
         <v>98</v>
@@ -17330,7 +16436,7 @@
         <v>188</v>
       </c>
       <c r="M23" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -17347,16 +16453,16 @@
         <v>45480368100</v>
       </c>
       <c r="E24" s="126" t="s">
-        <v>680</v>
+        <v>549</v>
       </c>
       <c r="F24" s="80" t="s">
-        <v>681</v>
+        <v>550</v>
       </c>
       <c r="G24" s="127" t="s">
-        <v>682</v>
+        <v>551</v>
       </c>
       <c r="H24" s="126" t="s">
-        <v>683</v>
+        <v>552</v>
       </c>
       <c r="I24" s="126" t="n">
         <v>98</v>
@@ -17371,7 +16477,7 @@
         <v>188</v>
       </c>
       <c r="M24" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -17388,16 +16494,16 @@
         <v>53485210725</v>
       </c>
       <c r="E25" s="126" t="s">
-        <v>684</v>
+        <v>553</v>
       </c>
       <c r="F25" s="80" t="s">
-        <v>681</v>
+        <v>550</v>
       </c>
       <c r="G25" s="127" t="s">
-        <v>685</v>
+        <v>554</v>
       </c>
       <c r="H25" s="126" t="s">
-        <v>618</v>
+        <v>487</v>
       </c>
       <c r="I25" s="126" t="n">
         <v>18</v>
@@ -17412,7 +16518,7 @@
         <v>188</v>
       </c>
       <c r="M25" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -17429,16 +16535,16 @@
         <v>31324631075</v>
       </c>
       <c r="E26" s="126" t="s">
-        <v>684</v>
+        <v>553</v>
       </c>
       <c r="F26" s="80" t="s">
-        <v>681</v>
+        <v>550</v>
       </c>
       <c r="G26" s="127" t="s">
-        <v>686</v>
+        <v>555</v>
       </c>
       <c r="H26" s="126" t="s">
-        <v>653</v>
+        <v>522</v>
       </c>
       <c r="I26" s="126" t="n">
         <v>168</v>
@@ -17453,7 +16559,7 @@
         <v>188</v>
       </c>
       <c r="M26" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -17470,16 +16576,16 @@
         <v>94753403440</v>
       </c>
       <c r="E27" s="126" t="s">
-        <v>687</v>
+        <v>556</v>
       </c>
       <c r="F27" s="80" t="s">
-        <v>688</v>
+        <v>557</v>
       </c>
       <c r="G27" s="127" t="s">
-        <v>689</v>
+        <v>558</v>
       </c>
       <c r="H27" s="126" t="s">
-        <v>690</v>
+        <v>559</v>
       </c>
       <c r="I27" s="126" t="n">
         <v>10</v>
@@ -17494,7 +16600,7 @@
         <v>188</v>
       </c>
       <c r="M27" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -17511,16 +16617,16 @@
         <v>78134610740</v>
       </c>
       <c r="E28" s="126" t="s">
-        <v>691</v>
+        <v>560</v>
       </c>
       <c r="F28" s="80" t="s">
-        <v>692</v>
+        <v>561</v>
       </c>
       <c r="G28" s="127" t="s">
-        <v>693</v>
+        <v>562</v>
       </c>
       <c r="H28" s="126" t="s">
-        <v>618</v>
+        <v>487</v>
       </c>
       <c r="I28" s="126" t="n">
         <v>18</v>
@@ -17535,7 +16641,7 @@
         <v>188</v>
       </c>
       <c r="M28" s="126" t="s">
-        <v>619</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -17938,13 +17044,13 @@
         <v>115</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>694</v>
+        <v>563</v>
       </c>
       <c r="E1" s="79" t="s">
-        <v>695</v>
+        <v>564</v>
       </c>
       <c r="F1" s="79" t="s">
-        <v>696</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -18029,22 +17135,22 @@
         <v>115</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>609</v>
+        <v>478</v>
       </c>
       <c r="E1" s="79" t="s">
-        <v>697</v>
+        <v>566</v>
       </c>
       <c r="F1" s="79" t="s">
-        <v>698</v>
+        <v>567</v>
       </c>
       <c r="G1" s="139" t="s">
-        <v>699</v>
+        <v>568</v>
       </c>
       <c r="H1" s="79" t="s">
         <v>174</v>
       </c>
       <c r="I1" s="79" t="s">
-        <v>700</v>
+        <v>569</v>
       </c>
       <c r="J1" s="120" t="s">
         <v>82</v>
@@ -18056,13 +17162,13 @@
         <v>84</v>
       </c>
       <c r="M1" s="139" t="s">
-        <v>701</v>
+        <v>570</v>
       </c>
       <c r="N1" s="79" t="s">
-        <v>702</v>
+        <v>571</v>
       </c>
       <c r="O1" s="79" t="s">
-        <v>608</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -18073,25 +17179,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>703</v>
+        <v>572</v>
       </c>
       <c r="D2" s="72" t="s">
-        <v>704</v>
+        <v>573</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="F2" s="79" t="s">
         <v>188</v>
       </c>
       <c r="G2" s="139" t="s">
-        <v>706</v>
+        <v>575</v>
       </c>
       <c r="H2" s="79" t="n">
         <v>3</v>
       </c>
       <c r="I2" s="79" t="s">
-        <v>707</v>
+        <v>576</v>
       </c>
       <c r="J2" s="120" t="n">
         <v>3</v>
@@ -18103,13 +17209,13 @@
         <v>3</v>
       </c>
       <c r="M2" s="139" t="s">
-        <v>708</v>
+        <v>577</v>
       </c>
       <c r="N2" s="79" t="s">
-        <v>709</v>
+        <v>578</v>
       </c>
       <c r="O2" s="69" t="s">
-        <v>710</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -18120,25 +17226,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>711</v>
+        <v>580</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>712</v>
+        <v>581</v>
       </c>
       <c r="E3" s="79" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="F3" s="79" t="s">
         <v>188</v>
       </c>
       <c r="G3" s="139" t="s">
-        <v>713</v>
+        <v>582</v>
       </c>
       <c r="H3" s="79" t="n">
         <v>5</v>
       </c>
       <c r="I3" s="79" t="s">
-        <v>714</v>
+        <v>583</v>
       </c>
       <c r="J3" s="120" t="n">
         <v>5</v>
@@ -18150,13 +17256,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="139" t="s">
-        <v>715</v>
+        <v>584</v>
       </c>
       <c r="N3" s="79" t="s">
-        <v>709</v>
+        <v>578</v>
       </c>
       <c r="O3" s="69" t="s">
-        <v>716</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -18167,25 +17273,25 @@
         <v>8</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>582</v>
+        <v>451</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>717</v>
+        <v>586</v>
       </c>
       <c r="E4" s="79" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="F4" s="79" t="s">
         <v>188</v>
       </c>
       <c r="G4" s="139" t="s">
-        <v>718</v>
+        <v>587</v>
       </c>
       <c r="H4" s="79" t="n">
         <v>4</v>
       </c>
       <c r="I4" s="79" t="s">
-        <v>719</v>
+        <v>588</v>
       </c>
       <c r="J4" s="120" t="n">
         <v>4</v>
@@ -18197,13 +17303,13 @@
         <v>5</v>
       </c>
       <c r="M4" s="139" t="s">
-        <v>720</v>
+        <v>589</v>
       </c>
       <c r="N4" s="79" t="s">
-        <v>709</v>
+        <v>578</v>
       </c>
       <c r="O4" s="69" t="s">
-        <v>721</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -18214,25 +17320,25 @@
         <v>8</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>547</v>
+        <v>416</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>722</v>
+        <v>591</v>
       </c>
       <c r="E5" s="79" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="F5" s="79" t="s">
         <v>188</v>
       </c>
       <c r="G5" s="139" t="s">
-        <v>723</v>
+        <v>592</v>
       </c>
       <c r="H5" s="79" t="n">
         <v>5</v>
       </c>
       <c r="I5" s="79" t="s">
-        <v>714</v>
+        <v>583</v>
       </c>
       <c r="J5" s="120" t="n">
         <v>5</v>
@@ -18244,10 +17350,10 @@
         <v>5</v>
       </c>
       <c r="M5" s="139" t="s">
-        <v>724</v>
+        <v>593</v>
       </c>
       <c r="N5" s="79" t="s">
-        <v>725</v>
+        <v>594</v>
       </c>
       <c r="O5" s="69" t="s">
         <v>187</v>
@@ -18261,25 +17367,25 @@
         <v>8</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>726</v>
+        <v>595</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>727</v>
+        <v>596</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="F6" s="79" t="s">
         <v>188</v>
       </c>
       <c r="G6" s="139" t="s">
-        <v>728</v>
+        <v>597</v>
       </c>
       <c r="H6" s="79" t="n">
         <v>5</v>
       </c>
       <c r="I6" s="79" t="s">
-        <v>714</v>
+        <v>583</v>
       </c>
       <c r="J6" s="120" t="n">
         <v>5</v>
@@ -18291,10 +17397,10 @@
         <v>5</v>
       </c>
       <c r="M6" s="139" t="s">
-        <v>729</v>
+        <v>598</v>
       </c>
       <c r="N6" s="79" t="s">
-        <v>725</v>
+        <v>594</v>
       </c>
       <c r="O6" s="69" t="s">
         <v>187</v>
@@ -18501,7 +17607,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
@@ -18536,22 +17642,22 @@
         <v>115</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>609</v>
+        <v>478</v>
       </c>
       <c r="E1" s="79" t="s">
-        <v>697</v>
+        <v>566</v>
       </c>
       <c r="F1" s="79" t="s">
-        <v>698</v>
+        <v>567</v>
       </c>
       <c r="G1" s="139" t="s">
-        <v>699</v>
+        <v>568</v>
       </c>
       <c r="H1" s="79" t="s">
         <v>174</v>
       </c>
       <c r="I1" s="79" t="s">
-        <v>700</v>
+        <v>569</v>
       </c>
       <c r="J1" s="120" t="s">
         <v>82</v>
@@ -18563,13 +17669,13 @@
         <v>84</v>
       </c>
       <c r="M1" s="139" t="s">
-        <v>701</v>
+        <v>570</v>
       </c>
       <c r="N1" s="79" t="s">
-        <v>702</v>
+        <v>571</v>
       </c>
       <c r="O1" s="79" t="s">
-        <v>608</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -18580,25 +17686,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>703</v>
+        <v>572</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>704</v>
+        <v>573</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="F2" s="79" t="s">
         <v>188</v>
       </c>
       <c r="G2" s="139" t="s">
-        <v>706</v>
+        <v>575</v>
       </c>
       <c r="H2" s="79" t="n">
         <v>3</v>
       </c>
       <c r="I2" s="79" t="s">
-        <v>707</v>
+        <v>576</v>
       </c>
       <c r="J2" s="120" t="n">
         <v>3</v>
@@ -18610,13 +17716,13 @@
         <v>3</v>
       </c>
       <c r="M2" s="139" t="s">
-        <v>708</v>
+        <v>577</v>
       </c>
       <c r="N2" s="79" t="s">
-        <v>709</v>
+        <v>578</v>
       </c>
       <c r="O2" s="79" t="s">
-        <v>710</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -18627,25 +17733,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>711</v>
+        <v>580</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>712</v>
+        <v>581</v>
       </c>
       <c r="E3" s="79" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="F3" s="79" t="s">
         <v>188</v>
       </c>
       <c r="G3" s="139" t="s">
-        <v>713</v>
+        <v>582</v>
       </c>
       <c r="H3" s="79" t="n">
         <v>5</v>
       </c>
       <c r="I3" s="79" t="s">
-        <v>714</v>
+        <v>583</v>
       </c>
       <c r="J3" s="120" t="n">
         <v>5</v>
@@ -18657,13 +17763,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="139" t="s">
-        <v>715</v>
+        <v>584</v>
       </c>
       <c r="N3" s="79" t="s">
-        <v>709</v>
+        <v>578</v>
       </c>
       <c r="O3" s="79" t="s">
-        <v>716</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -18674,25 +17780,25 @@
         <v>8</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>582</v>
+        <v>451</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>717</v>
+        <v>586</v>
       </c>
       <c r="E4" s="79" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="F4" s="79" t="s">
         <v>188</v>
       </c>
       <c r="G4" s="139" t="s">
-        <v>718</v>
+        <v>587</v>
       </c>
       <c r="H4" s="79" t="n">
         <v>4</v>
       </c>
       <c r="I4" s="79" t="s">
-        <v>719</v>
+        <v>588</v>
       </c>
       <c r="J4" s="120" t="n">
         <v>4</v>
@@ -18704,13 +17810,13 @@
         <v>5</v>
       </c>
       <c r="M4" s="139" t="s">
-        <v>720</v>
+        <v>589</v>
       </c>
       <c r="N4" s="79" t="s">
-        <v>709</v>
+        <v>578</v>
       </c>
       <c r="O4" s="79" t="s">
-        <v>721</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -18874,10 +17980,10 @@
         <v>115</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>730</v>
+        <v>599</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>731</v>
+        <v>600</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>91</v>
@@ -18895,19 +18001,19 @@
         <v>95</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>732</v>
+        <v>601</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>733</v>
+        <v>602</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>734</v>
+        <v>603</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>735</v>
+        <v>604</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>736</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:15">
